--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\融创\Src\SunacCoordination\Support\Sunac2019\LocalMode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" activeTab="1"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="285">
   <si>
     <t>序号</t>
   </si>
@@ -771,9 +776,6 @@
     <t>1.0P-1.5P-C1.dwg</t>
   </si>
   <si>
-    <t>1.0P/1.5P</t>
-  </si>
-  <si>
     <t>侧边</t>
   </si>
   <si>
@@ -822,9 +824,6 @@
     <t>2.0P-3.0P-C1.dwg</t>
   </si>
   <si>
-    <t>2.0P/3.0P</t>
-  </si>
-  <si>
     <t>1300*1150*650</t>
   </si>
   <si>
@@ -856,13 +855,41 @@
   </si>
   <si>
     <t>1300*1150*750</t>
+  </si>
+  <si>
+    <t>2.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +900,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -930,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -974,14 +1009,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,6 +1031,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1262,43 +1303,43 @@
       <selection activeCell="V53" sqref="A1:AZ67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="7.109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" style="3" customWidth="1"/>
-    <col min="17" max="18" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="20.4140625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="8.9140625" style="2"/>
+    <col min="15" max="15" width="7.08203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="3" customWidth="1"/>
+    <col min="17" max="18" width="8.9140625" style="3"/>
     <col min="19" max="20" width="13" style="3" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="14.44140625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="8.9140625" style="1"/>
+    <col min="22" max="22" width="14.4140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="8.9140625" style="1"/>
     <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" style="1" customWidth="1"/>
-    <col min="27" max="28" width="8.88671875" style="3"/>
-    <col min="29" max="30" width="10.44140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.75" style="1" customWidth="1"/>
+    <col min="27" max="28" width="8.9140625" style="3"/>
+    <col min="29" max="30" width="10.4140625" style="3" customWidth="1"/>
     <col min="31" max="32" width="13" style="3" customWidth="1"/>
-    <col min="33" max="33" width="8.88671875" style="1"/>
+    <col min="33" max="33" width="8.9140625" style="1"/>
     <col min="34" max="34" width="12" style="1" customWidth="1"/>
-    <col min="35" max="38" width="8.88671875" style="1"/>
-    <col min="39" max="39" width="8.88671875" style="3"/>
-    <col min="40" max="40" width="11.77734375" style="3"/>
-    <col min="41" max="44" width="8.88671875" style="3"/>
-    <col min="45" max="50" width="8.88671875" style="1"/>
-    <col min="51" max="52" width="22.44140625" style="1" customWidth="1"/>
+    <col min="35" max="38" width="8.9140625" style="1"/>
+    <col min="39" max="39" width="8.9140625" style="3"/>
+    <col min="40" max="40" width="11.75" style="3"/>
+    <col min="41" max="44" width="8.9140625" style="3"/>
+    <col min="45" max="50" width="8.9140625" style="1"/>
+    <col min="51" max="52" width="22.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>52</v>
@@ -1548,7 +1589,7 @@
       </c>
       <c r="AZ2" s="4"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>62</v>
@@ -1642,7 +1683,7 @@
       </c>
       <c r="AZ3" s="4"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -1738,7 +1779,7 @@
       </c>
       <c r="AZ4" s="4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>70</v>
@@ -1830,7 +1871,7 @@
       </c>
       <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>73</v>
@@ -1926,7 +1967,7 @@
       </c>
       <c r="AZ6" s="4"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>76</v>
@@ -2022,7 +2063,7 @@
       </c>
       <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>81</v>
@@ -2118,7 +2159,7 @@
       </c>
       <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>83</v>
@@ -2216,7 +2257,7 @@
       </c>
       <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>86</v>
@@ -2316,7 +2357,7 @@
       </c>
       <c r="AZ10" s="4"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>88</v>
@@ -2412,7 +2453,7 @@
       </c>
       <c r="AZ11" s="4"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>90</v>
@@ -2512,7 +2553,7 @@
       </c>
       <c r="AZ12" s="4"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>93</v>
@@ -2612,7 +2653,7 @@
       </c>
       <c r="AZ13" s="4"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>95</v>
@@ -2712,7 +2753,7 @@
       </c>
       <c r="AZ14" s="4"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>97</v>
@@ -2814,7 +2855,7 @@
       </c>
       <c r="AZ15" s="4"/>
     </row>
-    <row r="16" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>100</v>
@@ -2916,7 +2957,7 @@
       </c>
       <c r="AZ16" s="4"/>
     </row>
-    <row r="17" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>104</v>
@@ -3018,7 +3059,7 @@
       </c>
       <c r="AZ17" s="4"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>106</v>
@@ -3116,7 +3157,7 @@
       </c>
       <c r="AZ18" s="4"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>111</v>
@@ -3208,7 +3249,7 @@
       </c>
       <c r="AZ19" s="4"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>113</v>
@@ -3302,7 +3343,7 @@
       </c>
       <c r="AZ20" s="4"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>115</v>
@@ -3398,7 +3439,7 @@
       </c>
       <c r="AZ21" s="4"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>117</v>
@@ -3490,7 +3531,7 @@
       </c>
       <c r="AZ22" s="4"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>119</v>
@@ -3586,7 +3627,7 @@
       </c>
       <c r="AZ23" s="4"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>121</v>
@@ -3682,7 +3723,7 @@
       </c>
       <c r="AZ24" s="4"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>123</v>
@@ -3778,7 +3819,7 @@
       </c>
       <c r="AZ25" s="4"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>125</v>
@@ -3876,7 +3917,7 @@
       </c>
       <c r="AZ26" s="4"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>127</v>
@@ -3976,7 +4017,7 @@
       </c>
       <c r="AZ27" s="4"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>129</v>
@@ -4072,7 +4113,7 @@
       </c>
       <c r="AZ28" s="4"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>131</v>
@@ -4172,7 +4213,7 @@
       </c>
       <c r="AZ29" s="4"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>133</v>
@@ -4272,7 +4313,7 @@
       </c>
       <c r="AZ30" s="4"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>135</v>
@@ -4372,7 +4413,7 @@
       </c>
       <c r="AZ31" s="4"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>137</v>
@@ -4474,7 +4515,7 @@
       </c>
       <c r="AZ32" s="4"/>
     </row>
-    <row r="33" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>139</v>
@@ -4576,7 +4617,7 @@
       </c>
       <c r="AZ33" s="4"/>
     </row>
-    <row r="34" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>141</v>
@@ -4678,7 +4719,7 @@
       </c>
       <c r="AZ34" s="4"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>143</v>
@@ -4776,7 +4817,7 @@
       </c>
       <c r="AZ35" s="4"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>145</v>
@@ -4868,7 +4909,7 @@
       </c>
       <c r="AZ36" s="4"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>149</v>
@@ -4964,7 +5005,7 @@
       </c>
       <c r="AZ37" s="4"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>152</v>
@@ -5056,7 +5097,7 @@
       </c>
       <c r="AZ38" s="4"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>154</v>
@@ -5152,7 +5193,7 @@
       </c>
       <c r="AZ39" s="4"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>156</v>
@@ -5246,7 +5287,7 @@
       </c>
       <c r="AZ40" s="4"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>158</v>
@@ -5342,7 +5383,7 @@
       </c>
       <c r="AZ41" s="4"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>160</v>
@@ -5434,7 +5475,7 @@
       </c>
       <c r="AZ42" s="4"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>163</v>
@@ -5530,7 +5571,7 @@
       </c>
       <c r="AZ43" s="4"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>165</v>
@@ -5628,7 +5669,7 @@
       </c>
       <c r="AZ44" s="4"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>167</v>
@@ -5728,7 +5769,7 @@
       </c>
       <c r="AZ45" s="4"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>169</v>
@@ -5824,7 +5865,7 @@
       </c>
       <c r="AZ46" s="4"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>171</v>
@@ -5924,7 +5965,7 @@
       </c>
       <c r="AZ47" s="4"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>173</v>
@@ -6026,7 +6067,7 @@
       </c>
       <c r="AZ48" s="4"/>
     </row>
-    <row r="49" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>175</v>
@@ -6128,7 +6169,7 @@
       </c>
       <c r="AZ49" s="4"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>177</v>
@@ -6226,7 +6267,7 @@
       </c>
       <c r="AZ50" s="4"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>179</v>
@@ -6318,7 +6359,7 @@
       </c>
       <c r="AZ51" s="4"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>183</v>
@@ -6414,7 +6455,7 @@
       </c>
       <c r="AZ52" s="4"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>185</v>
@@ -6506,7 +6547,7 @@
       </c>
       <c r="AZ53" s="4"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>188</v>
@@ -6600,7 +6641,7 @@
       </c>
       <c r="AZ54" s="4"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>191</v>
@@ -6692,7 +6733,7 @@
       </c>
       <c r="AZ55" s="4"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>193</v>
@@ -6784,7 +6825,7 @@
       </c>
       <c r="AZ56" s="4"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>197</v>
@@ -6878,7 +6919,7 @@
       </c>
       <c r="AZ57" s="4"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>200</v>
@@ -6970,7 +7011,7 @@
       </c>
       <c r="AZ58" s="4"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>202</v>
@@ -7062,7 +7103,7 @@
       </c>
       <c r="AZ59" s="4"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>205</v>
@@ -7154,7 +7195,7 @@
       </c>
       <c r="AZ60" s="4"/>
     </row>
-    <row r="61" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>208</v>
@@ -7248,7 +7289,7 @@
       </c>
       <c r="AZ61" s="4"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>213</v>
@@ -7340,7 +7381,7 @@
       </c>
       <c r="AZ62" s="4"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>216</v>
@@ -7434,7 +7475,7 @@
       </c>
       <c r="AZ63" s="4"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>219</v>
@@ -7530,7 +7571,7 @@
       </c>
       <c r="AZ64" s="4"/>
     </row>
-    <row r="65" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>221</v>
@@ -7630,7 +7671,7 @@
       </c>
       <c r="AZ65" s="4"/>
     </row>
-    <row r="66" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>226</v>
@@ -7724,7 +7765,7 @@
       </c>
       <c r="AZ66" s="4"/>
     </row>
-    <row r="67" spans="1:52" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>231</v>
@@ -7824,7 +7865,7 @@
       </c>
       <c r="AZ67" s="4"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7878,7 +7919,7 @@
       <c r="AY68" s="11"/>
       <c r="AZ68" s="11"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -7932,7 +7973,7 @@
       <c r="AY69" s="11"/>
       <c r="AZ69" s="11"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -7995,259 +8036,460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="24.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.9140625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="18" t="s">
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="G3" s="18" t="s">
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D14" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="F17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="F18" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="20" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
+    </row>
+    <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="D21" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>277</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8259,12 +8501,12 @@
       <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>234</v>
       </c>
@@ -8272,7 +8514,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -8280,47 +8522,47 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\融创\Src\SunacCoordination\Support\Sunac2019\LocalMode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Autodesk\AutoCAD 2014\Support\Sunac2019\LocalMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="297">
   <si>
     <t>序号</t>
   </si>
@@ -773,21 +773,12 @@
     <t>1.0P-1.5P-C1</t>
   </si>
   <si>
-    <t>1.0P-1.5P-C1.dwg</t>
-  </si>
-  <si>
-    <t>侧边</t>
-  </si>
-  <si>
     <t>1150*900*500</t>
   </si>
   <si>
     <t>1.0P-1.5P-CY1</t>
   </si>
   <si>
-    <t>1.0P-1.5P-CY1.dwg</t>
-  </si>
-  <si>
     <t>有</t>
   </si>
   <si>
@@ -797,61 +788,34 @@
     <t>1.0P-1.5P-H</t>
   </si>
   <si>
-    <t>1.0P-1.5P-H.dwg</t>
-  </si>
-  <si>
-    <t>后边</t>
-  </si>
-  <si>
     <t>1.0P-1.5P-HY1</t>
   </si>
   <si>
-    <t>1.0P-1.5P-HY1.dwg</t>
-  </si>
-  <si>
     <t>1.0P-1.5P-HY2</t>
   </si>
   <si>
-    <t>1.0P-1.5P-HY2.dwg</t>
-  </si>
-  <si>
     <t>1150*900*650</t>
   </si>
   <si>
     <t>2.0P-3.0P-C1</t>
   </si>
   <si>
-    <t>2.0P-3.0P-C1.dwg</t>
-  </si>
-  <si>
     <t>1300*1150*650</t>
   </si>
   <si>
     <t>2.0P-3.0P-CY1</t>
   </si>
   <si>
-    <t>2.0P-3.0P-CY1.dwg</t>
-  </si>
-  <si>
     <t>1400*1150*650</t>
   </si>
   <si>
     <t>2.0P-3.0P-H</t>
   </si>
   <si>
-    <t>2.0P-3.0P-H.dwg</t>
-  </si>
-  <si>
     <t>2.0P-3.0P-HY1</t>
   </si>
   <si>
-    <t>2.0P-3.0P-HY1.dwg</t>
-  </si>
-  <si>
     <t>2.0P-3.0P-HY2</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY2.dwg</t>
   </si>
   <si>
     <t>1300*1150*750</t>
@@ -882,6 +846,102 @@
   </si>
   <si>
     <t>3.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_CY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_H.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY2.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_CY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_H.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY2.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_CY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_H.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P-HY2.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P-C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P-CY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_H.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,6 +960,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1013,14 +1074,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8039,14 +8100,14 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="24.58203125" customWidth="1"/>
-    <col min="3" max="3" width="19.9140625" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
@@ -8081,409 +8142,409 @@
       <c r="B2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>259</v>
+      <c r="D5" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>275</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>251</v>
+      <c r="E7" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>251</v>
+        <v>260</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>259</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>259</v>
+        <v>254</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>275</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>251</v>
+        <v>258</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>251</v>
+        <v>260</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>259</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -8531,38 +8592,38 @@
       <c r="A5" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="245">
   <si>
     <t>序号</t>
   </si>
@@ -167,6 +167,12 @@
     <t>H3说明</t>
   </si>
   <si>
+    <t>原型平面文件</t>
+  </si>
+  <si>
+    <t>原型侧视图文件</t>
+  </si>
+  <si>
     <t>Window_N_1_0.dwg</t>
   </si>
   <si>
@@ -194,6 +200,9 @@
     <t>H-2a</t>
   </si>
   <si>
+    <t>Window_N_1_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_2_0.dwg</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
     <t>(W-2a)/2</t>
   </si>
   <si>
+    <t>Window_N_2_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_2_1.dwg</t>
   </si>
   <si>
@@ -212,18 +224,27 @@
     <t>W-2a-W1</t>
   </si>
   <si>
+    <t>Window_N_2_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_3_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(H1-85)*2</t>
   </si>
   <si>
+    <t>Window_N_3_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_4_0.dwg</t>
   </si>
   <si>
     <t>W-2a-W1*2</t>
   </si>
   <si>
+    <t>Window_N_4_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_5_0.dwg</t>
   </si>
   <si>
@@ -236,39 +257,66 @@
     <t>值系列</t>
   </si>
   <si>
+    <t>Window_N_5_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_6_0.dwg</t>
   </si>
   <si>
+    <t>Window_N_6_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_7_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(H1-85)</t>
   </si>
   <si>
+    <t>Window_N_7_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_7_1.dwg</t>
   </si>
   <si>
+    <t>Window_N_7_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_8_0.dwg</t>
   </si>
   <si>
+    <t>Window_N_8_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_9_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(W2-85)*2</t>
   </si>
   <si>
+    <t>Window_N_9_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_9_1.dwg</t>
   </si>
   <si>
+    <t>Window_N_9_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_9_2.dwg</t>
   </si>
   <si>
+    <t>Window_N_9_2_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_10_0.dwg</t>
   </si>
   <si>
     <t>W-2a-W1-W3</t>
   </si>
   <si>
+    <t>Window_N_10_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_11_0.dwg</t>
   </si>
   <si>
@@ -278,9 +326,15 @@
     <t>W-2a-W1*2-W3</t>
   </si>
   <si>
+    <t>Window_N_11_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_11_1.dwg</t>
   </si>
   <si>
+    <t>Window_N_11_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_N_12_0.dwg</t>
   </si>
   <si>
@@ -293,57 +347,111 @@
     <t>W1</t>
   </si>
   <si>
+    <t>Window_N_12_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_1_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_1_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_2_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_2_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_2_1.dwg</t>
   </si>
   <si>
+    <t>Window_NN_2_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_3_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_3_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_4_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_4_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_5_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_5_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_6_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_6_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_7_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_7_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_7_1.dwg</t>
   </si>
   <si>
+    <t>Window_NN_7_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_8_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_8_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_9_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_9_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_9_1.dwg</t>
   </si>
   <si>
+    <t>Window_NN_9_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_9_2.dwg</t>
   </si>
   <si>
+    <t>Window_NN_9_2_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_10_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_10_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_11_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_11_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_11_1.dwg</t>
   </si>
   <si>
+    <t>Window_NN_11_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_NN_12_0.dwg</t>
   </si>
   <si>
+    <t>Window_NN_12_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_1_0.dwg</t>
   </si>
   <si>
@@ -353,54 +461,99 @@
     <t>(W1-100)*(H1-100)*0.5</t>
   </si>
   <si>
+    <t>Window_W_1_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_2_0.dwg</t>
   </si>
   <si>
     <t>(W1-100)*(H1-85)*0.5</t>
   </si>
   <si>
+    <t>Window_W_2_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_3_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_3_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_4_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_4_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_5_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_5_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_5_1.dwg</t>
   </si>
   <si>
+    <t>Window_W_5_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_6_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(H1-100)*2</t>
   </si>
   <si>
+    <t>Window_W_6_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_7_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_7_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_8_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_8_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_8_1.dwg</t>
   </si>
   <si>
+    <t>Window_W_8_1_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_9_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_9_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_10_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_10_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_11_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_11_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_12_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_12_0_P.dwg</t>
+  </si>
+  <si>
     <t>Window_W_13_0.dwg</t>
   </si>
   <si>
+    <t>Window_W_13_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_1_0.dwg</t>
   </si>
   <si>
@@ -410,24 +563,39 @@
     <t>(W1-91.5)*(H1-104)</t>
   </si>
   <si>
+    <t>Door_TL_1_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_2_0.dwg</t>
   </si>
   <si>
+    <t>Door_TL_2_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_3_0.dwg</t>
   </si>
   <si>
     <t>(W1-77)*(H1-98)</t>
   </si>
   <si>
+    <t>Door_TL_3_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_4_0.dwg</t>
   </si>
   <si>
     <t>(W1-96)*(H1-105)</t>
   </si>
   <si>
+    <t>Door_TL_4_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_5_0.dwg</t>
   </si>
   <si>
+    <t>Door_TL_5_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_6_0.dwg</t>
   </si>
   <si>
@@ -437,27 +605,42 @@
     <t>(W-2a)/3</t>
   </si>
   <si>
+    <t>Door_TL_6_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_7_0.dwg</t>
   </si>
   <si>
     <t>(W-2a)/4</t>
   </si>
   <si>
+    <t>Door_TL_7_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_8_0.dwg</t>
   </si>
   <si>
+    <t>Door_TL_8_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_TL_9_0.dwg</t>
   </si>
   <si>
     <t>(W1-96)*(H1-105)*2</t>
   </si>
   <si>
+    <t>Door_TL_9_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_1_0.dwg</t>
   </si>
   <si>
     <t>(W1-118)*(H1-118)</t>
   </si>
   <si>
+    <t>Door_WK_1_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_2_0.dwg</t>
   </si>
   <si>
@@ -470,21 +653,33 @@
     <t>450-a</t>
   </si>
   <si>
+    <t>Door_WK_2_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_3_0.dwg</t>
   </si>
   <si>
     <t>(W1*2-118)*(H1-118)</t>
   </si>
   <si>
+    <t>Door_WK_3_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_4_0.dwg</t>
   </si>
   <si>
     <t>(W1-126)*(H1-118)</t>
   </si>
   <si>
+    <t>Door_WK_4_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_4_1.dwg</t>
   </si>
   <si>
+    <t>Door_WK_4_1_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_5_0.dwg</t>
   </si>
   <si>
@@ -497,6 +692,9 @@
     <t>1000-a</t>
   </si>
   <si>
+    <t>Door_WK_5_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_6_0.dwg</t>
   </si>
   <si>
@@ -509,10 +707,16 @@
     <t>H-2a-900</t>
   </si>
   <si>
+    <t>Door_WK_6_0_P.dwg</t>
+  </si>
+  <si>
     <t>Door_WK_7_0.dwg</t>
   </si>
   <si>
     <t>774*(H-2a-118)+(W1-108)*(H1-85)</t>
+  </si>
+  <si>
+    <t>Door_WK_7_0_P.dwg</t>
   </si>
   <si>
     <t>编号规则：</t>
@@ -553,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -574,6 +778,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -583,7 +795,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,9 +838,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,43 +865,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,32 +884,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +904,14 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -738,37 +942,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +1002,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,61 +1056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,25 +1086,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,59 +1139,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,17 +1180,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,10 +1242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,133 +1254,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1549,10 +1753,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX70"/>
+  <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1588,9 +1792,10 @@
     <col min="40" max="40" width="11.7777777777778" style="5"/>
     <col min="41" max="44" width="8.88888888888889" style="5"/>
     <col min="45" max="50" width="8.88888888888889" style="3"/>
+    <col min="51" max="52" width="22.4444444444444" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" spans="1:50">
+    <row r="1" ht="27.6" spans="1:52">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1741,26 +1946,32 @@
       <c r="AX1" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:52">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -1772,23 +1983,23 @@
         <v>800</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="6"/>
@@ -1796,7 +2007,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -1804,17 +2015,17 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
@@ -1822,33 +2033,37 @@
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
       <c r="AS2" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT2" s="11"/>
       <c r="AU2" s="11"/>
       <c r="AV2" s="11"/>
       <c r="AW2" s="11"/>
       <c r="AX2" s="11"/>
+      <c r="AY2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ2" s="6"/>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:52">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -1860,33 +2075,33 @@
         <v>1500</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -1894,17 +2109,17 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
@@ -1912,33 +2127,37 @@
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
       <c r="AS3" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT3" s="11"/>
       <c r="AU3" s="11"/>
       <c r="AV3" s="11"/>
       <c r="AW3" s="11"/>
       <c r="AX3" s="11"/>
+      <c r="AY3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ3" s="6"/>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:52">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1950,13 +2169,13 @@
         <v>2000</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P4" s="9">
         <v>750</v>
@@ -1966,17 +2185,17 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -1984,17 +2203,17 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
@@ -2002,33 +2221,37 @@
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT4" s="11"/>
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="11"/>
       <c r="AX4" s="11"/>
+      <c r="AY4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ4" s="6"/>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:52">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -2040,23 +2263,23 @@
         <v>1500</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="6"/>
@@ -2064,7 +2287,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -2072,17 +2295,17 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
@@ -2090,33 +2313,37 @@
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
       <c r="AW5" s="11"/>
       <c r="AX5" s="11"/>
+      <c r="AY5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ5" s="6"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:52">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="6">
         <v>2</v>
@@ -2128,13 +2355,13 @@
         <v>2200</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P6" s="9">
         <v>600</v>
@@ -2144,17 +2371,17 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -2162,17 +2389,17 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
@@ -2180,33 +2407,37 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
       <c r="AV6" s="11"/>
       <c r="AW6" s="11"/>
       <c r="AX6" s="11"/>
+      <c r="AY6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ6" s="6"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:52">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
@@ -2218,23 +2449,23 @@
         <v>800</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="6"/>
@@ -2242,7 +2473,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -2250,17 +2481,17 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN7" s="10">
         <v>950400</v>
@@ -2270,33 +2501,37 @@
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
       <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
+      <c r="AY7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ7" s="6"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:52">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6">
         <v>2</v>
@@ -2308,23 +2543,23 @@
         <v>1500</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="6"/>
@@ -2332,7 +2567,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
@@ -2340,17 +2575,17 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN8" s="10">
         <v>950500400</v>
@@ -2360,33 +2595,37 @@
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
       <c r="AX8" s="11"/>
+      <c r="AY8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ8" s="6"/>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:52">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -2398,33 +2637,33 @@
         <v>1500</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -2432,17 +2671,17 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN9" s="10">
         <v>950500400</v>
@@ -2452,33 +2691,37 @@
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT9" s="11"/>
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
       <c r="AX9" s="11"/>
+      <c r="AY9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" s="6"/>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:52">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
@@ -2490,13 +2733,13 @@
         <v>2000</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P10" s="9">
         <v>750</v>
@@ -2506,17 +2749,17 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
@@ -2524,17 +2767,17 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN10" s="10">
         <v>950500400</v>
@@ -2544,33 +2787,37 @@
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT10" s="11"/>
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
+      <c r="AY10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:52">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6">
         <v>2</v>
@@ -2582,23 +2829,23 @@
         <v>1500</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -2606,7 +2853,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
@@ -2614,17 +2861,17 @@
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN11" s="9">
         <v>950</v>
@@ -2634,33 +2881,37 @@
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT11" s="11"/>
       <c r="AU11" s="11"/>
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
       <c r="AX11" s="11"/>
+      <c r="AY11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:52">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" s="6">
         <v>2</v>
@@ -2672,13 +2923,13 @@
         <v>1800</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P12" s="9">
         <v>550</v>
@@ -2688,17 +2939,17 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -2706,17 +2957,17 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN12" s="10">
         <v>950500</v>
@@ -2726,33 +2977,37 @@
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
       <c r="AX12" s="11"/>
+      <c r="AY12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:52">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="6">
         <v>2</v>
@@ -2764,13 +3019,13 @@
         <v>2300</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P13" s="9">
         <v>600</v>
@@ -2780,17 +3035,17 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -2798,17 +3053,17 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN13" s="10">
         <v>950500</v>
@@ -2818,33 +3073,37 @@
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT13" s="11"/>
       <c r="AU13" s="11"/>
       <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
+      <c r="AY13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:52">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="6">
         <v>2</v>
@@ -2856,13 +3115,13 @@
         <v>3000</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P14" s="9">
         <v>750</v>
@@ -2872,17 +3131,17 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -2890,17 +3149,17 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN14" s="10">
         <v>950500</v>
@@ -2910,33 +3169,37 @@
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT14" s="11"/>
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
       <c r="AX14" s="11"/>
+      <c r="AY14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:52">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>
@@ -2948,13 +3211,13 @@
         <v>2500</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P15" s="9">
         <v>750</v>
@@ -2964,17 +3227,17 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB15" s="9">
         <v>500</v>
@@ -2984,17 +3247,17 @@
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN15" s="9">
         <v>500</v>
@@ -3004,33 +3267,37 @@
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT15" s="11"/>
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
       <c r="AX15" s="11"/>
+      <c r="AY15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ15" s="6"/>
     </row>
-    <row r="16" ht="27.6" spans="1:50">
+    <row r="16" ht="27.6" spans="1:52">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
@@ -3042,13 +3309,13 @@
         <v>2700</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P16" s="9">
         <v>600</v>
@@ -3058,17 +3325,17 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="9">
         <v>500</v>
@@ -3078,17 +3345,17 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN16" s="10">
         <v>950500</v>
@@ -3098,33 +3365,37 @@
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT16" s="11"/>
       <c r="AU16" s="11"/>
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
+      <c r="AY16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ16" s="6"/>
     </row>
-    <row r="17" ht="27.6" spans="1:50">
+    <row r="17" ht="27.6" spans="1:52">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
@@ -3136,13 +3407,13 @@
         <v>3300</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P17" s="9">
         <v>750</v>
@@ -3152,17 +3423,17 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB17" s="9">
         <v>500</v>
@@ -3172,17 +3443,17 @@
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN17" s="10">
         <v>950500</v>
@@ -3192,33 +3463,37 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT17" s="11"/>
       <c r="AU17" s="11"/>
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
       <c r="AX17" s="11"/>
+      <c r="AY17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:52">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18" s="6">
         <v>2</v>
@@ -3230,23 +3505,23 @@
         <v>1500</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -3254,7 +3529,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -3262,17 +3537,17 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN18" s="10">
         <v>950500400</v>
@@ -3282,35 +3557,39 @@
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
       <c r="AS18" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AT18" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6"/>
+      <c r="AY18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:52">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3322,23 +3601,23 @@
         <v>800</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="6"/>
@@ -3346,7 +3625,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -3354,17 +3633,17 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
       <c r="AM19" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
@@ -3372,33 +3651,37 @@
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT19" s="11"/>
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6"/>
+      <c r="AY19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:52">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3410,33 +3693,33 @@
         <v>1500</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -3444,17 +3727,17 @@
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
       <c r="AM20" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
@@ -3462,33 +3745,37 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT20" s="11"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6"/>
+      <c r="AY20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:52">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3500,13 +3787,13 @@
         <v>2000</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P21" s="9">
         <v>750</v>
@@ -3516,17 +3803,17 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -3534,17 +3821,17 @@
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
       <c r="AL21" s="6"/>
       <c r="AM21" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
@@ -3552,33 +3839,37 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT21" s="11"/>
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6"/>
+      <c r="AY21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:52">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H22" s="6">
         <v>2</v>
@@ -3590,23 +3881,23 @@
         <v>1500</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="6"/>
@@ -3614,7 +3905,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -3622,17 +3913,17 @@
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
       <c r="AL22" s="6"/>
       <c r="AM22" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
@@ -3640,33 +3931,37 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT22" s="11"/>
       <c r="AU22" s="6"/>
       <c r="AV22" s="6"/>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6"/>
+      <c r="AY22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:52">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H23" s="6">
         <v>2</v>
@@ -3678,13 +3973,13 @@
         <v>2200</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P23" s="9">
         <v>600</v>
@@ -3694,17 +3989,17 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -3712,17 +4007,17 @@
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
       <c r="AL23" s="6"/>
       <c r="AM23" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
@@ -3730,33 +4025,37 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT23" s="11"/>
       <c r="AU23" s="6"/>
       <c r="AV23" s="6"/>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6"/>
+      <c r="AY23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:52">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
@@ -3768,23 +4067,23 @@
         <v>800</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V24" s="11"/>
       <c r="W24" s="6"/>
@@ -3792,7 +4091,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -3800,17 +4099,17 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
       <c r="AL24" s="6"/>
       <c r="AM24" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN24" s="10">
         <v>950400400</v>
@@ -3820,33 +4119,37 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT24" s="11"/>
       <c r="AU24" s="6"/>
       <c r="AV24" s="6"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6"/>
+      <c r="AY24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:52">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H25" s="6">
         <v>2</v>
@@ -3858,23 +4161,23 @@
         <v>1500</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="6"/>
@@ -3882,7 +4185,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -3890,17 +4193,17 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN25" s="10">
         <v>950500400</v>
@@ -3910,33 +4213,37 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
       <c r="AS25" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT25" s="11"/>
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6"/>
+      <c r="AY25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:52">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -3948,33 +4255,33 @@
         <v>1500</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -3982,17 +4289,17 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
       <c r="AL26" s="6"/>
       <c r="AM26" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN26" s="10">
         <v>950500400</v>
@@ -4002,33 +4309,37 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT26" s="11"/>
       <c r="AU26" s="6"/>
       <c r="AV26" s="6"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
+      <c r="AY26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:52">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
@@ -4040,13 +4351,13 @@
         <v>2000</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P27" s="9">
         <v>750</v>
@@ -4056,17 +4367,17 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -4074,17 +4385,17 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
       <c r="AM27" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN27" s="10">
         <v>950500400</v>
@@ -4094,33 +4405,37 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
       <c r="AS27" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT27" s="11"/>
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
+      <c r="AY27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:52">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H28" s="6">
         <v>2</v>
@@ -4132,23 +4447,23 @@
         <v>1500</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -4156,7 +4471,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -4164,17 +4479,17 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
       <c r="AM28" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN28" s="9">
         <v>950</v>
@@ -4184,33 +4499,37 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
       <c r="AS28" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT28" s="11"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
+      <c r="AY28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:52">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H29" s="6">
         <v>2</v>
@@ -4222,13 +4541,13 @@
         <v>1800</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P29" s="9">
         <v>550</v>
@@ -4238,17 +4557,17 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -4256,17 +4575,17 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
       <c r="AM29" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN29" s="10">
         <v>950500</v>
@@ -4276,33 +4595,37 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
       <c r="AS29" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT29" s="11"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
+      <c r="AY29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:52">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H30" s="6">
         <v>2</v>
@@ -4314,13 +4637,13 @@
         <v>2300</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P30" s="9">
         <v>600</v>
@@ -4330,17 +4653,17 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -4348,17 +4671,17 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
       <c r="AM30" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN30" s="10">
         <v>950500</v>
@@ -4368,33 +4691,37 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
       <c r="AS30" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT30" s="11"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
+      <c r="AY30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:52">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H31" s="6">
         <v>2</v>
@@ -4406,13 +4733,13 @@
         <v>3000</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P31" s="9">
         <v>750</v>
@@ -4422,17 +4749,17 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -4440,17 +4767,17 @@
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
       <c r="AM31" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN31" s="10">
         <v>950500</v>
@@ -4460,33 +4787,37 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT31" s="11"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
+      <c r="AY31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:52">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H32" s="6">
         <v>1</v>
@@ -4498,13 +4829,13 @@
         <v>2500</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P32" s="9">
         <v>750</v>
@@ -4514,17 +4845,17 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB32" s="9">
         <v>500</v>
@@ -4534,17 +4865,17 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
       <c r="AM32" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN32" s="9">
         <v>500</v>
@@ -4554,33 +4885,37 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
       <c r="AS32" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT32" s="11"/>
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
       <c r="AW32" s="6"/>
       <c r="AX32" s="6"/>
+      <c r="AY32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ32" s="6"/>
     </row>
-    <row r="33" ht="27.6" spans="1:50">
+    <row r="33" ht="27.6" spans="1:52">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H33" s="6">
         <v>2</v>
@@ -4592,13 +4927,13 @@
         <v>2700</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P33" s="9">
         <v>600</v>
@@ -4608,17 +4943,17 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB33" s="9">
         <v>500</v>
@@ -4628,17 +4963,17 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN33" s="10">
         <v>950500</v>
@@ -4648,33 +4983,37 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
       <c r="AS33" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT33" s="11"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
       <c r="AX33" s="6"/>
+      <c r="AY33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ33" s="6"/>
     </row>
-    <row r="34" ht="27.6" spans="1:50">
+    <row r="34" ht="27.6" spans="1:52">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H34" s="6">
         <v>2</v>
@@ -4686,13 +5025,13 @@
         <v>3300</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P34" s="9">
         <v>750</v>
@@ -4702,17 +5041,17 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB34" s="9">
         <v>500</v>
@@ -4722,17 +5061,17 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH34" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN34" s="10">
         <v>950500</v>
@@ -4742,33 +5081,37 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="9"/>
       <c r="AS34" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT34" s="11"/>
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
       <c r="AW34" s="6"/>
       <c r="AX34" s="6"/>
+      <c r="AY34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:52">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H35" s="6">
         <v>2</v>
@@ -4780,23 +5123,23 @@
         <v>1500</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -4804,7 +5147,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -4812,17 +5155,17 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH35" s="6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
       <c r="AM35" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN35" s="10">
         <v>950500400</v>
@@ -4832,35 +5175,39 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
       <c r="AS35" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AT35" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
+      <c r="AY35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:52">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H36" s="6">
         <v>1</v>
@@ -4872,23 +5219,23 @@
         <v>800</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -4896,7 +5243,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -4904,17 +5251,17 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH36" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
       <c r="AL36" s="6"/>
       <c r="AM36" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
@@ -4922,33 +5269,37 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="9"/>
       <c r="AS36" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
       <c r="AV36" s="6"/>
       <c r="AW36" s="6"/>
       <c r="AX36" s="6"/>
+      <c r="AY36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:52">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -4960,23 +5311,23 @@
         <v>800</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -4984,7 +5335,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -4992,17 +5343,17 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH37" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
       <c r="AL37" s="6"/>
       <c r="AM37" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN37" s="9">
         <v>400</v>
@@ -5012,33 +5363,37 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
       <c r="AS37" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT37" s="6"/>
       <c r="AU37" s="6"/>
       <c r="AV37" s="6"/>
       <c r="AW37" s="6"/>
       <c r="AX37" s="6"/>
+      <c r="AY37" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:52">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H38" s="6">
         <v>1</v>
@@ -5050,23 +5405,23 @@
         <v>800</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -5074,7 +5429,7 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -5082,17 +5437,17 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
       <c r="AM38" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
@@ -5100,33 +5455,37 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="9"/>
       <c r="AS38" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT38" s="6"/>
       <c r="AU38" s="6"/>
       <c r="AV38" s="6"/>
       <c r="AW38" s="6"/>
       <c r="AX38" s="6"/>
+      <c r="AY38" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ38" s="6"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:52">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
@@ -5138,23 +5497,23 @@
         <v>800</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -5162,7 +5521,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -5170,17 +5529,17 @@
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN39" s="9">
         <v>400</v>
@@ -5190,33 +5549,37 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
       <c r="AS39" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT39" s="6"/>
       <c r="AU39" s="6"/>
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
       <c r="AX39" s="6"/>
+      <c r="AY39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ39" s="6"/>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:52">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H40" s="6">
         <v>1</v>
@@ -5228,33 +5591,33 @@
         <v>1500</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -5262,17 +5625,17 @@
       <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
@@ -5280,33 +5643,37 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
       <c r="AS40" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT40" s="6"/>
       <c r="AU40" s="6"/>
       <c r="AV40" s="6"/>
       <c r="AW40" s="6"/>
       <c r="AX40" s="6"/>
+      <c r="AY40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ40" s="6"/>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:52">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
@@ -5318,13 +5685,13 @@
         <v>2000</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P41" s="10">
         <v>650700</v>
@@ -5334,17 +5701,17 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -5352,17 +5719,17 @@
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
@@ -5370,33 +5737,37 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
       <c r="AS41" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
       <c r="AV41" s="6"/>
       <c r="AW41" s="6"/>
       <c r="AX41" s="6"/>
+      <c r="AY41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ41" s="6"/>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:52">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H42" s="6">
         <v>2</v>
@@ -5408,23 +5779,23 @@
         <v>1500</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -5432,7 +5803,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -5440,17 +5811,17 @@
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH42" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
       <c r="AM42" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
@@ -5458,33 +5829,37 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="9"/>
       <c r="AS42" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
       <c r="AW42" s="6"/>
       <c r="AX42" s="6"/>
+      <c r="AY42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ42" s="6"/>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:52">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H43" s="6">
         <v>2</v>
@@ -5496,13 +5871,13 @@
         <v>2200</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P43" s="10">
         <v>650700</v>
@@ -5512,17 +5887,17 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -5530,17 +5905,17 @@
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH43" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
@@ -5548,33 +5923,37 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
       <c r="AS43" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
       <c r="AW43" s="6"/>
       <c r="AX43" s="6"/>
+      <c r="AY43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ43" s="6"/>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:52">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H44" s="6">
         <v>1</v>
@@ -5586,33 +5965,33 @@
         <v>1500</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -5620,17 +5999,17 @@
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH44" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
       <c r="AM44" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN44" s="10">
         <v>500400</v>
@@ -5640,33 +6019,37 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="9"/>
       <c r="AS44" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT44" s="6"/>
       <c r="AU44" s="6"/>
       <c r="AV44" s="6"/>
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
+      <c r="AY44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ44" s="6"/>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:52">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H45" s="6">
         <v>1</v>
@@ -5678,13 +6061,13 @@
         <v>2000</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P45" s="10">
         <v>650700</v>
@@ -5694,17 +6077,17 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
@@ -5712,17 +6095,17 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH45" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN45" s="10">
         <v>500400</v>
@@ -5732,33 +6115,37 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="9"/>
       <c r="AS45" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT45" s="6"/>
       <c r="AU45" s="6"/>
       <c r="AV45" s="6"/>
       <c r="AW45" s="6"/>
       <c r="AX45" s="6"/>
+      <c r="AY45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ45" s="6"/>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:52">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H46" s="6">
         <v>2</v>
@@ -5770,23 +6157,23 @@
         <v>1500</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -5794,7 +6181,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -5802,17 +6189,17 @@
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH46" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
       <c r="AL46" s="6"/>
       <c r="AM46" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN46" s="10">
         <v>500400</v>
@@ -5822,33 +6209,37 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="9"/>
       <c r="AS46" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT46" s="6"/>
       <c r="AU46" s="6"/>
       <c r="AV46" s="6"/>
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
+      <c r="AY46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ46" s="6"/>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:52">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H47" s="6">
         <v>2</v>
@@ -5860,13 +6251,13 @@
         <v>3000</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P47" s="10">
         <v>650700</v>
@@ -5876,17 +6267,17 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
@@ -5894,17 +6285,17 @@
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
       <c r="AM47" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN47" s="9">
         <v>500</v>
@@ -5914,33 +6305,37 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="9"/>
       <c r="AS47" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT47" s="6"/>
       <c r="AU47" s="6"/>
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
       <c r="AX47" s="6"/>
+      <c r="AY47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ47" s="6"/>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:52">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -5952,13 +6347,13 @@
         <v>2500</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P48" s="10">
         <v>650700</v>
@@ -5968,17 +6363,17 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB48" s="9">
         <v>500</v>
@@ -5988,17 +6383,17 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH48" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN48" s="9">
         <v>500</v>
@@ -6008,33 +6403,37 @@
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9"/>
       <c r="AS48" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT48" s="6"/>
       <c r="AU48" s="6"/>
       <c r="AV48" s="6"/>
       <c r="AW48" s="6"/>
       <c r="AX48" s="6"/>
+      <c r="AY48" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ48" s="6"/>
     </row>
-    <row r="49" ht="27.6" spans="1:50">
+    <row r="49" ht="27.6" spans="1:52">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H49" s="6">
         <v>2</v>
@@ -6046,13 +6445,13 @@
         <v>3300</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P49" s="10">
         <v>650700</v>
@@ -6062,17 +6461,17 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB49" s="9">
         <v>500</v>
@@ -6082,17 +6481,17 @@
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH49" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN49" s="9">
         <v>500</v>
@@ -6102,33 +6501,37 @@
       <c r="AQ49" s="9"/>
       <c r="AR49" s="9"/>
       <c r="AS49" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT49" s="6"/>
       <c r="AU49" s="6"/>
       <c r="AV49" s="6"/>
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
+      <c r="AY49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ49" s="6"/>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:52">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H50" s="6">
         <v>2</v>
@@ -6140,23 +6543,23 @@
         <v>1500</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -6164,7 +6567,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
@@ -6172,17 +6575,17 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH50" s="6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
       <c r="AM50" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AN50" s="10">
         <v>500400</v>
@@ -6192,35 +6595,39 @@
       <c r="AQ50" s="9"/>
       <c r="AR50" s="9"/>
       <c r="AS50" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AT50" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
       <c r="AW50" s="6"/>
       <c r="AX50" s="6"/>
+      <c r="AY50" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ50" s="6"/>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:52">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H51" s="6">
         <v>2</v>
@@ -6232,23 +6639,23 @@
         <v>1500</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -6256,7 +6663,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
@@ -6264,17 +6671,17 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
       <c r="AM51" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
@@ -6282,33 +6689,37 @@
       <c r="AQ51" s="9"/>
       <c r="AR51" s="9"/>
       <c r="AS51" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
       <c r="AX51" s="6"/>
+      <c r="AY51" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ51" s="6"/>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:52">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H52" s="6">
         <v>2</v>
@@ -6320,23 +6731,23 @@
         <v>1500</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
@@ -6344,7 +6755,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
@@ -6352,17 +6763,17 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH52" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
       <c r="AM52" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN52" s="9">
         <v>400</v>
@@ -6372,33 +6783,37 @@
       <c r="AQ52" s="9"/>
       <c r="AR52" s="9"/>
       <c r="AS52" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT52" s="6"/>
       <c r="AU52" s="6"/>
       <c r="AV52" s="6"/>
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
+      <c r="AY52" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ52" s="6"/>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:52">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H53" s="6">
         <v>2</v>
@@ -6410,23 +6825,23 @@
         <v>2400</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
@@ -6434,7 +6849,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -6442,17 +6857,17 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
@@ -6460,33 +6875,37 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
       <c r="AS53" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT53" s="6"/>
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
       <c r="AW53" s="6"/>
       <c r="AX53" s="6"/>
+      <c r="AY53" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ53" s="6"/>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:52">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
@@ -6498,33 +6917,33 @@
         <v>2700</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -6532,17 +6951,17 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
@@ -6550,33 +6969,37 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
       <c r="AS54" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
       <c r="AV54" s="6"/>
       <c r="AW54" s="6"/>
       <c r="AX54" s="6"/>
+      <c r="AY54" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ54" s="6"/>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:52">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H55" s="6">
         <v>2</v>
@@ -6588,23 +7011,23 @@
         <v>2700</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -6612,7 +7035,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -6620,17 +7043,17 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
       <c r="AM55" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
@@ -6638,33 +7061,37 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9"/>
       <c r="AS55" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT55" s="6"/>
       <c r="AU55" s="6"/>
       <c r="AV55" s="6"/>
       <c r="AW55" s="6"/>
       <c r="AX55" s="6"/>
+      <c r="AY55" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ55" s="6"/>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:52">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H56" s="6">
         <v>2</v>
@@ -6676,23 +7103,23 @@
         <v>3600</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
@@ -6700,7 +7127,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -6708,17 +7135,17 @@
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
       <c r="AL56" s="6"/>
       <c r="AM56" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
@@ -6726,33 +7153,37 @@
       <c r="AQ56" s="9"/>
       <c r="AR56" s="9"/>
       <c r="AS56" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT56" s="6"/>
       <c r="AU56" s="6"/>
       <c r="AV56" s="6"/>
       <c r="AW56" s="6"/>
       <c r="AX56" s="6"/>
+      <c r="AY56" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ56" s="6"/>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:52">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H57" s="6">
         <v>4</v>
@@ -6764,33 +7195,33 @@
         <v>4800</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V57" s="9" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -6798,17 +7229,17 @@
       <c r="AE57" s="9"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
       <c r="AK57" s="6"/>
       <c r="AL57" s="6"/>
       <c r="AM57" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
@@ -6816,33 +7247,37 @@
       <c r="AQ57" s="9"/>
       <c r="AR57" s="9"/>
       <c r="AS57" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT57" s="6"/>
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
       <c r="AW57" s="6"/>
       <c r="AX57" s="6"/>
+      <c r="AY57" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ57" s="6"/>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:52">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H58" s="6">
         <v>4</v>
@@ -6854,23 +7289,23 @@
         <v>4800</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
@@ -6878,7 +7313,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -6886,17 +7321,17 @@
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
@@ -6904,33 +7339,37 @@
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
       <c r="AS58" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT58" s="6"/>
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
+      <c r="AY58" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ58" s="6"/>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:52">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H59" s="6">
         <v>4</v>
@@ -6942,23 +7381,23 @@
         <v>6000</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
@@ -6966,7 +7405,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -6974,17 +7413,17 @@
       <c r="AE59" s="9"/>
       <c r="AF59" s="9"/>
       <c r="AG59" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH59" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
       <c r="AM59" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
@@ -6992,33 +7431,37 @@
       <c r="AQ59" s="9"/>
       <c r="AR59" s="9"/>
       <c r="AS59" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
+      <c r="AY59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ59" s="6"/>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:52">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H60" s="6">
         <v>1</v>
@@ -7030,23 +7473,23 @@
         <v>1000</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
@@ -7054,7 +7497,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -7062,17 +7505,17 @@
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
       <c r="AG60" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
       <c r="AK60" s="6"/>
       <c r="AL60" s="6"/>
       <c r="AM60" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
@@ -7080,33 +7523,37 @@
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
       <c r="AS60" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT60" s="6"/>
       <c r="AU60" s="6"/>
       <c r="AV60" s="6"/>
       <c r="AW60" s="6"/>
       <c r="AX60" s="6"/>
+      <c r="AY60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ60" s="6"/>
     </row>
-    <row r="61" ht="27.6" spans="1:50">
+    <row r="61" ht="27.6" spans="1:52">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H61" s="6">
         <v>1</v>
@@ -7118,33 +7565,33 @@
         <v>1300</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V61" s="6" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -7152,17 +7599,17 @@
       <c r="AE61" s="9"/>
       <c r="AF61" s="9"/>
       <c r="AG61" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
@@ -7170,33 +7617,37 @@
       <c r="AQ61" s="9"/>
       <c r="AR61" s="9"/>
       <c r="AS61" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT61" s="6"/>
       <c r="AU61" s="6"/>
       <c r="AV61" s="6"/>
       <c r="AW61" s="6"/>
       <c r="AX61" s="6"/>
+      <c r="AY61" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ61" s="6"/>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:52">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H62" s="6">
         <v>1</v>
@@ -7208,23 +7659,23 @@
         <v>2000</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
@@ -7232,7 +7683,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -7240,17 +7691,17 @@
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
       <c r="AG62" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH62" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
       <c r="AL62" s="6"/>
       <c r="AM62" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
@@ -7258,33 +7709,37 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT62" s="6"/>
       <c r="AU62" s="6"/>
       <c r="AV62" s="6"/>
       <c r="AW62" s="6"/>
       <c r="AX62" s="6"/>
+      <c r="AY62" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ62" s="6"/>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:52">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H63" s="6">
         <v>1</v>
@@ -7296,33 +7751,33 @@
         <v>2000</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -7330,17 +7785,17 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
       <c r="AG63" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH63" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
@@ -7348,33 +7803,37 @@
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9"/>
       <c r="AS63" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT63" s="6"/>
       <c r="AU63" s="6"/>
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
       <c r="AX63" s="6"/>
+      <c r="AY63" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ63" s="6"/>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:52">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H64" s="6">
         <v>1</v>
@@ -7386,13 +7845,13 @@
         <v>2400</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P64" s="9">
         <v>1000</v>
@@ -7402,17 +7861,17 @@
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -7420,17 +7879,17 @@
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH64" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
@@ -7438,33 +7897,37 @@
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
       <c r="AS64" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT64" s="6"/>
       <c r="AU64" s="6"/>
       <c r="AV64" s="6"/>
       <c r="AW64" s="6"/>
       <c r="AX64" s="6"/>
+      <c r="AY64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ64" s="6"/>
     </row>
-    <row r="65" ht="27.6" spans="1:50">
+    <row r="65" ht="27.6" spans="1:52">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H65" s="6">
         <v>2</v>
@@ -7476,13 +7939,13 @@
         <v>3100</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P65" s="9">
         <v>1000</v>
@@ -7492,17 +7955,17 @@
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V65" s="11" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB65" s="12">
         <v>700</v>
@@ -7512,53 +7975,57 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
       <c r="AG65" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH65" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
       <c r="AK65" s="6"/>
       <c r="AL65" s="6"/>
       <c r="AM65" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN65" s="9" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
       <c r="AR65" s="9"/>
       <c r="AS65" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT65" s="6"/>
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
       <c r="AW65" s="6"/>
       <c r="AX65" s="6"/>
+      <c r="AY65" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ65" s="6"/>
     </row>
-    <row r="66" ht="27.6" spans="1:50">
+    <row r="66" ht="27.6" spans="1:52">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H66" s="6">
         <v>2</v>
@@ -7570,23 +8037,23 @@
         <v>1700</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="V66" s="6">
         <v>900</v>
@@ -7596,7 +8063,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -7604,17 +8071,17 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH66" s="6" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
       <c r="AK66" s="6"/>
       <c r="AL66" s="6"/>
       <c r="AM66" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
@@ -7622,33 +8089,37 @@
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
       <c r="AS66" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AT66" s="6"/>
       <c r="AU66" s="6"/>
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6"/>
+      <c r="AY66" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ66" s="6"/>
     </row>
-    <row r="67" ht="27.6" spans="1:50">
+    <row r="67" ht="27.6" spans="1:52">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="H67" s="6">
         <v>2</v>
@@ -7660,23 +8131,23 @@
         <v>1700</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="V67" s="6">
         <v>900</v>
@@ -7686,7 +8157,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -7694,17 +8165,17 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
       <c r="AG67" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH67" s="6" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
       <c r="AK67" s="6"/>
       <c r="AL67" s="6"/>
       <c r="AM67" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AN67" s="9">
         <v>400</v>
@@ -7714,7 +8185,7 @@
       <c r="AQ67" s="9"/>
       <c r="AR67" s="9"/>
       <c r="AS67" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AT67" s="16">
         <v>900600</v>
@@ -7723,8 +8194,12 @@
       <c r="AV67" s="6"/>
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
+      <c r="AY67" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ67" s="6"/>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:52">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -7775,8 +8250,10 @@
       <c r="AV68" s="13"/>
       <c r="AW68" s="13"/>
       <c r="AX68" s="13"/>
+      <c r="AY68" s="13"/>
+      <c r="AZ68" s="13"/>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:52">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -7827,8 +8304,10 @@
       <c r="AV69" s="13"/>
       <c r="AW69" s="13"/>
       <c r="AX69" s="13"/>
+      <c r="AY69" s="13"/>
+      <c r="AZ69" s="13"/>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:52">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -7879,6 +8358,8 @@
       <c r="AV70" s="13"/>
       <c r="AW70" s="13"/>
       <c r="AX70" s="13"/>
+      <c r="AY70" s="13"/>
+      <c r="AZ70" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7903,31 +8384,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7937,10 +8418,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -7950,10 +8431,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="177">
   <si>
     <t>序号</t>
   </si>
@@ -167,12 +167,6 @@
     <t>H3说明</t>
   </si>
   <si>
-    <t>原型平面文件</t>
-  </si>
-  <si>
-    <t>原型侧视图文件</t>
-  </si>
-  <si>
     <t>Window_N_1_0.dwg</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>H-2a</t>
   </si>
   <si>
-    <t>Window_N_1_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_2_0.dwg</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>(W-2a)/2</t>
   </si>
   <si>
-    <t>Window_N_2_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_2_1.dwg</t>
   </si>
   <si>
@@ -224,27 +212,18 @@
     <t>W-2a-W1</t>
   </si>
   <si>
-    <t>Window_N_2_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_3_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(H1-85)*2</t>
   </si>
   <si>
-    <t>Window_N_3_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_4_0.dwg</t>
   </si>
   <si>
     <t>W-2a-W1*2</t>
   </si>
   <si>
-    <t>Window_N_4_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_5_0.dwg</t>
   </si>
   <si>
@@ -257,66 +236,39 @@
     <t>值系列</t>
   </si>
   <si>
-    <t>Window_N_5_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_6_0.dwg</t>
   </si>
   <si>
-    <t>Window_N_6_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_7_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(H1-85)</t>
   </si>
   <si>
-    <t>Window_N_7_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_7_1.dwg</t>
   </si>
   <si>
-    <t>Window_N_7_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_8_0.dwg</t>
   </si>
   <si>
-    <t>Window_N_8_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_9_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(W2-85)*2</t>
   </si>
   <si>
-    <t>Window_N_9_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_9_1.dwg</t>
   </si>
   <si>
-    <t>Window_N_9_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_9_2.dwg</t>
   </si>
   <si>
-    <t>Window_N_9_2_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_10_0.dwg</t>
   </si>
   <si>
     <t>W-2a-W1-W3</t>
   </si>
   <si>
-    <t>Window_N_10_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_11_0.dwg</t>
   </si>
   <si>
@@ -326,15 +278,9 @@
     <t>W-2a-W1*2-W3</t>
   </si>
   <si>
-    <t>Window_N_11_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_11_1.dwg</t>
   </si>
   <si>
-    <t>Window_N_11_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_N_12_0.dwg</t>
   </si>
   <si>
@@ -347,111 +293,57 @@
     <t>W1</t>
   </si>
   <si>
-    <t>Window_N_12_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_1_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_1_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_2_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_2_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_2_1.dwg</t>
   </si>
   <si>
-    <t>Window_NN_2_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_3_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_3_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_4_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_4_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_5_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_5_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_6_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_6_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_7_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_7_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_7_1.dwg</t>
   </si>
   <si>
-    <t>Window_NN_7_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_8_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_8_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_9_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_9_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_9_1.dwg</t>
   </si>
   <si>
-    <t>Window_NN_9_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_9_2.dwg</t>
   </si>
   <si>
-    <t>Window_NN_9_2_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_10_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_10_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_11_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_11_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_11_1.dwg</t>
   </si>
   <si>
-    <t>Window_NN_11_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_NN_12_0.dwg</t>
   </si>
   <si>
-    <t>Window_NN_12_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_1_0.dwg</t>
   </si>
   <si>
@@ -461,99 +353,54 @@
     <t>(W1-100)*(H1-100)*0.5</t>
   </si>
   <si>
-    <t>Window_W_1_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_2_0.dwg</t>
   </si>
   <si>
     <t>(W1-100)*(H1-85)*0.5</t>
   </si>
   <si>
-    <t>Window_W_2_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_3_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_3_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_4_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_4_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_5_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_5_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_5_1.dwg</t>
   </si>
   <si>
-    <t>Window_W_5_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_6_0.dwg</t>
   </si>
   <si>
     <t>(W1-85)*(H1-100)*2</t>
   </si>
   <si>
-    <t>Window_W_6_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_7_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_7_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_8_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_8_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_8_1.dwg</t>
   </si>
   <si>
-    <t>Window_W_8_1_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_9_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_9_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_10_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_10_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_11_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_11_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_12_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_12_0_P.dwg</t>
-  </si>
-  <si>
     <t>Window_W_13_0.dwg</t>
   </si>
   <si>
-    <t>Window_W_13_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_1_0.dwg</t>
   </si>
   <si>
@@ -563,39 +410,24 @@
     <t>(W1-91.5)*(H1-104)</t>
   </si>
   <si>
-    <t>Door_TL_1_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_2_0.dwg</t>
   </si>
   <si>
-    <t>Door_TL_2_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_3_0.dwg</t>
   </si>
   <si>
     <t>(W1-77)*(H1-98)</t>
   </si>
   <si>
-    <t>Door_TL_3_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_4_0.dwg</t>
   </si>
   <si>
     <t>(W1-96)*(H1-105)</t>
   </si>
   <si>
-    <t>Door_TL_4_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_5_0.dwg</t>
   </si>
   <si>
-    <t>Door_TL_5_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_6_0.dwg</t>
   </si>
   <si>
@@ -605,42 +437,27 @@
     <t>(W-2a)/3</t>
   </si>
   <si>
-    <t>Door_TL_6_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_7_0.dwg</t>
   </si>
   <si>
     <t>(W-2a)/4</t>
   </si>
   <si>
-    <t>Door_TL_7_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_8_0.dwg</t>
   </si>
   <si>
-    <t>Door_TL_8_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_TL_9_0.dwg</t>
   </si>
   <si>
     <t>(W1-96)*(H1-105)*2</t>
   </si>
   <si>
-    <t>Door_TL_9_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_1_0.dwg</t>
   </si>
   <si>
     <t>(W1-118)*(H1-118)</t>
   </si>
   <si>
-    <t>Door_WK_1_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_2_0.dwg</t>
   </si>
   <si>
@@ -653,33 +470,21 @@
     <t>450-a</t>
   </si>
   <si>
-    <t>Door_WK_2_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_3_0.dwg</t>
   </si>
   <si>
     <t>(W1*2-118)*(H1-118)</t>
   </si>
   <si>
-    <t>Door_WK_3_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_4_0.dwg</t>
   </si>
   <si>
     <t>(W1-126)*(H1-118)</t>
   </si>
   <si>
-    <t>Door_WK_4_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_4_1.dwg</t>
   </si>
   <si>
-    <t>Door_WK_4_1_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_5_0.dwg</t>
   </si>
   <si>
@@ -692,9 +497,6 @@
     <t>1000-a</t>
   </si>
   <si>
-    <t>Door_WK_5_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_6_0.dwg</t>
   </si>
   <si>
@@ -707,16 +509,10 @@
     <t>H-2a-900</t>
   </si>
   <si>
-    <t>Door_WK_6_0_P.dwg</t>
-  </si>
-  <si>
     <t>Door_WK_7_0.dwg</t>
   </si>
   <si>
     <t>774*(H-2a-118)+(W1-108)*(H1-85)</t>
-  </si>
-  <si>
-    <t>Door_WK_7_0_P.dwg</t>
   </si>
   <si>
     <t>编号规则：</t>
@@ -757,10 +553,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -778,14 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -795,7 +583,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,15 +643,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -832,39 +651,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,17 +673,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,14 +708,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -942,31 +738,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,13 +786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +804,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,61 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,31 +888,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,17 +935,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,59 +1018,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1254,133 +1050,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1753,10 +1549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ70"/>
+  <dimension ref="A1:AX70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1792,10 +1588,9 @@
     <col min="40" max="40" width="11.7777777777778" style="5"/>
     <col min="41" max="44" width="8.88888888888889" style="5"/>
     <col min="45" max="50" width="8.88888888888889" style="3"/>
-    <col min="51" max="52" width="22.4444444444444" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" spans="1:52">
+    <row r="1" ht="27.6" spans="1:50">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1946,32 +1741,26 @@
       <c r="AX1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:50">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -1983,23 +1772,23 @@
         <v>800</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="6"/>
@@ -2007,7 +1796,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -2015,17 +1804,17 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
       <c r="AM2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
@@ -2033,37 +1822,33 @@
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
       <c r="AS2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT2" s="11"/>
       <c r="AU2" s="11"/>
       <c r="AV2" s="11"/>
       <c r="AW2" s="11"/>
       <c r="AX2" s="11"/>
-      <c r="AY2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ2" s="6"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:50">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -2075,33 +1860,33 @@
         <v>1500</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
@@ -2109,17 +1894,17 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
@@ -2127,37 +1912,33 @@
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
       <c r="AS3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT3" s="11"/>
       <c r="AU3" s="11"/>
       <c r="AV3" s="11"/>
       <c r="AW3" s="11"/>
       <c r="AX3" s="11"/>
-      <c r="AY3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ3" s="6"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:50">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2169,13 +1950,13 @@
         <v>2000</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P4" s="9">
         <v>750</v>
@@ -2185,17 +1966,17 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -2203,17 +1984,17 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
@@ -2221,37 +2002,33 @@
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT4" s="11"/>
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
       <c r="AW4" s="11"/>
       <c r="AX4" s="11"/>
-      <c r="AY4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ4" s="6"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:50">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -2263,23 +2040,23 @@
         <v>1500</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="6"/>
@@ -2287,7 +2064,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -2295,17 +2072,17 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
@@ -2313,37 +2090,33 @@
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
       <c r="AW5" s="11"/>
       <c r="AX5" s="11"/>
-      <c r="AY5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ5" s="6"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:50">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H6" s="6">
         <v>2</v>
@@ -2355,13 +2128,13 @@
         <v>2200</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P6" s="9">
         <v>600</v>
@@ -2371,17 +2144,17 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -2389,17 +2162,17 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
@@ -2407,37 +2180,33 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
       <c r="AV6" s="11"/>
       <c r="AW6" s="11"/>
       <c r="AX6" s="11"/>
-      <c r="AY6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ6" s="6"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:50">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
@@ -2449,23 +2218,23 @@
         <v>800</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="6"/>
@@ -2473,7 +2242,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -2481,17 +2250,17 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH7" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN7" s="10">
         <v>950400</v>
@@ -2501,37 +2270,33 @@
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
       <c r="AV7" s="11"/>
       <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
-      <c r="AY7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ7" s="6"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:50">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="6">
         <v>2</v>
@@ -2543,23 +2308,23 @@
         <v>1500</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="6"/>
@@ -2567,7 +2332,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
@@ -2575,17 +2340,17 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN8" s="10">
         <v>950500400</v>
@@ -2595,37 +2360,33 @@
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
       <c r="AX8" s="11"/>
-      <c r="AY8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ8" s="6"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:50">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
@@ -2637,33 +2398,33 @@
         <v>1500</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -2671,17 +2432,17 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN9" s="10">
         <v>950500400</v>
@@ -2691,37 +2452,33 @@
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT9" s="11"/>
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
       <c r="AW9" s="11"/>
       <c r="AX9" s="11"/>
-      <c r="AY9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ9" s="6"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:50">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="6">
         <v>1</v>
@@ -2733,13 +2490,13 @@
         <v>2000</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P10" s="9">
         <v>750</v>
@@ -2749,17 +2506,17 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
@@ -2767,17 +2524,17 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN10" s="10">
         <v>950500400</v>
@@ -2787,37 +2544,33 @@
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT10" s="11"/>
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:50">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="6">
         <v>2</v>
@@ -2829,23 +2582,23 @@
         <v>1500</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -2853,7 +2606,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
@@ -2861,17 +2614,17 @@
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN11" s="9">
         <v>950</v>
@@ -2881,37 +2634,33 @@
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT11" s="11"/>
       <c r="AU11" s="11"/>
       <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
       <c r="AX11" s="11"/>
-      <c r="AY11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:50">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="6">
         <v>2</v>
@@ -2923,13 +2672,13 @@
         <v>1800</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P12" s="9">
         <v>550</v>
@@ -2939,17 +2688,17 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -2957,17 +2706,17 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN12" s="10">
         <v>950500</v>
@@ -2977,37 +2726,33 @@
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT12" s="11"/>
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
       <c r="AX12" s="11"/>
-      <c r="AY12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:50">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="6">
         <v>2</v>
@@ -3019,13 +2764,13 @@
         <v>2300</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P13" s="9">
         <v>600</v>
@@ -3035,17 +2780,17 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -3053,17 +2798,17 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN13" s="10">
         <v>950500</v>
@@ -3073,37 +2818,33 @@
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT13" s="11"/>
       <c r="AU13" s="11"/>
       <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
       <c r="AX13" s="11"/>
-      <c r="AY13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ13" s="6"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:50">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="6">
         <v>2</v>
@@ -3115,13 +2856,13 @@
         <v>3000</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P14" s="9">
         <v>750</v>
@@ -3131,17 +2872,17 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -3149,17 +2890,17 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN14" s="10">
         <v>950500</v>
@@ -3169,37 +2910,33 @@
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT14" s="11"/>
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
       <c r="AX14" s="11"/>
-      <c r="AY14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ14" s="6"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:50">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="6">
         <v>1</v>
@@ -3211,13 +2948,13 @@
         <v>2500</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P15" s="9">
         <v>750</v>
@@ -3227,17 +2964,17 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB15" s="9">
         <v>500</v>
@@ -3247,17 +2984,17 @@
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN15" s="9">
         <v>500</v>
@@ -3267,37 +3004,33 @@
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT15" s="11"/>
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
       <c r="AX15" s="11"/>
-      <c r="AY15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ15" s="6"/>
     </row>
-    <row r="16" ht="27.6" spans="1:52">
+    <row r="16" ht="27.6" spans="1:50">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H16" s="6">
         <v>2</v>
@@ -3309,13 +3042,13 @@
         <v>2700</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P16" s="9">
         <v>600</v>
@@ -3325,17 +3058,17 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB16" s="9">
         <v>500</v>
@@ -3345,17 +3078,17 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN16" s="10">
         <v>950500</v>
@@ -3365,37 +3098,33 @@
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT16" s="11"/>
       <c r="AU16" s="11"/>
       <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
-      <c r="AY16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ16" s="6"/>
     </row>
-    <row r="17" ht="27.6" spans="1:52">
+    <row r="17" ht="27.6" spans="1:50">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
@@ -3407,13 +3136,13 @@
         <v>3300</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P17" s="9">
         <v>750</v>
@@ -3423,17 +3152,17 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB17" s="9">
         <v>500</v>
@@ -3443,17 +3172,17 @@
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN17" s="10">
         <v>950500</v>
@@ -3463,37 +3192,33 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT17" s="11"/>
       <c r="AU17" s="11"/>
       <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
       <c r="AX17" s="11"/>
-      <c r="AY17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ17" s="6"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:50">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H18" s="6">
         <v>2</v>
@@ -3505,23 +3230,23 @@
         <v>1500</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -3529,7 +3254,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -3537,17 +3262,17 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN18" s="10">
         <v>950500400</v>
@@ -3557,39 +3282,35 @@
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
       <c r="AS18" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AT18" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6"/>
-      <c r="AY18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ18" s="6"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:50">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3601,23 +3322,23 @@
         <v>800</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="6"/>
@@ -3625,7 +3346,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -3633,17 +3354,17 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
       <c r="AM19" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
@@ -3651,37 +3372,33 @@
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT19" s="11"/>
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6"/>
-      <c r="AY19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ19" s="6"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:50">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3693,33 +3410,33 @@
         <v>1500</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -3727,17 +3444,17 @@
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
       <c r="AM20" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
@@ -3745,37 +3462,33 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
       <c r="AS20" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT20" s="11"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6"/>
-      <c r="AY20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ20" s="6"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:50">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3787,13 +3500,13 @@
         <v>2000</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P21" s="9">
         <v>750</v>
@@ -3803,17 +3516,17 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -3821,17 +3534,17 @@
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
       <c r="AL21" s="6"/>
       <c r="AM21" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
@@ -3839,37 +3552,33 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
       <c r="AS21" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT21" s="11"/>
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6"/>
-      <c r="AY21" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ21" s="6"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:50">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H22" s="6">
         <v>2</v>
@@ -3881,23 +3590,23 @@
         <v>1500</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="6"/>
@@ -3905,7 +3614,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -3913,17 +3622,17 @@
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
       <c r="AL22" s="6"/>
       <c r="AM22" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
@@ -3931,37 +3640,33 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT22" s="11"/>
       <c r="AU22" s="6"/>
       <c r="AV22" s="6"/>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6"/>
-      <c r="AY22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ22" s="6"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:50">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H23" s="6">
         <v>2</v>
@@ -3973,13 +3678,13 @@
         <v>2200</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P23" s="9">
         <v>600</v>
@@ -3989,17 +3694,17 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -4007,17 +3712,17 @@
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
       <c r="AL23" s="6"/>
       <c r="AM23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
@@ -4025,37 +3730,33 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT23" s="11"/>
       <c r="AU23" s="6"/>
       <c r="AV23" s="6"/>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6"/>
-      <c r="AY23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ23" s="6"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:50">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H24" s="6">
         <v>1</v>
@@ -4067,23 +3768,23 @@
         <v>800</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V24" s="11"/>
       <c r="W24" s="6"/>
@@ -4091,7 +3792,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -4099,17 +3800,17 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
       <c r="AL24" s="6"/>
       <c r="AM24" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN24" s="10">
         <v>950400400</v>
@@ -4119,37 +3820,33 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT24" s="11"/>
       <c r="AU24" s="6"/>
       <c r="AV24" s="6"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6"/>
-      <c r="AY24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ24" s="6"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:50">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H25" s="6">
         <v>2</v>
@@ -4161,23 +3858,23 @@
         <v>1500</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="6"/>
@@ -4185,7 +3882,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -4193,17 +3890,17 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN25" s="10">
         <v>950500400</v>
@@ -4213,37 +3910,33 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
       <c r="AS25" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT25" s="11"/>
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6"/>
-      <c r="AY25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ25" s="6"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:50">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H26" s="6">
         <v>1</v>
@@ -4255,33 +3948,33 @@
         <v>1500</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -4289,17 +3982,17 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
       <c r="AL26" s="6"/>
       <c r="AM26" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN26" s="10">
         <v>950500400</v>
@@ -4309,37 +4002,33 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT26" s="11"/>
       <c r="AU26" s="6"/>
       <c r="AV26" s="6"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
-      <c r="AY26" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ26" s="6"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:50">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H27" s="6">
         <v>1</v>
@@ -4351,13 +4040,13 @@
         <v>2000</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P27" s="9">
         <v>750</v>
@@ -4367,17 +4056,17 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -4385,17 +4074,17 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
       <c r="AM27" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN27" s="10">
         <v>950500400</v>
@@ -4405,37 +4094,33 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
       <c r="AS27" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT27" s="11"/>
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
-      <c r="AY27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ27" s="6"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:50">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H28" s="6">
         <v>2</v>
@@ -4447,23 +4132,23 @@
         <v>1500</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -4471,7 +4156,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -4479,17 +4164,17 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
       <c r="AM28" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN28" s="9">
         <v>950</v>
@@ -4499,37 +4184,33 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
       <c r="AS28" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT28" s="11"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
-      <c r="AY28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ28" s="6"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:50">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H29" s="6">
         <v>2</v>
@@ -4541,13 +4222,13 @@
         <v>1800</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P29" s="9">
         <v>550</v>
@@ -4557,17 +4238,17 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -4575,17 +4256,17 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
       <c r="AM29" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN29" s="10">
         <v>950500</v>
@@ -4595,37 +4276,33 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
       <c r="AS29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT29" s="11"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
-      <c r="AY29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ29" s="6"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:50">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H30" s="6">
         <v>2</v>
@@ -4637,13 +4314,13 @@
         <v>2300</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P30" s="9">
         <v>600</v>
@@ -4653,17 +4330,17 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -4671,17 +4348,17 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
       <c r="AM30" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN30" s="10">
         <v>950500</v>
@@ -4691,37 +4368,33 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
       <c r="AS30" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT30" s="11"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
-      <c r="AY30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ30" s="6"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:50">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H31" s="6">
         <v>2</v>
@@ -4733,13 +4406,13 @@
         <v>3000</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P31" s="9">
         <v>750</v>
@@ -4749,17 +4422,17 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -4767,17 +4440,17 @@
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
       <c r="AM31" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN31" s="10">
         <v>950500</v>
@@ -4787,37 +4460,33 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT31" s="11"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
-      <c r="AY31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ31" s="6"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:50">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H32" s="6">
         <v>1</v>
@@ -4829,13 +4498,13 @@
         <v>2500</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P32" s="9">
         <v>750</v>
@@ -4845,17 +4514,17 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB32" s="9">
         <v>500</v>
@@ -4865,17 +4534,17 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH32" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
       <c r="AM32" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN32" s="9">
         <v>500</v>
@@ -4885,37 +4554,33 @@
       <c r="AQ32" s="9"/>
       <c r="AR32" s="9"/>
       <c r="AS32" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT32" s="11"/>
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
       <c r="AW32" s="6"/>
       <c r="AX32" s="6"/>
-      <c r="AY32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ32" s="6"/>
     </row>
-    <row r="33" ht="27.6" spans="1:52">
+    <row r="33" ht="27.6" spans="1:50">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H33" s="6">
         <v>2</v>
@@ -4927,13 +4592,13 @@
         <v>2700</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P33" s="9">
         <v>600</v>
@@ -4943,17 +4608,17 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB33" s="9">
         <v>500</v>
@@ -4963,17 +4628,17 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN33" s="10">
         <v>950500</v>
@@ -4983,37 +4648,33 @@
       <c r="AQ33" s="9"/>
       <c r="AR33" s="9"/>
       <c r="AS33" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT33" s="11"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
       <c r="AX33" s="6"/>
-      <c r="AY33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ33" s="6"/>
     </row>
-    <row r="34" ht="27.6" spans="1:52">
+    <row r="34" ht="27.6" spans="1:50">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H34" s="6">
         <v>2</v>
@@ -5025,13 +4686,13 @@
         <v>3300</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P34" s="9">
         <v>750</v>
@@ -5041,17 +4702,17 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB34" s="9">
         <v>500</v>
@@ -5061,17 +4722,17 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH34" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN34" s="10">
         <v>950500</v>
@@ -5081,37 +4742,33 @@
       <c r="AQ34" s="9"/>
       <c r="AR34" s="9"/>
       <c r="AS34" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT34" s="11"/>
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
       <c r="AW34" s="6"/>
       <c r="AX34" s="6"/>
-      <c r="AY34" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ34" s="6"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:50">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H35" s="6">
         <v>2</v>
@@ -5123,23 +4780,23 @@
         <v>1500</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -5147,7 +4804,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -5155,17 +4812,17 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH35" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
       <c r="AM35" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN35" s="10">
         <v>950500400</v>
@@ -5175,39 +4832,35 @@
       <c r="AQ35" s="9"/>
       <c r="AR35" s="9"/>
       <c r="AS35" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AT35" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
-      <c r="AY35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:50">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H36" s="6">
         <v>1</v>
@@ -5219,23 +4872,23 @@
         <v>800</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -5243,7 +4896,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -5251,17 +4904,17 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH36" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
       <c r="AL36" s="6"/>
       <c r="AM36" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
@@ -5269,37 +4922,33 @@
       <c r="AQ36" s="9"/>
       <c r="AR36" s="9"/>
       <c r="AS36" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
       <c r="AV36" s="6"/>
       <c r="AW36" s="6"/>
       <c r="AX36" s="6"/>
-      <c r="AY36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ36" s="6"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:50">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -5311,23 +4960,23 @@
         <v>800</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -5335,7 +4984,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -5343,17 +4992,17 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH37" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
       <c r="AL37" s="6"/>
       <c r="AM37" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN37" s="9">
         <v>400</v>
@@ -5363,37 +5012,33 @@
       <c r="AQ37" s="9"/>
       <c r="AR37" s="9"/>
       <c r="AS37" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT37" s="6"/>
       <c r="AU37" s="6"/>
       <c r="AV37" s="6"/>
       <c r="AW37" s="6"/>
       <c r="AX37" s="6"/>
-      <c r="AY37" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ37" s="6"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:50">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H38" s="6">
         <v>1</v>
@@ -5405,23 +5050,23 @@
         <v>800</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -5429,7 +5074,7 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -5437,17 +5082,17 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
       <c r="AM38" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
@@ -5455,37 +5100,33 @@
       <c r="AQ38" s="9"/>
       <c r="AR38" s="9"/>
       <c r="AS38" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT38" s="6"/>
       <c r="AU38" s="6"/>
       <c r="AV38" s="6"/>
       <c r="AW38" s="6"/>
       <c r="AX38" s="6"/>
-      <c r="AY38" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ38" s="6"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:50">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
@@ -5497,23 +5138,23 @@
         <v>800</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -5521,7 +5162,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -5529,17 +5170,17 @@
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN39" s="9">
         <v>400</v>
@@ -5549,37 +5190,33 @@
       <c r="AQ39" s="9"/>
       <c r="AR39" s="9"/>
       <c r="AS39" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT39" s="6"/>
       <c r="AU39" s="6"/>
       <c r="AV39" s="6"/>
       <c r="AW39" s="6"/>
       <c r="AX39" s="6"/>
-      <c r="AY39" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ39" s="6"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:50">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H40" s="6">
         <v>1</v>
@@ -5591,33 +5228,33 @@
         <v>1500</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -5625,17 +5262,17 @@
       <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
       <c r="AM40" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
@@ -5643,37 +5280,33 @@
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
       <c r="AS40" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT40" s="6"/>
       <c r="AU40" s="6"/>
       <c r="AV40" s="6"/>
       <c r="AW40" s="6"/>
       <c r="AX40" s="6"/>
-      <c r="AY40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ40" s="6"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:50">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
@@ -5685,13 +5318,13 @@
         <v>2000</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P41" s="10">
         <v>650700</v>
@@ -5701,17 +5334,17 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -5719,17 +5352,17 @@
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH41" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
@@ -5737,37 +5370,33 @@
       <c r="AQ41" s="9"/>
       <c r="AR41" s="9"/>
       <c r="AS41" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
       <c r="AV41" s="6"/>
       <c r="AW41" s="6"/>
       <c r="AX41" s="6"/>
-      <c r="AY41" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ41" s="6"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:50">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H42" s="6">
         <v>2</v>
@@ -5779,23 +5408,23 @@
         <v>1500</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -5803,7 +5432,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -5811,17 +5440,17 @@
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH42" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
       <c r="AM42" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
@@ -5829,37 +5458,33 @@
       <c r="AQ42" s="9"/>
       <c r="AR42" s="9"/>
       <c r="AS42" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
       <c r="AV42" s="6"/>
       <c r="AW42" s="6"/>
       <c r="AX42" s="6"/>
-      <c r="AY42" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ42" s="6"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:50">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H43" s="6">
         <v>2</v>
@@ -5871,13 +5496,13 @@
         <v>2200</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P43" s="10">
         <v>650700</v>
@@ -5887,17 +5512,17 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -5905,17 +5530,17 @@
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH43" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
@@ -5923,37 +5548,33 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
       <c r="AS43" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
       <c r="AV43" s="6"/>
       <c r="AW43" s="6"/>
       <c r="AX43" s="6"/>
-      <c r="AY43" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ43" s="6"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:50">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H44" s="6">
         <v>1</v>
@@ -5965,33 +5586,33 @@
         <v>1500</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -5999,17 +5620,17 @@
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH44" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
       <c r="AM44" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN44" s="10">
         <v>500400</v>
@@ -6019,37 +5640,33 @@
       <c r="AQ44" s="9"/>
       <c r="AR44" s="9"/>
       <c r="AS44" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT44" s="6"/>
       <c r="AU44" s="6"/>
       <c r="AV44" s="6"/>
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
-      <c r="AY44" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ44" s="6"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:50">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H45" s="6">
         <v>1</v>
@@ -6061,13 +5678,13 @@
         <v>2000</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P45" s="10">
         <v>650700</v>
@@ -6077,17 +5694,17 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
@@ -6095,17 +5712,17 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH45" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
       <c r="AM45" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN45" s="10">
         <v>500400</v>
@@ -6115,37 +5732,33 @@
       <c r="AQ45" s="9"/>
       <c r="AR45" s="9"/>
       <c r="AS45" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT45" s="6"/>
       <c r="AU45" s="6"/>
       <c r="AV45" s="6"/>
       <c r="AW45" s="6"/>
       <c r="AX45" s="6"/>
-      <c r="AY45" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ45" s="6"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:50">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H46" s="6">
         <v>2</v>
@@ -6157,23 +5770,23 @@
         <v>1500</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -6181,7 +5794,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -6189,17 +5802,17 @@
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH46" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
       <c r="AL46" s="6"/>
       <c r="AM46" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN46" s="10">
         <v>500400</v>
@@ -6209,37 +5822,33 @@
       <c r="AQ46" s="9"/>
       <c r="AR46" s="9"/>
       <c r="AS46" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT46" s="6"/>
       <c r="AU46" s="6"/>
       <c r="AV46" s="6"/>
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
-      <c r="AY46" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ46" s="6"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:50">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H47" s="6">
         <v>2</v>
@@ -6251,13 +5860,13 @@
         <v>3000</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P47" s="10">
         <v>650700</v>
@@ -6267,17 +5876,17 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
@@ -6285,17 +5894,17 @@
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
       <c r="AM47" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN47" s="9">
         <v>500</v>
@@ -6305,37 +5914,33 @@
       <c r="AQ47" s="9"/>
       <c r="AR47" s="9"/>
       <c r="AS47" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT47" s="6"/>
       <c r="AU47" s="6"/>
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
       <c r="AX47" s="6"/>
-      <c r="AY47" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ47" s="6"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:50">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -6347,13 +5952,13 @@
         <v>2500</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P48" s="10">
         <v>650700</v>
@@ -6363,17 +5968,17 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB48" s="9">
         <v>500</v>
@@ -6383,17 +5988,17 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH48" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN48" s="9">
         <v>500</v>
@@ -6403,37 +6008,33 @@
       <c r="AQ48" s="9"/>
       <c r="AR48" s="9"/>
       <c r="AS48" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT48" s="6"/>
       <c r="AU48" s="6"/>
       <c r="AV48" s="6"/>
       <c r="AW48" s="6"/>
       <c r="AX48" s="6"/>
-      <c r="AY48" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ48" s="6"/>
     </row>
-    <row r="49" ht="27.6" spans="1:52">
+    <row r="49" ht="27.6" spans="1:50">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H49" s="6">
         <v>2</v>
@@ -6445,13 +6046,13 @@
         <v>3300</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P49" s="10">
         <v>650700</v>
@@ -6461,17 +6062,17 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB49" s="9">
         <v>500</v>
@@ -6481,17 +6082,17 @@
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH49" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN49" s="9">
         <v>500</v>
@@ -6501,37 +6102,33 @@
       <c r="AQ49" s="9"/>
       <c r="AR49" s="9"/>
       <c r="AS49" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT49" s="6"/>
       <c r="AU49" s="6"/>
       <c r="AV49" s="6"/>
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
-      <c r="AY49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ49" s="6"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:50">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H50" s="6">
         <v>2</v>
@@ -6543,23 +6140,23 @@
         <v>1500</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -6567,7 +6164,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
@@ -6575,17 +6172,17 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH50" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
       <c r="AM50" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AN50" s="10">
         <v>500400</v>
@@ -6595,39 +6192,35 @@
       <c r="AQ50" s="9"/>
       <c r="AR50" s="9"/>
       <c r="AS50" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AT50" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="AU50" s="6"/>
       <c r="AV50" s="6"/>
       <c r="AW50" s="6"/>
       <c r="AX50" s="6"/>
-      <c r="AY50" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ50" s="6"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:50">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H51" s="6">
         <v>2</v>
@@ -6639,23 +6232,23 @@
         <v>1500</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -6663,7 +6256,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
@@ -6671,17 +6264,17 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
       <c r="AM51" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
@@ -6689,37 +6282,33 @@
       <c r="AQ51" s="9"/>
       <c r="AR51" s="9"/>
       <c r="AS51" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6"/>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
       <c r="AX51" s="6"/>
-      <c r="AY51" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ51" s="6"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:50">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H52" s="6">
         <v>2</v>
@@ -6731,23 +6320,23 @@
         <v>1500</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
       <c r="O52" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
@@ -6755,7 +6344,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
@@ -6763,17 +6352,17 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH52" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
       <c r="AM52" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN52" s="9">
         <v>400</v>
@@ -6783,37 +6372,33 @@
       <c r="AQ52" s="9"/>
       <c r="AR52" s="9"/>
       <c r="AS52" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT52" s="6"/>
       <c r="AU52" s="6"/>
       <c r="AV52" s="6"/>
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
-      <c r="AY52" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ52" s="6"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:50">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H53" s="6">
         <v>2</v>
@@ -6825,23 +6410,23 @@
         <v>2400</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
@@ -6849,7 +6434,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -6857,17 +6442,17 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
@@ -6875,37 +6460,33 @@
       <c r="AQ53" s="9"/>
       <c r="AR53" s="9"/>
       <c r="AS53" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT53" s="6"/>
       <c r="AU53" s="6"/>
       <c r="AV53" s="6"/>
       <c r="AW53" s="6"/>
       <c r="AX53" s="6"/>
-      <c r="AY53" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ53" s="6"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:50">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
@@ -6917,33 +6498,33 @@
         <v>2700</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -6951,17 +6532,17 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
@@ -6969,37 +6550,33 @@
       <c r="AQ54" s="9"/>
       <c r="AR54" s="9"/>
       <c r="AS54" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT54" s="6"/>
       <c r="AU54" s="6"/>
       <c r="AV54" s="6"/>
       <c r="AW54" s="6"/>
       <c r="AX54" s="6"/>
-      <c r="AY54" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ54" s="6"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:50">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H55" s="6">
         <v>2</v>
@@ -7011,23 +6588,23 @@
         <v>2700</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -7035,7 +6612,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -7043,17 +6620,17 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
       <c r="AM55" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
@@ -7061,37 +6638,33 @@
       <c r="AQ55" s="9"/>
       <c r="AR55" s="9"/>
       <c r="AS55" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT55" s="6"/>
       <c r="AU55" s="6"/>
       <c r="AV55" s="6"/>
       <c r="AW55" s="6"/>
       <c r="AX55" s="6"/>
-      <c r="AY55" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ55" s="6"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:50">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H56" s="6">
         <v>2</v>
@@ -7103,23 +6676,23 @@
         <v>3600</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
@@ -7127,7 +6700,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -7135,17 +6708,17 @@
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
       <c r="AL56" s="6"/>
       <c r="AM56" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
@@ -7153,37 +6726,33 @@
       <c r="AQ56" s="9"/>
       <c r="AR56" s="9"/>
       <c r="AS56" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT56" s="6"/>
       <c r="AU56" s="6"/>
       <c r="AV56" s="6"/>
       <c r="AW56" s="6"/>
       <c r="AX56" s="6"/>
-      <c r="AY56" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ56" s="6"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:50">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H57" s="6">
         <v>4</v>
@@ -7195,33 +6764,33 @@
         <v>4800</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V57" s="9" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -7229,17 +6798,17 @@
       <c r="AE57" s="9"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
       <c r="AK57" s="6"/>
       <c r="AL57" s="6"/>
       <c r="AM57" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
@@ -7247,37 +6816,33 @@
       <c r="AQ57" s="9"/>
       <c r="AR57" s="9"/>
       <c r="AS57" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT57" s="6"/>
       <c r="AU57" s="6"/>
       <c r="AV57" s="6"/>
       <c r="AW57" s="6"/>
       <c r="AX57" s="6"/>
-      <c r="AY57" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ57" s="6"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:50">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H58" s="6">
         <v>4</v>
@@ -7289,23 +6854,23 @@
         <v>4800</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
@@ -7313,7 +6878,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -7321,17 +6886,17 @@
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
@@ -7339,37 +6904,33 @@
       <c r="AQ58" s="9"/>
       <c r="AR58" s="9"/>
       <c r="AS58" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT58" s="6"/>
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
-      <c r="AY58" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ58" s="6"/>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:50">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="H59" s="6">
         <v>4</v>
@@ -7381,23 +6942,23 @@
         <v>6000</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
@@ -7405,7 +6966,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -7413,17 +6974,17 @@
       <c r="AE59" s="9"/>
       <c r="AF59" s="9"/>
       <c r="AG59" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH59" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
       <c r="AM59" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
@@ -7431,37 +6992,33 @@
       <c r="AQ59" s="9"/>
       <c r="AR59" s="9"/>
       <c r="AS59" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
-      <c r="AY59" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ59" s="6"/>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:50">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H60" s="6">
         <v>1</v>
@@ -7473,23 +7030,23 @@
         <v>1000</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
@@ -7497,7 +7054,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -7505,17 +7062,17 @@
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
       <c r="AG60" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH60" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
       <c r="AK60" s="6"/>
       <c r="AL60" s="6"/>
       <c r="AM60" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
@@ -7523,37 +7080,33 @@
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
       <c r="AS60" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT60" s="6"/>
       <c r="AU60" s="6"/>
       <c r="AV60" s="6"/>
       <c r="AW60" s="6"/>
       <c r="AX60" s="6"/>
-      <c r="AY60" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ60" s="6"/>
     </row>
-    <row r="61" ht="27.6" spans="1:52">
+    <row r="61" ht="27.6" spans="1:50">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H61" s="6">
         <v>1</v>
@@ -7565,33 +7118,33 @@
         <v>1300</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V61" s="6" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -7599,17 +7152,17 @@
       <c r="AE61" s="9"/>
       <c r="AF61" s="9"/>
       <c r="AG61" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
@@ -7617,37 +7170,33 @@
       <c r="AQ61" s="9"/>
       <c r="AR61" s="9"/>
       <c r="AS61" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT61" s="6"/>
       <c r="AU61" s="6"/>
       <c r="AV61" s="6"/>
       <c r="AW61" s="6"/>
       <c r="AX61" s="6"/>
-      <c r="AY61" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ61" s="6"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:50">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H62" s="6">
         <v>1</v>
@@ -7659,23 +7208,23 @@
         <v>2000</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
@@ -7683,7 +7232,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -7691,17 +7240,17 @@
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
       <c r="AG62" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH62" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
       <c r="AL62" s="6"/>
       <c r="AM62" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
@@ -7709,37 +7258,33 @@
       <c r="AQ62" s="9"/>
       <c r="AR62" s="9"/>
       <c r="AS62" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT62" s="6"/>
       <c r="AU62" s="6"/>
       <c r="AV62" s="6"/>
       <c r="AW62" s="6"/>
       <c r="AX62" s="6"/>
-      <c r="AY62" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AZ62" s="6"/>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:50">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H63" s="6">
         <v>1</v>
@@ -7751,33 +7296,33 @@
         <v>2000</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -7785,17 +7330,17 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
       <c r="AG63" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH63" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
@@ -7803,37 +7348,33 @@
       <c r="AQ63" s="9"/>
       <c r="AR63" s="9"/>
       <c r="AS63" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT63" s="6"/>
       <c r="AU63" s="6"/>
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
       <c r="AX63" s="6"/>
-      <c r="AY63" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AZ63" s="6"/>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:50">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H64" s="6">
         <v>1</v>
@@ -7845,13 +7386,13 @@
         <v>2400</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P64" s="9">
         <v>1000</v>
@@ -7861,17 +7402,17 @@
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -7879,17 +7420,17 @@
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH64" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
@@ -7897,37 +7438,33 @@
       <c r="AQ64" s="9"/>
       <c r="AR64" s="9"/>
       <c r="AS64" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT64" s="6"/>
       <c r="AU64" s="6"/>
       <c r="AV64" s="6"/>
       <c r="AW64" s="6"/>
       <c r="AX64" s="6"/>
-      <c r="AY64" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ64" s="6"/>
     </row>
-    <row r="65" ht="27.6" spans="1:52">
+    <row r="65" ht="27.6" spans="1:50">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H65" s="6">
         <v>2</v>
@@ -7939,13 +7476,13 @@
         <v>3100</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P65" s="9">
         <v>1000</v>
@@ -7955,17 +7492,17 @@
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V65" s="11" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB65" s="12">
         <v>700</v>
@@ -7975,57 +7512,53 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
       <c r="AG65" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH65" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
       <c r="AK65" s="6"/>
       <c r="AL65" s="6"/>
       <c r="AM65" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AN65" s="9" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
       <c r="AR65" s="9"/>
       <c r="AS65" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT65" s="6"/>
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
       <c r="AW65" s="6"/>
       <c r="AX65" s="6"/>
-      <c r="AY65" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ65" s="6"/>
     </row>
-    <row r="66" ht="27.6" spans="1:52">
+    <row r="66" ht="27.6" spans="1:50">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H66" s="6">
         <v>2</v>
@@ -8037,23 +7570,23 @@
         <v>1700</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V66" s="6">
         <v>900</v>
@@ -8063,7 +7596,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -8071,17 +7604,17 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH66" s="6" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
       <c r="AK66" s="6"/>
       <c r="AL66" s="6"/>
       <c r="AM66" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
@@ -8089,37 +7622,33 @@
       <c r="AQ66" s="9"/>
       <c r="AR66" s="9"/>
       <c r="AS66" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AT66" s="6"/>
       <c r="AU66" s="6"/>
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6"/>
-      <c r="AY66" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ66" s="6"/>
     </row>
-    <row r="67" ht="27.6" spans="1:52">
+    <row r="67" ht="27.6" spans="1:50">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H67" s="6">
         <v>2</v>
@@ -8131,23 +7660,23 @@
         <v>1700</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V67" s="6">
         <v>900</v>
@@ -8157,7 +7686,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -8165,17 +7694,17 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
       <c r="AG67" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH67" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
       <c r="AK67" s="6"/>
       <c r="AL67" s="6"/>
       <c r="AM67" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AN67" s="9">
         <v>400</v>
@@ -8185,7 +7714,7 @@
       <c r="AQ67" s="9"/>
       <c r="AR67" s="9"/>
       <c r="AS67" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AT67" s="16">
         <v>900600</v>
@@ -8194,12 +7723,8 @@
       <c r="AV67" s="6"/>
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
-      <c r="AY67" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ67" s="6"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:50">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -8250,10 +7775,8 @@
       <c r="AV68" s="13"/>
       <c r="AW68" s="13"/>
       <c r="AX68" s="13"/>
-      <c r="AY68" s="13"/>
-      <c r="AZ68" s="13"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:50">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -8304,10 +7827,8 @@
       <c r="AV69" s="13"/>
       <c r="AW69" s="13"/>
       <c r="AX69" s="13"/>
-      <c r="AY69" s="13"/>
-      <c r="AZ69" s="13"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:50">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -8358,8 +7879,6 @@
       <c r="AV70" s="13"/>
       <c r="AW70" s="13"/>
       <c r="AX70" s="13"/>
-      <c r="AY70" s="13"/>
-      <c r="AZ70" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8384,31 +7903,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8418,10 +7937,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8431,10 +7950,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="284">
   <si>
     <t>序号</t>
   </si>
@@ -765,97 +765,118 @@
     <t>安装净尺寸</t>
   </si>
   <si>
-    <t>1.0P-1.5P-C1</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-C1.dwg</t>
-  </si>
-  <si>
-    <t>1.0P/1.5P</t>
-  </si>
-  <si>
-    <t>侧边</t>
-  </si>
-  <si>
     <t>1150*900*500</t>
   </si>
   <si>
-    <t>1.0P-1.5P-CY1</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-CY1.dwg</t>
-  </si>
-  <si>
     <t>有</t>
   </si>
   <si>
     <t>1250*900*500</t>
   </si>
   <si>
-    <t>1.0P-1.5P-H</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-H.dwg</t>
-  </si>
-  <si>
-    <t>后边</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-HY1</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-HY1.dwg</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-HY2</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-HY2.dwg</t>
-  </si>
-  <si>
     <t>1150*900*650</t>
   </si>
   <si>
-    <t>2.0P-3.0P-C1</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-C1.dwg</t>
-  </si>
-  <si>
-    <t>2.0P/3.0P</t>
-  </si>
-  <si>
     <t>1300*1150*650</t>
   </si>
   <si>
-    <t>2.0P-3.0P-CY1</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-CY1.dwg</t>
-  </si>
-  <si>
     <t>1400*1150*650</t>
   </si>
   <si>
-    <t>2.0P-3.0P-H</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-H.dwg</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY1</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY1.dwg</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY2</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY2.dwg</t>
-  </si>
-  <si>
     <t>1300*1150*750</t>
+  </si>
+  <si>
+    <t>雨水管位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_C1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.0P_CY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.0P_H.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY2.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.5P_C1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.5P_CY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.5P_H.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY2.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_2.0P_C1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_2.0P_CY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_2.0P_H.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY2.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_3.0P_C1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_3.0P_CY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_3.0P_H.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY1.dwg</t>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY2.dwg</t>
   </si>
 </sst>
 </file>
@@ -974,15 +995,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
-    <sheetView topLeftCell="M21" workbookViewId="0">
-      <selection activeCell="V53" sqref="A1:AZ67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7995,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8009,240 +8030,500 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G3" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="18" t="s">
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="18" t="s">
+    </row>
+    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="18" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="17" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+    <row r="20" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>279</v>
+      <c r="E20" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8289,38 +8570,38 @@
       <c r="A5" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Autodesk\AutoCAD 2014\Support\Sunac2019\LocalMode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalMode_yemingyuan\LocalMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324788E4-A124-4831-B716-FB25EC234D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外窗数据" sheetId="1" r:id="rId1"/>
     <sheet name="空调数据" sheetId="3" r:id="rId2"/>
     <sheet name="说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="312">
   <si>
     <t>序号</t>
   </si>
@@ -179,9 +187,6 @@
     <t>原型侧视图文件</t>
   </si>
   <si>
-    <t>Window_N_1_0.dwg</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -206,54 +211,24 @@
     <t>H-2a</t>
   </si>
   <si>
-    <t>Window_N_1_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_2_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(H1-100)</t>
   </si>
   <si>
     <t>(W-2a)/2</t>
   </si>
   <si>
-    <t>Window_N_2_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_2_1.dwg</t>
-  </si>
-  <si>
     <t>固定值</t>
   </si>
   <si>
     <t>W-2a-W1</t>
   </si>
   <si>
-    <t>Window_N_2_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_3_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(H1-85)*2</t>
   </si>
   <si>
-    <t>Window_N_3_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_4_0.dwg</t>
-  </si>
-  <si>
     <t>W-2a-W1*2</t>
   </si>
   <si>
-    <t>Window_N_4_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_5_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-100)*(H1-85)</t>
   </si>
   <si>
@@ -263,87 +238,21 @@
     <t>值系列</t>
   </si>
   <si>
-    <t>Window_N_5_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_6_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_6_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_7_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(H1-85)</t>
   </si>
   <si>
-    <t>Window_N_7_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_7_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_7_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_8_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_8_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_9_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(W2-85)*2</t>
   </si>
   <si>
-    <t>Window_N_9_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_9_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_9_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_9_2.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_9_2_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_10_0.dwg</t>
-  </si>
-  <si>
     <t>W-2a-W1-W3</t>
   </si>
   <si>
-    <t>Window_N_10_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_11_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(H1-85)+(W1-162)*(H1-85)</t>
   </si>
   <si>
     <t>W-2a-W1*2-W3</t>
   </si>
   <si>
-    <t>Window_N_11_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_11_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_11_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_N_12_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(H1-115)*2</t>
   </si>
   <si>
@@ -353,303 +262,45 @@
     <t>W1</t>
   </si>
   <si>
-    <t>Window_N_12_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_1_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_1_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_2_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_2_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_2_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_2_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_3_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_3_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_4_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_4_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_5_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_5_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_6_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_6_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_7_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_7_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_7_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_7_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_8_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_8_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_9_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_9_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_9_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_9_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_9_2.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_9_2_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_10_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_10_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_11_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_11_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_11_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_11_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_12_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_NN_12_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_1_0.dwg</t>
-  </si>
-  <si>
     <t>外开</t>
   </si>
   <si>
     <t>(W1-100)*(H1-100)*0.5</t>
   </si>
   <si>
-    <t>Window_W_1_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_2_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-100)*(H1-85)*0.5</t>
   </si>
   <si>
-    <t>Window_W_2_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_3_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_3_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_4_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_4_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_5_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_5_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_5_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_5_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_6_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-85)*(H1-100)*2</t>
   </si>
   <si>
-    <t>Window_W_6_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_7_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_7_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_8_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_8_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_8_1.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_8_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_9_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_9_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_10_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_10_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_11_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_11_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_12_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_12_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_13_0.dwg</t>
-  </si>
-  <si>
-    <t>Window_W_13_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_1_0.dwg</t>
-  </si>
-  <si>
     <t>推拉</t>
   </si>
   <si>
     <t>(W1-91.5)*(H1-104)</t>
   </si>
   <si>
-    <t>Door_TL_1_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_2_0.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_2_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_3_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-77)*(H1-98)</t>
   </si>
   <si>
-    <t>Door_TL_3_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_4_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-96)*(H1-105)</t>
   </si>
   <si>
-    <t>Door_TL_4_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_5_0.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_5_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_6_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-77)*(H1-98)*2</t>
   </si>
   <si>
     <t>(W-2a)/3</t>
   </si>
   <si>
-    <t>Door_TL_6_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_7_0.dwg</t>
-  </si>
-  <si>
     <t>(W-2a)/4</t>
   </si>
   <si>
-    <t>Door_TL_7_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_8_0.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_8_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_TL_9_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-96)*(H1-105)*2</t>
   </si>
   <si>
-    <t>Door_TL_9_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_1_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-118)*(H1-118)</t>
   </si>
   <si>
-    <t>Door_WK_1_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_2_0.dwg</t>
-  </si>
-  <si>
     <t>(W1+W2-118)*(H1-118)</t>
   </si>
   <si>
@@ -659,36 +310,12 @@
     <t>450-a</t>
   </si>
   <si>
-    <t>Door_WK_2_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_3_0.dwg</t>
-  </si>
-  <si>
     <t>(W1*2-118)*(H1-118)</t>
   </si>
   <si>
-    <t>Door_WK_3_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_4_0.dwg</t>
-  </si>
-  <si>
     <t>(W1-126)*(H1-118)</t>
   </si>
   <si>
-    <t>Door_WK_4_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_4_1.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_4_1_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_5_0.dwg</t>
-  </si>
-  <si>
     <t>874*(H-2a-118)+615*(H1-85)</t>
   </si>
   <si>
@@ -698,12 +325,6 @@
     <t>1000-a</t>
   </si>
   <si>
-    <t>Door_WK_5_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_6_0.dwg</t>
-  </si>
-  <si>
     <t>774*(H-2a-118)+(W1-108)*(H1-100)</t>
   </si>
   <si>
@@ -713,18 +334,9 @@
     <t>H-2a-900</t>
   </si>
   <si>
-    <t>Door_WK_6_0_P.dwg</t>
-  </si>
-  <si>
-    <t>Door_WK_7_0.dwg</t>
-  </si>
-  <si>
     <t>774*(H-2a-118)+(W1-108)*(H1-85)</t>
   </si>
   <si>
-    <t>Door_WK_7_0_P.dwg</t>
-  </si>
-  <si>
     <t>编号规则：</t>
   </si>
   <si>
@@ -747,9 +359,6 @@
   </si>
   <si>
     <t>开启类型代号：</t>
-  </si>
-  <si>
-    <t>内开窗N、内开内倒NN、外开W、推拉TL、上悬</t>
   </si>
   <si>
     <t>外窗参数值类型</t>
@@ -943,12 +552,666 @@
   <si>
     <t>AirCon_3.0P_HY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NC4.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC5.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC6.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC7.dwg</t>
+  </si>
+  <si>
+    <r>
+      <t>门窗区分代码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转角窗、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内开内倒窗、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门连窗；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TLM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">推拉门
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NZDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 内开内倒转角窗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立面图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个字母的含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_WC1</t>
+  </si>
+  <si>
+    <t>Window_WC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Window_WC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_WC1_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_WC1_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NC2_0</t>
+  </si>
+  <si>
+    <t>Window_NC2_1</t>
+  </si>
+  <si>
+    <t>Window_NC3</t>
+  </si>
+  <si>
+    <t>Window_NC4</t>
+  </si>
+  <si>
+    <t>Window_NC5</t>
+  </si>
+  <si>
+    <t>Window_NC6</t>
+  </si>
+  <si>
+    <t>Window_NC7</t>
+  </si>
+  <si>
+    <t>Window_NC7_1</t>
+  </si>
+  <si>
+    <t>Window_NC8</t>
+  </si>
+  <si>
+    <t>原型立面文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NC1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC2_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC2_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC3.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC7_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC8.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC9_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC9_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC9_2.dwg</t>
+  </si>
+  <si>
+    <t>Window_NZC1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NZC2_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NZC2_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC10.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC2_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC2_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC3.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC4.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC5.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC6.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC7_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC7_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC_8.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC9_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC9_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC9_2.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDZC1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDZC2_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDZC2_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC10.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC1.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC2.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC3.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC4.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC5_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC5_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC6.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC7.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC8_0.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC8_1.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC9.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC10.dwg</t>
+  </si>
+  <si>
+    <t>Window_WZC1.dwg</t>
+  </si>
+  <si>
+    <t>Window_WZC2.dwg</t>
+  </si>
+  <si>
+    <t>Window_WC11.dwg</t>
+  </si>
+  <si>
+    <t>Door_TC1.dwg</t>
+  </si>
+  <si>
+    <t>Door_TC2.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM1.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM2.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM3.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM4.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM5.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM6.dwg</t>
+  </si>
+  <si>
+    <t>Door_TLM7.dwg</t>
+  </si>
+  <si>
+    <t>Door_WM1.dwg</t>
+  </si>
+  <si>
+    <t>Door_WM2.dwg</t>
+  </si>
+  <si>
+    <t>Door_WM3.dwg</t>
+  </si>
+  <si>
+    <t>Door_WM4_0.dwg</t>
+  </si>
+  <si>
+    <t>Door_WM4_1.dwg</t>
+  </si>
+  <si>
+    <t>Door_WLC1.dwg</t>
+  </si>
+  <si>
+    <t>Door_WLC2.dwg</t>
+  </si>
+  <si>
+    <t>Door_WLC3.dwg</t>
+  </si>
+  <si>
+    <t>Window_NC1</t>
+  </si>
+  <si>
+    <t>Window_NC9_0</t>
+  </si>
+  <si>
+    <t>Window_NC9_1</t>
+  </si>
+  <si>
+    <t>Window_NC9_2</t>
+  </si>
+  <si>
+    <t>Window_NZC1</t>
+  </si>
+  <si>
+    <t>Window_NZC2_0</t>
+  </si>
+  <si>
+    <t>Window_NZC2_1</t>
+  </si>
+  <si>
+    <t>Window_NC10</t>
+  </si>
+  <si>
+    <t>Window_NDC1</t>
+  </si>
+  <si>
+    <t>Window_NDC2_0</t>
+  </si>
+  <si>
+    <t>Window_NDC2_1</t>
+  </si>
+  <si>
+    <t>Window_NDC3</t>
+  </si>
+  <si>
+    <t>Window_NDC4</t>
+  </si>
+  <si>
+    <t>Window_NDC5</t>
+  </si>
+  <si>
+    <t>Window_NDC6</t>
+  </si>
+  <si>
+    <t>Window_NDC7_0</t>
+  </si>
+  <si>
+    <t>Window_NDC7_1</t>
+  </si>
+  <si>
+    <t>Window_NDC_8</t>
+  </si>
+  <si>
+    <t>Window_NDC9_0</t>
+  </si>
+  <si>
+    <t>Window_NDC9_1</t>
+  </si>
+  <si>
+    <t>Window_NDC9_2</t>
+  </si>
+  <si>
+    <t>Window_NDZC1</t>
+  </si>
+  <si>
+    <t>Window_NDZC2_0</t>
+  </si>
+  <si>
+    <t>Window_NDZC2_1</t>
+  </si>
+  <si>
+    <t>Window_NDC10</t>
+  </si>
+  <si>
+    <t>Window_WC2</t>
+  </si>
+  <si>
+    <t>Window_WC3</t>
+  </si>
+  <si>
+    <t>Window_WC4</t>
+  </si>
+  <si>
+    <t>Window_WC5_0</t>
+  </si>
+  <si>
+    <t>Window_WC5_1</t>
+  </si>
+  <si>
+    <t>Window_WC6</t>
+  </si>
+  <si>
+    <t>Window_WC7</t>
+  </si>
+  <si>
+    <t>Window_WC8_0</t>
+  </si>
+  <si>
+    <t>Window_WC8_1</t>
+  </si>
+  <si>
+    <t>Window_WC9</t>
+  </si>
+  <si>
+    <t>Window_WC10</t>
+  </si>
+  <si>
+    <t>Window_WZC1</t>
+  </si>
+  <si>
+    <t>Window_WZC2</t>
+  </si>
+  <si>
+    <t>Window_WC11</t>
+  </si>
+  <si>
+    <t>Door_TC1</t>
+  </si>
+  <si>
+    <t>Door_TC2</t>
+  </si>
+  <si>
+    <t>Door_TLM1</t>
+  </si>
+  <si>
+    <t>Door_TLM2</t>
+  </si>
+  <si>
+    <t>Door_TLM3</t>
+  </si>
+  <si>
+    <t>Door_TLM4</t>
+  </si>
+  <si>
+    <t>Door_TLM5</t>
+  </si>
+  <si>
+    <t>Door_TLM6</t>
+  </si>
+  <si>
+    <t>Door_TLM7</t>
+  </si>
+  <si>
+    <t>Door_WM1</t>
+  </si>
+  <si>
+    <t>Door_WM2</t>
+  </si>
+  <si>
+    <t>Door_WM3</t>
+  </si>
+  <si>
+    <t>Door_WM4_0</t>
+  </si>
+  <si>
+    <t>Door_WM4_1</t>
+  </si>
+  <si>
+    <t>Door_WLC1</t>
+  </si>
+  <si>
+    <t>Door_WLC2</t>
+  </si>
+  <si>
+    <t>Door_WLC3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1026,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1077,12 +1340,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1357,50 +1634,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView topLeftCell="M21" workbookViewId="0">
-      <selection activeCell="V53" sqref="A1:AZ67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.4140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.9140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.4140625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="8.9140625" style="2"/>
-    <col min="15" max="15" width="7.08203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="3" customWidth="1"/>
-    <col min="17" max="18" width="8.9140625" style="3"/>
+    <col min="11" max="11" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="9" style="3" customWidth="1"/>
     <col min="19" max="20" width="13" style="3" customWidth="1"/>
-    <col min="21" max="21" width="8.9140625" style="1"/>
-    <col min="22" max="22" width="14.4140625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="8.9140625" style="1"/>
+    <col min="21" max="21" width="9" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9" style="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" style="1" customWidth="1"/>
-    <col min="27" max="28" width="8.9140625" style="3"/>
-    <col min="29" max="30" width="10.4140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" style="1" customWidth="1"/>
+    <col min="27" max="28" width="9" style="3" customWidth="1"/>
+    <col min="29" max="30" width="10.33203125" style="3" customWidth="1"/>
     <col min="31" max="32" width="13" style="3" customWidth="1"/>
-    <col min="33" max="33" width="8.9140625" style="1"/>
+    <col min="33" max="33" width="9" style="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="1" customWidth="1"/>
-    <col min="35" max="38" width="8.9140625" style="1"/>
-    <col min="39" max="39" width="8.9140625" style="3"/>
-    <col min="40" max="40" width="11.75" style="3"/>
-    <col min="41" max="44" width="8.9140625" style="3"/>
-    <col min="45" max="50" width="8.9140625" style="1"/>
-    <col min="51" max="52" width="22.4140625" style="1" customWidth="1"/>
+    <col min="35" max="38" width="9" style="1" customWidth="1"/>
+    <col min="39" max="44" width="9" style="3" customWidth="1"/>
+    <col min="45" max="50" width="9" style="1" customWidth="1"/>
+    <col min="51" max="51" width="24.21875" style="1" customWidth="1"/>
+    <col min="52" max="53" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1551,32 +1827,35 @@
       <c r="AX1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -1588,23 +1867,23 @@
         <v>800</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" s="9"/>
       <c r="W2" s="4"/>
@@ -1612,7 +1891,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -1620,17 +1899,17 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
@@ -1638,37 +1917,41 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
       <c r="AS2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT2" s="9"/>
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
-      <c r="AY2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ2" s="4"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY2" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" s="18" t="str">
+        <f>SUBSTITUTE(C2,".","_P.",1)</f>
+        <v>Window_NC1_P.dwg</v>
+      </c>
+      <c r="BA2" s="4"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -1680,33 +1963,33 @@
         <v>1500</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -1714,17 +1997,17 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
@@ -1732,37 +2015,41 @@
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
-      <c r="AY3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ3" s="4"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ3" s="18" t="str">
+        <f t="shared" ref="AZ3:AZ66" si="0">SUBSTITUTE(C3,".","_P.",1)</f>
+        <v>Window_NC2_0_P.dwg</v>
+      </c>
+      <c r="BA3" s="4"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -1774,13 +2061,13 @@
         <v>2000</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P4" s="7">
         <v>750</v>
@@ -1792,17 +2079,17 @@
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -1810,17 +2097,17 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
@@ -1828,37 +2115,41 @@
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT4" s="9"/>
       <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
-      <c r="AY4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ4" s="4"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC2_1_P.dwg</v>
+      </c>
+      <c r="BA4" s="4"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -1870,23 +2161,23 @@
         <v>1500</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V5" s="9"/>
       <c r="W5" s="4"/>
@@ -1894,7 +2185,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -1902,17 +2193,17 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
@@ -1920,37 +2211,41 @@
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
       <c r="AS5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
-      <c r="AY5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ5" s="4"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC3_P.dwg</v>
+      </c>
+      <c r="BA5" s="4"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
@@ -1962,13 +2257,13 @@
         <v>2200</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P6" s="7">
         <v>600</v>
@@ -1980,17 +2275,17 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -1998,17 +2293,17 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
@@ -2016,37 +2311,41 @@
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
-      <c r="AY6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ6" s="4"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC4_P.dwg</v>
+      </c>
+      <c r="BA6" s="4"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -2058,23 +2357,23 @@
         <v>800</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="4"/>
@@ -2082,7 +2381,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -2090,17 +2389,17 @@
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN7" s="8">
         <v>950400</v>
@@ -2112,37 +2411,41 @@
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
-      <c r="AY7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ7" s="4"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC5_P.dwg</v>
+      </c>
+      <c r="BA7" s="4"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
@@ -2154,23 +2457,23 @@
         <v>1500</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V8" s="9"/>
       <c r="W8" s="4"/>
@@ -2178,7 +2481,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
@@ -2186,17 +2489,17 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN8" s="8">
         <v>950500400</v>
@@ -2208,37 +2511,41 @@
       </c>
       <c r="AR8" s="7"/>
       <c r="AS8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT8" s="9"/>
       <c r="AU8" s="9"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
-      <c r="AY8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ8" s="4"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY8" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC6_P.dwg</v>
+      </c>
+      <c r="BA8" s="4"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -2250,33 +2557,33 @@
         <v>1500</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -2284,17 +2591,17 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN9" s="8">
         <v>950500400</v>
@@ -2306,37 +2613,41 @@
       </c>
       <c r="AR9" s="7"/>
       <c r="AS9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
-      <c r="AY9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ9" s="4"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC7_P.dwg</v>
+      </c>
+      <c r="BA9" s="4"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -2348,13 +2659,13 @@
         <v>2000</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7">
         <v>750</v>
@@ -2366,17 +2677,17 @@
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
@@ -2384,17 +2695,17 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN10" s="8">
         <v>950500400</v>
@@ -2406,37 +2717,41 @@
       </c>
       <c r="AR10" s="7"/>
       <c r="AS10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
-      <c r="AY10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ10" s="4"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC7_1_P.dwg</v>
+      </c>
+      <c r="BA10" s="4"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
@@ -2448,23 +2763,23 @@
         <v>1500</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2472,7 +2787,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
@@ -2480,17 +2795,17 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN11" s="7">
         <v>950</v>
@@ -2502,37 +2817,41 @@
       </c>
       <c r="AR11" s="7"/>
       <c r="AS11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
-      <c r="AY11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ11" s="4"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC8_P.dwg</v>
+      </c>
+      <c r="BA11" s="4"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H12" s="4">
         <v>2</v>
@@ -2544,13 +2863,13 @@
         <v>1800</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7">
         <v>550</v>
@@ -2562,17 +2881,17 @@
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
@@ -2580,17 +2899,17 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN12" s="8">
         <v>950500</v>
@@ -2602,37 +2921,41 @@
       </c>
       <c r="AR12" s="7"/>
       <c r="AS12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
-      <c r="AY12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ12" s="4"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC9_0_P.dwg</v>
+      </c>
+      <c r="BA12" s="4"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
@@ -2644,13 +2967,13 @@
         <v>2300</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7">
         <v>600</v>
@@ -2662,17 +2985,17 @@
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
@@ -2680,17 +3003,17 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN13" s="8">
         <v>950500</v>
@@ -2702,37 +3025,41 @@
       </c>
       <c r="AR13" s="7"/>
       <c r="AS13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
-      <c r="AY13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ13" s="4"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY13" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC9_1_P.dwg</v>
+      </c>
+      <c r="BA13" s="4"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="4">
         <v>2</v>
@@ -2744,13 +3071,13 @@
         <v>3000</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7">
         <v>750</v>
@@ -2762,17 +3089,17 @@
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
@@ -2780,17 +3107,17 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN14" s="8">
         <v>950500</v>
@@ -2802,37 +3129,41 @@
       </c>
       <c r="AR14" s="7"/>
       <c r="AS14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
-      <c r="AY14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ14" s="4"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC9_2_P.dwg</v>
+      </c>
+      <c r="BA14" s="4"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -2844,13 +3175,13 @@
         <v>2500</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7">
         <v>750</v>
@@ -2862,17 +3193,17 @@
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB15" s="7">
         <v>500</v>
@@ -2882,17 +3213,17 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN15" s="7">
         <v>500</v>
@@ -2904,37 +3235,41 @@
       </c>
       <c r="AR15" s="7"/>
       <c r="AS15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
-      <c r="AY15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ15" s="4"/>
-    </row>
-    <row r="16" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+      <c r="AY15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NZC1_P.dwg</v>
+      </c>
+      <c r="BA15" s="4"/>
+    </row>
+    <row r="16" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H16" s="4">
         <v>2</v>
@@ -2946,13 +3281,13 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7">
         <v>600</v>
@@ -2964,17 +3299,17 @@
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="7">
         <v>500</v>
@@ -2984,17 +3319,17 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN16" s="8">
         <v>950500</v>
@@ -3006,37 +3341,41 @@
       </c>
       <c r="AR16" s="7"/>
       <c r="AS16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
-      <c r="AY16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ16" s="4"/>
-    </row>
-    <row r="17" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+      <c r="AY16" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NZC2_0_P.dwg</v>
+      </c>
+      <c r="BA16" s="4"/>
+    </row>
+    <row r="17" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="4">
         <v>2</v>
@@ -3048,13 +3387,13 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7">
         <v>750</v>
@@ -3066,17 +3405,17 @@
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="7">
         <v>500</v>
@@ -3086,17 +3425,17 @@
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN17" s="8">
         <v>950500</v>
@@ -3108,37 +3447,41 @@
       </c>
       <c r="AR17" s="7"/>
       <c r="AS17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
-      <c r="AY17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ17" s="4"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY17" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NZC2_1_P.dwg</v>
+      </c>
+      <c r="BA17" s="4"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>106</v>
+      <c r="B18" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H18" s="4">
         <v>2</v>
@@ -3150,23 +3493,23 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -3174,7 +3517,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
@@ -3182,17 +3525,17 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN18" s="8">
         <v>950500400</v>
@@ -3204,39 +3547,43 @@
       </c>
       <c r="AR18" s="7"/>
       <c r="AS18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ18" s="4"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="AZ18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NC10_P.dwg</v>
+      </c>
+      <c r="BA18" s="4"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>111</v>
+      <c r="B19" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -3248,23 +3595,23 @@
         <v>800</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="4"/>
@@ -3272,7 +3619,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
@@ -3280,17 +3627,17 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
@@ -3298,7 +3645,7 @@
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT19" s="9"/>
       <c r="AU19" s="4"/>
@@ -3306,29 +3653,33 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ19" s="4"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="AZ19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC1_P.dwg</v>
+      </c>
+      <c r="BA19" s="4"/>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>113</v>
+      <c r="B20" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -3340,33 +3691,33 @@
         <v>1500</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
@@ -3374,17 +3725,17 @@
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
@@ -3392,7 +3743,7 @@
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT20" s="9"/>
       <c r="AU20" s="4"/>
@@ -3400,29 +3751,33 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ20" s="4"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="AZ20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC2_0_P.dwg</v>
+      </c>
+      <c r="BA20" s="4"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>115</v>
+      <c r="B21" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -3434,13 +3789,13 @@
         <v>2000</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7">
         <v>750</v>
@@ -3452,17 +3807,17 @@
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
@@ -3470,17 +3825,17 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
@@ -3488,7 +3843,7 @@
       <c r="AQ21" s="7"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT21" s="9"/>
       <c r="AU21" s="4"/>
@@ -3496,29 +3851,33 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ21" s="4"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="AZ21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC2_1_P.dwg</v>
+      </c>
+      <c r="BA21" s="4"/>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>117</v>
+      <c r="B22" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H22" s="4">
         <v>2</v>
@@ -3530,23 +3889,23 @@
         <v>1500</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="4"/>
@@ -3554,7 +3913,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
@@ -3562,17 +3921,17 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
@@ -3580,7 +3939,7 @@
       <c r="AQ22" s="7"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT22" s="9"/>
       <c r="AU22" s="4"/>
@@ -3588,29 +3947,33 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ22" s="4"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="AZ22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC3_P.dwg</v>
+      </c>
+      <c r="BA22" s="4"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>119</v>
+      <c r="B23" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H23" s="4">
         <v>2</v>
@@ -3622,13 +3985,13 @@
         <v>2200</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7">
         <v>600</v>
@@ -3640,17 +4003,17 @@
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
@@ -3658,17 +4021,17 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
@@ -3676,7 +4039,7 @@
       <c r="AQ23" s="7"/>
       <c r="AR23" s="7"/>
       <c r="AS23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT23" s="9"/>
       <c r="AU23" s="4"/>
@@ -3684,29 +4047,33 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ23" s="4"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="AZ23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC4_P.dwg</v>
+      </c>
+      <c r="BA23" s="4"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>121</v>
+      <c r="B24" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
@@ -3718,23 +4085,23 @@
         <v>800</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="4"/>
@@ -3742,7 +4109,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
@@ -3750,17 +4117,17 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN24" s="8">
         <v>950400400</v>
@@ -3772,7 +4139,7 @@
       </c>
       <c r="AR24" s="7"/>
       <c r="AS24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT24" s="9"/>
       <c r="AU24" s="4"/>
@@ -3780,29 +4147,33 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ24" s="4"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="AZ24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC5_P.dwg</v>
+      </c>
+      <c r="BA24" s="4"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>123</v>
+      <c r="B25" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H25" s="4">
         <v>2</v>
@@ -3814,23 +4185,23 @@
         <v>1500</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="4"/>
@@ -3838,7 +4209,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
@@ -3846,17 +4217,17 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN25" s="8">
         <v>950500400</v>
@@ -3868,7 +4239,7 @@
       </c>
       <c r="AR25" s="7"/>
       <c r="AS25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT25" s="9"/>
       <c r="AU25" s="4"/>
@@ -3876,29 +4247,33 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ25" s="4"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="AZ25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC6_P.dwg</v>
+      </c>
+      <c r="BA25" s="4"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>125</v>
+      <c r="B26" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
@@ -3910,33 +4285,33 @@
         <v>1500</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
@@ -3944,17 +4319,17 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN26" s="8">
         <v>950500400</v>
@@ -3966,7 +4341,7 @@
       </c>
       <c r="AR26" s="7"/>
       <c r="AS26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT26" s="9"/>
       <c r="AU26" s="4"/>
@@ -3974,29 +4349,33 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ26" s="4"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="AZ26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC7_0_P.dwg</v>
+      </c>
+      <c r="BA26" s="4"/>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>127</v>
+      <c r="B27" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -4008,13 +4387,13 @@
         <v>2000</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7">
         <v>750</v>
@@ -4026,17 +4405,17 @@
       </c>
       <c r="T27" s="7"/>
       <c r="U27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -4044,17 +4423,17 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN27" s="8">
         <v>950500400</v>
@@ -4066,7 +4445,7 @@
       </c>
       <c r="AR27" s="7"/>
       <c r="AS27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT27" s="9"/>
       <c r="AU27" s="4"/>
@@ -4074,29 +4453,33 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ27" s="4"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="AZ27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC7_1_P.dwg</v>
+      </c>
+      <c r="BA27" s="4"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>129</v>
+      <c r="B28" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H28" s="4">
         <v>2</v>
@@ -4108,23 +4491,23 @@
         <v>1500</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -4132,7 +4515,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
@@ -4140,17 +4523,17 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN28" s="7">
         <v>950</v>
@@ -4162,7 +4545,7 @@
       </c>
       <c r="AR28" s="7"/>
       <c r="AS28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT28" s="9"/>
       <c r="AU28" s="4"/>
@@ -4170,29 +4553,33 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ28" s="4"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="AZ28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC_8_P.dwg</v>
+      </c>
+      <c r="BA28" s="4"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>131</v>
+      <c r="B29" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H29" s="4">
         <v>2</v>
@@ -4204,13 +4591,13 @@
         <v>1800</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7">
         <v>550</v>
@@ -4222,17 +4609,17 @@
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
@@ -4240,17 +4627,17 @@
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN29" s="8">
         <v>950500</v>
@@ -4262,7 +4649,7 @@
       </c>
       <c r="AR29" s="7"/>
       <c r="AS29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT29" s="9"/>
       <c r="AU29" s="4"/>
@@ -4270,29 +4657,33 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ29" s="4"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="AZ29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC9_0_P.dwg</v>
+      </c>
+      <c r="BA29" s="4"/>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>133</v>
+      <c r="B30" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H30" s="4">
         <v>2</v>
@@ -4304,13 +4695,13 @@
         <v>2300</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7">
         <v>600</v>
@@ -4322,17 +4713,17 @@
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
@@ -4340,17 +4731,17 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH30" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN30" s="8">
         <v>950500</v>
@@ -4362,7 +4753,7 @@
       </c>
       <c r="AR30" s="7"/>
       <c r="AS30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="4"/>
@@ -4370,29 +4761,33 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ30" s="4"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="AZ30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC9_1_P.dwg</v>
+      </c>
+      <c r="BA30" s="4"/>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>135</v>
+      <c r="B31" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H31" s="4">
         <v>2</v>
@@ -4404,13 +4799,13 @@
         <v>3000</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7">
         <v>750</v>
@@ -4422,17 +4817,17 @@
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
@@ -4440,17 +4835,17 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN31" s="8">
         <v>950500</v>
@@ -4462,7 +4857,7 @@
       </c>
       <c r="AR31" s="7"/>
       <c r="AS31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT31" s="9"/>
       <c r="AU31" s="4"/>
@@ -4470,29 +4865,33 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ31" s="4"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="AZ31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC9_2_P.dwg</v>
+      </c>
+      <c r="BA31" s="4"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>137</v>
+      <c r="B32" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -4504,13 +4903,13 @@
         <v>2500</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P32" s="7">
         <v>750</v>
@@ -4522,17 +4921,17 @@
       </c>
       <c r="T32" s="7"/>
       <c r="U32" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB32" s="7">
         <v>500</v>
@@ -4542,17 +4941,17 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN32" s="7">
         <v>500</v>
@@ -4564,7 +4963,7 @@
       </c>
       <c r="AR32" s="7"/>
       <c r="AS32" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT32" s="9"/>
       <c r="AU32" s="4"/>
@@ -4572,29 +4971,33 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ32" s="4"/>
-    </row>
-    <row r="33" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="AZ32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDZC1_P.dwg</v>
+      </c>
+      <c r="BA32" s="4"/>
+    </row>
+    <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>139</v>
+      <c r="B33" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H33" s="4">
         <v>2</v>
@@ -4606,13 +5009,13 @@
         <v>2700</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7">
         <v>600</v>
@@ -4624,17 +5027,17 @@
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB33" s="7">
         <v>500</v>
@@ -4644,17 +5047,17 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN33" s="8">
         <v>950500</v>
@@ -4666,7 +5069,7 @@
       </c>
       <c r="AR33" s="7"/>
       <c r="AS33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT33" s="9"/>
       <c r="AU33" s="4"/>
@@ -4674,29 +5077,33 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ33" s="4"/>
-    </row>
-    <row r="34" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="AZ33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDZC2_0_P.dwg</v>
+      </c>
+      <c r="BA33" s="4"/>
+    </row>
+    <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>141</v>
+      <c r="B34" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H34" s="4">
         <v>2</v>
@@ -4708,13 +5115,13 @@
         <v>3300</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P34" s="7">
         <v>750</v>
@@ -4726,17 +5133,17 @@
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB34" s="7">
         <v>500</v>
@@ -4746,17 +5153,17 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH34" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN34" s="8">
         <v>950500</v>
@@ -4768,7 +5175,7 @@
       </c>
       <c r="AR34" s="7"/>
       <c r="AS34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT34" s="9"/>
       <c r="AU34" s="4"/>
@@ -4776,29 +5183,33 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ34" s="4"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="AZ34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDZC2_1_P.dwg</v>
+      </c>
+      <c r="BA34" s="4"/>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>143</v>
+      <c r="B35" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H35" s="4">
         <v>2</v>
@@ -4810,23 +5221,23 @@
         <v>1500</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
@@ -4834,7 +5245,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
@@ -4842,17 +5253,17 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH35" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN35" s="8">
         <v>950500400</v>
@@ -4864,39 +5275,43 @@
       </c>
       <c r="AR35" s="7"/>
       <c r="AS35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AU35" s="4"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ35" s="4"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="AZ35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_NDC10_P.dwg</v>
+      </c>
+      <c r="BA35" s="4"/>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>145</v>
+      <c r="B36" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -4908,23 +5323,23 @@
         <v>800</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -4932,7 +5347,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
@@ -4940,17 +5355,17 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
@@ -4958,7 +5373,7 @@
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
       <c r="AS36" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
@@ -4966,29 +5381,33 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ36" s="4"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="AZ36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC1_P.dwg</v>
+      </c>
+      <c r="BA36" s="4"/>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>149</v>
+      <c r="B37" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -5000,23 +5419,23 @@
         <v>800</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -5024,7 +5443,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
@@ -5032,17 +5451,17 @@
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN37" s="7">
         <v>400</v>
@@ -5054,7 +5473,7 @@
       </c>
       <c r="AR37" s="7"/>
       <c r="AS37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
@@ -5062,29 +5481,33 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ37" s="4"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="AZ37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC2_P.dwg</v>
+      </c>
+      <c r="BA37" s="4"/>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>152</v>
+      <c r="B38" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -5096,23 +5519,23 @@
         <v>800</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -5120,7 +5543,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
@@ -5128,17 +5551,17 @@
       <c r="AE38" s="7"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
@@ -5146,7 +5569,7 @@
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
       <c r="AS38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
@@ -5154,29 +5577,33 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ38" s="4"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="AZ38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC3_P.dwg</v>
+      </c>
+      <c r="BA38" s="4"/>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>154</v>
+      <c r="B39" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -5188,23 +5615,23 @@
         <v>800</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -5212,7 +5639,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
@@ -5220,17 +5647,17 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN39" s="7">
         <v>400</v>
@@ -5242,7 +5669,7 @@
       </c>
       <c r="AR39" s="7"/>
       <c r="AS39" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
@@ -5250,29 +5677,33 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ39" s="4"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="AZ39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC4_P.dwg</v>
+      </c>
+      <c r="BA39" s="4"/>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
-        <v>156</v>
+      <c r="B40" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -5284,33 +5715,33 @@
         <v>1500</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
@@ -5318,17 +5749,17 @@
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
@@ -5336,7 +5767,7 @@
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
@@ -5344,29 +5775,33 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ40" s="4"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="AZ40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC5_0_P.dwg</v>
+      </c>
+      <c r="BA40" s="4"/>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>158</v>
+      <c r="B41" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -5378,13 +5813,13 @@
         <v>2000</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P41" s="8">
         <v>650700</v>
@@ -5396,17 +5831,17 @@
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
@@ -5414,17 +5849,17 @@
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN41" s="7"/>
       <c r="AO41" s="7"/>
@@ -5432,7 +5867,7 @@
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
@@ -5440,29 +5875,33 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ41" s="4"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="AZ41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC5_1_P.dwg</v>
+      </c>
+      <c r="BA41" s="4"/>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>160</v>
+      <c r="B42" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H42" s="4">
         <v>2</v>
@@ -5474,23 +5913,23 @@
         <v>1500</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -5498,7 +5937,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
@@ -5506,17 +5945,17 @@
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN42" s="7"/>
       <c r="AO42" s="7"/>
@@ -5524,7 +5963,7 @@
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
       <c r="AS42" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT42" s="4"/>
       <c r="AU42" s="4"/>
@@ -5532,29 +5971,33 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
       <c r="AY42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ42" s="4"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="AZ42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC6_P.dwg</v>
+      </c>
+      <c r="BA42" s="4"/>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>163</v>
+      <c r="B43" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H43" s="4">
         <v>2</v>
@@ -5566,13 +6009,13 @@
         <v>2200</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P43" s="8">
         <v>650700</v>
@@ -5584,17 +6027,17 @@
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
@@ -5602,17 +6045,17 @@
       <c r="AE43" s="7"/>
       <c r="AF43" s="7"/>
       <c r="AG43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN43" s="7"/>
       <c r="AO43" s="7"/>
@@ -5620,7 +6063,7 @@
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
       <c r="AS43" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT43" s="4"/>
       <c r="AU43" s="4"/>
@@ -5628,29 +6071,33 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
       <c r="AY43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ43" s="4"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="AZ43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC7_P.dwg</v>
+      </c>
+      <c r="BA43" s="4"/>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>165</v>
+      <c r="B44" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
@@ -5662,33 +6109,33 @@
         <v>1500</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
@@ -5696,17 +6143,17 @@
       <c r="AE44" s="7"/>
       <c r="AF44" s="7"/>
       <c r="AG44" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH44" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN44" s="8">
         <v>500400</v>
@@ -5718,7 +6165,7 @@
       </c>
       <c r="AR44" s="7"/>
       <c r="AS44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT44" s="4"/>
       <c r="AU44" s="4"/>
@@ -5726,29 +6173,33 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ44" s="4"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="AZ44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC8_0_P.dwg</v>
+      </c>
+      <c r="BA44" s="4"/>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
-        <v>167</v>
+      <c r="B45" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -5760,13 +6211,13 @@
         <v>2000</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P45" s="8">
         <v>650700</v>
@@ -5778,17 +6229,17 @@
       </c>
       <c r="T45" s="7"/>
       <c r="U45" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
@@ -5796,17 +6247,17 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
       <c r="AG45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH45" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN45" s="8">
         <v>500400</v>
@@ -5818,7 +6269,7 @@
       </c>
       <c r="AR45" s="7"/>
       <c r="AS45" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
@@ -5826,29 +6277,33 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
       <c r="AY45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ45" s="4"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="AZ45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC8_1_P.dwg</v>
+      </c>
+      <c r="BA45" s="4"/>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>169</v>
+      <c r="B46" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H46" s="4">
         <v>2</v>
@@ -5860,23 +6315,23 @@
         <v>1500</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -5884,7 +6339,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
@@ -5892,17 +6347,17 @@
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH46" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN46" s="8">
         <v>500400</v>
@@ -5914,7 +6369,7 @@
       </c>
       <c r="AR46" s="7"/>
       <c r="AS46" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT46" s="4"/>
       <c r="AU46" s="4"/>
@@ -5922,29 +6377,33 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AZ46" s="4"/>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="AZ46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC9_P.dwg</v>
+      </c>
+      <c r="BA46" s="4"/>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
-        <v>171</v>
+      <c r="B47" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H47" s="4">
         <v>2</v>
@@ -5956,13 +6415,13 @@
         <v>3000</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P47" s="8">
         <v>650700</v>
@@ -5974,17 +6433,17 @@
       </c>
       <c r="T47" s="7"/>
       <c r="U47" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
@@ -5992,17 +6451,17 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH47" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN47" s="7">
         <v>500</v>
@@ -6014,7 +6473,7 @@
       </c>
       <c r="AR47" s="7"/>
       <c r="AS47" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT47" s="4"/>
       <c r="AU47" s="4"/>
@@ -6022,29 +6481,33 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
       <c r="AY47" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ47" s="4"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="AZ47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC10_P.dwg</v>
+      </c>
+      <c r="BA47" s="4"/>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
-        <v>173</v>
+      <c r="B48" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
@@ -6056,13 +6519,13 @@
         <v>2500</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P48" s="8">
         <v>650700</v>
@@ -6074,17 +6537,17 @@
       </c>
       <c r="T48" s="7"/>
       <c r="U48" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB48" s="7">
         <v>500</v>
@@ -6094,17 +6557,17 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN48" s="7">
         <v>500</v>
@@ -6116,7 +6579,7 @@
       </c>
       <c r="AR48" s="7"/>
       <c r="AS48" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT48" s="4"/>
       <c r="AU48" s="4"/>
@@ -6124,29 +6587,33 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ48" s="4"/>
-    </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="AZ48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WZC1_P.dwg</v>
+      </c>
+      <c r="BA48" s="4"/>
+    </row>
+    <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
-        <v>175</v>
+      <c r="B49" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H49" s="4">
         <v>2</v>
@@ -6158,13 +6625,13 @@
         <v>3300</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="P49" s="8">
         <v>650700</v>
@@ -6176,17 +6643,17 @@
       </c>
       <c r="T49" s="7"/>
       <c r="U49" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB49" s="7">
         <v>500</v>
@@ -6196,17 +6663,17 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH49" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN49" s="7">
         <v>500</v>
@@ -6218,7 +6685,7 @@
       </c>
       <c r="AR49" s="7"/>
       <c r="AS49" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT49" s="4"/>
       <c r="AU49" s="4"/>
@@ -6226,29 +6693,33 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ49" s="4"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="AZ49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WZC2_P.dwg</v>
+      </c>
+      <c r="BA49" s="4"/>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
-        <v>177</v>
+      <c r="B50" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H50" s="4">
         <v>2</v>
@@ -6260,23 +6731,23 @@
         <v>1500</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
@@ -6284,7 +6755,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
@@ -6292,17 +6763,17 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH50" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AN50" s="8">
         <v>500400</v>
@@ -6314,39 +6785,43 @@
       </c>
       <c r="AR50" s="7"/>
       <c r="AS50" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AT50" s="4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ50" s="4"/>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="AZ50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Window_WC11_P.dwg</v>
+      </c>
+      <c r="BA50" s="4"/>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
-        <v>179</v>
+      <c r="B51" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H51" s="4">
         <v>2</v>
@@ -6358,23 +6833,23 @@
         <v>1500</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
@@ -6382,7 +6857,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
@@ -6390,17 +6865,17 @@
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
       <c r="AL51" s="4"/>
       <c r="AM51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN51" s="7"/>
       <c r="AO51" s="7"/>
@@ -6408,7 +6883,7 @@
       <c r="AQ51" s="7"/>
       <c r="AR51" s="7"/>
       <c r="AS51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT51" s="4"/>
       <c r="AU51" s="4"/>
@@ -6416,29 +6891,33 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
       <c r="AY51" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ51" s="4"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="AZ51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TC1_P.dwg</v>
+      </c>
+      <c r="BA51" s="4"/>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="4" t="s">
-        <v>183</v>
+      <c r="B52" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H52" s="4">
         <v>2</v>
@@ -6450,23 +6929,23 @@
         <v>1500</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
@@ -6474,7 +6953,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
@@ -6482,17 +6961,17 @@
       <c r="AE52" s="7"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH52" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
       <c r="AL52" s="4"/>
       <c r="AM52" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN52" s="7">
         <v>400</v>
@@ -6504,7 +6983,7 @@
       </c>
       <c r="AR52" s="7"/>
       <c r="AS52" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT52" s="4"/>
       <c r="AU52" s="4"/>
@@ -6512,29 +6991,33 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ52" s="4"/>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="AZ52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TC2_P.dwg</v>
+      </c>
+      <c r="BA52" s="4"/>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>185</v>
+      <c r="B53" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H53" s="4">
         <v>2</v>
@@ -6546,23 +7029,23 @@
         <v>2400</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -6570,7 +7053,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
@@ -6578,17 +7061,17 @@
       <c r="AE53" s="7"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
       <c r="AL53" s="4"/>
       <c r="AM53" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN53" s="7"/>
       <c r="AO53" s="7"/>
@@ -6596,7 +7079,7 @@
       <c r="AQ53" s="7"/>
       <c r="AR53" s="7"/>
       <c r="AS53" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT53" s="4"/>
       <c r="AU53" s="4"/>
@@ -6604,29 +7087,33 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ53" s="4"/>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="AZ53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM1_P.dwg</v>
+      </c>
+      <c r="BA53" s="4"/>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>188</v>
+      <c r="B54" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
@@ -6638,33 +7125,33 @@
         <v>2700</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V54" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
@@ -6672,17 +7159,17 @@
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH54" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
       <c r="AL54" s="4"/>
       <c r="AM54" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN54" s="7"/>
       <c r="AO54" s="7"/>
@@ -6690,7 +7177,7 @@
       <c r="AQ54" s="7"/>
       <c r="AR54" s="7"/>
       <c r="AS54" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT54" s="4"/>
       <c r="AU54" s="4"/>
@@ -6698,29 +7185,33 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ54" s="4"/>
-    </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="AZ54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM2_P.dwg</v>
+      </c>
+      <c r="BA54" s="4"/>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>191</v>
+      <c r="B55" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H55" s="4">
         <v>2</v>
@@ -6732,23 +7223,23 @@
         <v>2700</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -6756,7 +7247,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB55" s="7"/>
       <c r="AC55" s="7"/>
@@ -6764,17 +7255,17 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
       <c r="AM55" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN55" s="7"/>
       <c r="AO55" s="7"/>
@@ -6782,7 +7273,7 @@
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
       <c r="AS55" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT55" s="4"/>
       <c r="AU55" s="4"/>
@@ -6790,29 +7281,33 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ55" s="4"/>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="AZ55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM3_P.dwg</v>
+      </c>
+      <c r="BA55" s="4"/>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
-        <v>193</v>
+      <c r="B56" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H56" s="4">
         <v>2</v>
@@ -6824,23 +7319,23 @@
         <v>3600</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
@@ -6848,7 +7343,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB56" s="7"/>
       <c r="AC56" s="7"/>
@@ -6856,17 +7351,17 @@
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
       <c r="AL56" s="4"/>
       <c r="AM56" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN56" s="7"/>
       <c r="AO56" s="7"/>
@@ -6874,7 +7369,7 @@
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
       <c r="AS56" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT56" s="4"/>
       <c r="AU56" s="4"/>
@@ -6882,29 +7377,33 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ56" s="4"/>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="AZ56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM4_P.dwg</v>
+      </c>
+      <c r="BA56" s="4"/>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
-        <v>197</v>
+      <c r="B57" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H57" s="4">
         <v>4</v>
@@ -6916,33 +7415,33 @@
         <v>4800</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB57" s="7"/>
       <c r="AC57" s="7"/>
@@ -6950,17 +7449,17 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
       <c r="AM57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN57" s="7"/>
       <c r="AO57" s="7"/>
@@ -6968,7 +7467,7 @@
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
       <c r="AS57" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT57" s="4"/>
       <c r="AU57" s="4"/>
@@ -6976,29 +7475,33 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ57" s="4"/>
-    </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="AZ57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM5_P.dwg</v>
+      </c>
+      <c r="BA57" s="4"/>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
-        <v>200</v>
+      <c r="B58" s="18" t="s">
+        <v>302</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H58" s="4">
         <v>4</v>
@@ -7010,23 +7513,23 @@
         <v>4800</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
@@ -7034,7 +7537,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB58" s="7"/>
       <c r="AC58" s="7"/>
@@ -7042,17 +7545,17 @@
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
       <c r="AG58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH58" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
       <c r="AM58" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN58" s="7"/>
       <c r="AO58" s="7"/>
@@ -7060,7 +7563,7 @@
       <c r="AQ58" s="7"/>
       <c r="AR58" s="7"/>
       <c r="AS58" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT58" s="4"/>
       <c r="AU58" s="4"/>
@@ -7068,29 +7571,33 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ58" s="4"/>
-    </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="AZ58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM6_P.dwg</v>
+      </c>
+      <c r="BA58" s="4"/>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>202</v>
+      <c r="B59" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H59" s="4">
         <v>4</v>
@@ -7102,23 +7609,23 @@
         <v>6000</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
@@ -7126,7 +7633,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB59" s="7"/>
       <c r="AC59" s="7"/>
@@ -7134,17 +7641,17 @@
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
       <c r="AG59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH59" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
       <c r="AL59" s="4"/>
       <c r="AM59" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN59" s="7"/>
       <c r="AO59" s="7"/>
@@ -7152,7 +7659,7 @@
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
       <c r="AS59" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT59" s="4"/>
       <c r="AU59" s="4"/>
@@ -7160,29 +7667,33 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ59" s="4"/>
-    </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="AZ59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_TLM7_P.dwg</v>
+      </c>
+      <c r="BA59" s="4"/>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>205</v>
+      <c r="B60" s="18" t="s">
+        <v>304</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
@@ -7194,23 +7705,23 @@
         <v>1000</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
@@ -7218,7 +7729,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB60" s="7"/>
       <c r="AC60" s="7"/>
@@ -7226,17 +7737,17 @@
       <c r="AE60" s="7"/>
       <c r="AF60" s="7"/>
       <c r="AG60" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH60" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
       <c r="AL60" s="4"/>
       <c r="AM60" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN60" s="7"/>
       <c r="AO60" s="7"/>
@@ -7244,7 +7755,7 @@
       <c r="AQ60" s="7"/>
       <c r="AR60" s="7"/>
       <c r="AS60" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT60" s="4"/>
       <c r="AU60" s="4"/>
@@ -7252,29 +7763,33 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ60" s="4"/>
-    </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="AZ60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WM1_P.dwg</v>
+      </c>
+      <c r="BA60" s="4"/>
+    </row>
+    <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
-        <v>208</v>
+      <c r="B61" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H61" s="4">
         <v>1</v>
@@ -7286,33 +7801,33 @@
         <v>1300</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB61" s="7"/>
       <c r="AC61" s="7"/>
@@ -7320,17 +7835,17 @@
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
       <c r="AM61" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN61" s="7"/>
       <c r="AO61" s="7"/>
@@ -7338,7 +7853,7 @@
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
       <c r="AS61" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT61" s="4"/>
       <c r="AU61" s="4"/>
@@ -7346,29 +7861,33 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ61" s="4"/>
-    </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="AZ61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WM2_P.dwg</v>
+      </c>
+      <c r="BA61" s="4"/>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>213</v>
+      <c r="B62" s="18" t="s">
+        <v>306</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
@@ -7380,23 +7899,23 @@
         <v>2000</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
@@ -7404,7 +7923,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB62" s="7"/>
       <c r="AC62" s="7"/>
@@ -7412,17 +7931,17 @@
       <c r="AE62" s="7"/>
       <c r="AF62" s="7"/>
       <c r="AG62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN62" s="7"/>
       <c r="AO62" s="7"/>
@@ -7430,7 +7949,7 @@
       <c r="AQ62" s="7"/>
       <c r="AR62" s="7"/>
       <c r="AS62" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT62" s="4"/>
       <c r="AU62" s="4"/>
@@ -7438,29 +7957,33 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AZ62" s="4"/>
-    </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="AZ62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WM3_P.dwg</v>
+      </c>
+      <c r="BA62" s="4"/>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>216</v>
+      <c r="B63" s="18" t="s">
+        <v>307</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
@@ -7472,33 +7995,33 @@
         <v>2000</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V63" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -7506,17 +8029,17 @@
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
       <c r="AG63" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
       <c r="AM63" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN63" s="7"/>
       <c r="AO63" s="7"/>
@@ -7524,7 +8047,7 @@
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
       <c r="AS63" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT63" s="4"/>
       <c r="AU63" s="4"/>
@@ -7532,29 +8055,33 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AZ63" s="4"/>
-    </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="AZ63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WM4_0_P.dwg</v>
+      </c>
+      <c r="BA63" s="4"/>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>219</v>
+      <c r="B64" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H64" s="4">
         <v>1</v>
@@ -7566,13 +8093,13 @@
         <v>2400</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P64" s="7">
         <v>1000</v>
@@ -7584,17 +8111,17 @@
       </c>
       <c r="T64" s="7"/>
       <c r="U64" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V64" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
@@ -7602,17 +8129,17 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
       <c r="AG64" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
       <c r="AM64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN64" s="7"/>
       <c r="AO64" s="7"/>
@@ -7620,7 +8147,7 @@
       <c r="AQ64" s="7"/>
       <c r="AR64" s="7"/>
       <c r="AS64" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT64" s="4"/>
       <c r="AU64" s="4"/>
@@ -7628,29 +8155,33 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ64" s="4"/>
-    </row>
-    <row r="65" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="AZ64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WM4_1_P.dwg</v>
+      </c>
+      <c r="BA64" s="4"/>
+    </row>
+    <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>221</v>
+      <c r="B65" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
@@ -7662,13 +8193,13 @@
         <v>3100</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P65" s="7">
         <v>1000</v>
@@ -7680,17 +8211,17 @@
       </c>
       <c r="T65" s="7"/>
       <c r="U65" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AB65" s="10">
         <v>700</v>
@@ -7700,27 +8231,27 @@
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH65" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
       <c r="AM65" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN65" s="7" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT65" s="4"/>
       <c r="AU65" s="4"/>
@@ -7728,29 +8259,33 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ65" s="4"/>
-    </row>
-    <row r="66" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="AZ65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WLC1_P.dwg</v>
+      </c>
+      <c r="BA65" s="4"/>
+    </row>
+    <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>226</v>
+      <c r="B66" s="18" t="s">
+        <v>310</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H66" s="4">
         <v>2</v>
@@ -7762,23 +8297,23 @@
         <v>1700</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="V66" s="4">
         <v>900</v>
@@ -7788,7 +8323,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
@@ -7796,17 +8331,17 @@
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH66" s="4" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
       <c r="AM66" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN66" s="7"/>
       <c r="AO66" s="7"/>
@@ -7814,7 +8349,7 @@
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
       <c r="AS66" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT66" s="4"/>
       <c r="AU66" s="4"/>
@@ -7822,29 +8357,33 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ66" s="4"/>
-    </row>
-    <row r="67" spans="1:52" ht="28" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="AZ66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Door_WLC2_P.dwg</v>
+      </c>
+      <c r="BA66" s="4"/>
+    </row>
+    <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>231</v>
+      <c r="B67" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H67" s="4">
         <v>2</v>
@@ -7856,23 +8395,23 @@
         <v>1700</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="V67" s="4">
         <v>900</v>
@@ -7882,7 +8421,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB67" s="7"/>
       <c r="AC67" s="7"/>
@@ -7890,17 +8429,17 @@
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH67" s="4" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AN67" s="7">
         <v>400</v>
@@ -7912,7 +8451,7 @@
       </c>
       <c r="AR67" s="7"/>
       <c r="AS67" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AT67" s="14">
         <v>900600</v>
@@ -7922,11 +8461,15 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ67" s="4"/>
-    </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="AZ67" s="18" t="str">
+        <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
+        <v>Door_WLC3_P.dwg</v>
+      </c>
+      <c r="BA67" s="4"/>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -7979,8 +8522,9 @@
       <c r="AX68" s="11"/>
       <c r="AY68" s="11"/>
       <c r="AZ68" s="11"/>
-    </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA68" s="11"/>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -8033,8 +8577,9 @@
       <c r="AX69" s="11"/>
       <c r="AY69" s="11"/>
       <c r="AZ69" s="11"/>
-    </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA69" s="11"/>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -8087,34 +8632,35 @@
       <c r="AX70" s="11"/>
       <c r="AY70" s="11"/>
       <c r="AZ70" s="11"/>
+      <c r="BA70" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8125,426 +8671,426 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>267</v>
+        <v>134</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>270</v>
+        <v>137</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>287</v>
+        <v>154</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8555,81 +9101,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalMode_yemingyuan\LocalMode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324788E4-A124-4831-B716-FB25EC234D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="外窗数据" sheetId="1" r:id="rId1"/>
     <sheet name="空调数据" sheetId="3" r:id="rId2"/>
     <sheet name="说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="314">
   <si>
     <t>序号</t>
   </si>
@@ -257,9 +251,6 @@
   </si>
   <si>
     <t>H-2a-H2-H3</t>
-  </si>
-  <si>
-    <t>W1</t>
   </si>
   <si>
     <t>外开</t>
@@ -561,9 +552,6 @@
   </si>
   <si>
     <t>Window_NC6.dwg</t>
-  </si>
-  <si>
-    <t>Window_NC7.dwg</t>
   </si>
   <si>
     <r>
@@ -841,9 +829,6 @@
     <t>Window_NC6</t>
   </si>
   <si>
-    <t>Window_NC7</t>
-  </si>
-  <si>
     <t>Window_NC7_1</t>
   </si>
   <si>
@@ -1206,12 +1191,32 @@
   </si>
   <si>
     <t>Door_WLC3</t>
+  </si>
+  <si>
+    <t>(W1-85)*(H1-115)*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(W1-85)*(H1-85)+(W1-162)*(H1-85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NC7_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NC7_0.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1236,7 +1241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,6 +1263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,6 +1358,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1359,7 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1634,11 +1648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1684,9 @@
     <col min="33" max="33" width="9" style="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="1" customWidth="1"/>
     <col min="35" max="38" width="9" style="1" customWidth="1"/>
-    <col min="39" max="44" width="9" style="3" customWidth="1"/>
+    <col min="39" max="39" width="9" style="3" customWidth="1"/>
+    <col min="40" max="40" width="11.77734375" style="3" customWidth="1"/>
+    <col min="41" max="44" width="9" style="3" customWidth="1"/>
     <col min="45" max="50" width="9" style="1" customWidth="1"/>
     <col min="51" max="51" width="24.21875" style="1" customWidth="1"/>
     <col min="52" max="53" width="22.33203125" style="1" customWidth="1"/>
@@ -1828,7 +1844,7 @@
         <v>49</v>
       </c>
       <c r="AY1" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AZ1" s="4" t="s">
         <v>50</v>
@@ -1837,19 +1853,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -1925,7 +1941,7 @@
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
       <c r="AY2" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AZ2" s="18" t="str">
         <f>SUBSTITUTE(C2,".","_P.",1)</f>
@@ -1933,13 +1949,13 @@
       </c>
       <c r="BA2" s="4"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -2023,7 +2039,7 @@
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AZ3" s="18" t="str">
         <f t="shared" ref="AZ3:AZ66" si="0">SUBSTITUTE(C3,".","_P.",1)</f>
@@ -2031,13 +2047,13 @@
       </c>
       <c r="BA3" s="4"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>52</v>
@@ -2123,7 +2139,7 @@
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AZ4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2131,13 +2147,13 @@
       </c>
       <c r="BA4" s="4"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -2219,7 +2235,7 @@
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AZ5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2227,13 +2243,13 @@
       </c>
       <c r="BA5" s="4"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
@@ -2319,7 +2335,7 @@
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AZ6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2327,13 +2343,13 @@
       </c>
       <c r="BA6" s="4"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
@@ -2419,7 +2435,7 @@
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AZ7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2427,13 +2443,13 @@
       </c>
       <c r="BA7" s="4"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>52</v>
@@ -2519,7 +2535,7 @@
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AZ8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2527,13 +2543,13 @@
       </c>
       <c r="BA8" s="4"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2621,21 +2637,21 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Window_NC7_P.dwg</v>
+        <v>Window_NC7_0_P.dwg</v>
       </c>
       <c r="BA9" s="4"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>52</v>
@@ -2725,7 +2741,7 @@
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AZ10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2733,13 +2749,13 @@
       </c>
       <c r="BA10" s="4"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
@@ -2825,7 +2841,7 @@
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AZ11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2833,13 +2849,13 @@
       </c>
       <c r="BA11" s="4"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -2929,7 +2945,7 @@
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AZ12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2937,13 +2953,13 @@
       </c>
       <c r="BA12" s="4"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>52</v>
@@ -3033,7 +3049,7 @@
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AZ13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3041,13 +3057,13 @@
       </c>
       <c r="BA13" s="4"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
@@ -3137,7 +3153,7 @@
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AZ14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3145,13 +3161,13 @@
       </c>
       <c r="BA14" s="4"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
@@ -3243,7 +3259,7 @@
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AZ15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3251,13 +3267,13 @@
       </c>
       <c r="BA15" s="4"/>
     </row>
-    <row r="16" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -3281,7 +3297,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3349,7 +3365,7 @@
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AZ16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3357,13 +3373,13 @@
       </c>
       <c r="BA16" s="4"/>
     </row>
-    <row r="17" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -3387,7 +3403,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3455,7 +3471,7 @@
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AZ17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3463,13 +3479,13 @@
       </c>
       <c r="BA17" s="4"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>52</v>
@@ -3493,7 +3509,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3549,15 +3565,15 @@
       <c r="AS18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AT18" s="4" t="s">
-        <v>76</v>
+      <c r="AT18" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AZ18" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3565,13 +3581,13 @@
       </c>
       <c r="BA18" s="4"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
@@ -3653,7 +3669,7 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AZ19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3661,13 +3677,13 @@
       </c>
       <c r="BA19" s="4"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
@@ -3751,7 +3767,7 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AZ20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3759,13 +3775,13 @@
       </c>
       <c r="BA20" s="4"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -3851,7 +3867,7 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AZ21" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3859,13 +3875,13 @@
       </c>
       <c r="BA21" s="4"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
@@ -3947,7 +3963,7 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AZ22" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3955,13 +3971,13 @@
       </c>
       <c r="BA22" s="4"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
@@ -4047,7 +4063,7 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AZ23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4055,13 +4071,13 @@
       </c>
       <c r="BA23" s="4"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
@@ -4147,7 +4163,7 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AZ24" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4155,13 +4171,13 @@
       </c>
       <c r="BA24" s="4"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
@@ -4247,7 +4263,7 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AZ25" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4255,13 +4271,13 @@
       </c>
       <c r="BA25" s="4"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>52</v>
@@ -4349,7 +4365,7 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AZ26" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4357,13 +4373,13 @@
       </c>
       <c r="BA26" s="4"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>52</v>
@@ -4453,7 +4469,7 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AZ27" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4461,13 +4477,13 @@
       </c>
       <c r="BA27" s="4"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4553,7 +4569,7 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AZ28" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4561,13 +4577,13 @@
       </c>
       <c r="BA28" s="4"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>52</v>
@@ -4657,7 +4673,7 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AZ29" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4665,13 +4681,13 @@
       </c>
       <c r="BA29" s="4"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>
@@ -4761,7 +4777,7 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AZ30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4769,13 +4785,13 @@
       </c>
       <c r="BA30" s="4"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>52</v>
@@ -4865,7 +4881,7 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AZ31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4873,13 +4889,13 @@
       </c>
       <c r="BA31" s="4"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>52</v>
@@ -4971,7 +4987,7 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AZ32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4979,13 +4995,13 @@
       </c>
       <c r="BA32" s="4"/>
     </row>
-    <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>52</v>
@@ -5077,7 +5093,7 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AZ33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5085,13 +5101,13 @@
       </c>
       <c r="BA33" s="4"/>
     </row>
-    <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>52</v>
@@ -5183,7 +5199,7 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AZ34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5191,13 +5207,13 @@
       </c>
       <c r="BA34" s="4"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>52</v>
@@ -5278,14 +5294,14 @@
         <v>56</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AU35" s="4"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AZ35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5293,13 +5309,13 @@
       </c>
       <c r="BA35" s="4"/>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>52</v>
@@ -5311,7 +5327,7 @@
         <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -5323,7 +5339,7 @@
         <v>800</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -5381,7 +5397,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AZ36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5389,13 +5405,13 @@
       </c>
       <c r="BA36" s="4"/>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
@@ -5407,7 +5423,7 @@
         <v>52</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -5419,7 +5435,7 @@
         <v>800</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -5481,7 +5497,7 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AZ37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5489,13 +5505,13 @@
       </c>
       <c r="BA37" s="4"/>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>52</v>
@@ -5507,7 +5523,7 @@
         <v>52</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -5577,7 +5593,7 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AZ38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5585,13 +5601,13 @@
       </c>
       <c r="BA38" s="4"/>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>52</v>
@@ -5603,7 +5619,7 @@
         <v>52</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -5677,7 +5693,7 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AZ39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5685,13 +5701,13 @@
       </c>
       <c r="BA39" s="4"/>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>52</v>
@@ -5703,7 +5719,7 @@
         <v>52</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -5775,7 +5791,7 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AZ40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5783,13 +5799,13 @@
       </c>
       <c r="BA40" s="4"/>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>52</v>
@@ -5801,7 +5817,7 @@
         <v>52</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -5875,7 +5891,7 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AZ41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5883,13 +5899,13 @@
       </c>
       <c r="BA41" s="4"/>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>52</v>
@@ -5901,7 +5917,7 @@
         <v>52</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H42" s="4">
         <v>2</v>
@@ -5913,7 +5929,7 @@
         <v>1500</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -5971,7 +5987,7 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
       <c r="AY42" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AZ42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5979,13 +5995,13 @@
       </c>
       <c r="BA42" s="4"/>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>52</v>
@@ -5997,7 +6013,7 @@
         <v>52</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H43" s="4">
         <v>2</v>
@@ -6009,7 +6025,7 @@
         <v>2200</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -6071,7 +6087,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
       <c r="AY43" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AZ43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6079,13 +6095,13 @@
       </c>
       <c r="BA43" s="4"/>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>52</v>
@@ -6097,7 +6113,7 @@
         <v>52</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" s="4">
         <v>1</v>
@@ -6173,7 +6189,7 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AZ44" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6181,13 +6197,13 @@
       </c>
       <c r="BA44" s="4"/>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
@@ -6199,7 +6215,7 @@
         <v>52</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H45" s="4">
         <v>1</v>
@@ -6277,7 +6293,7 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
       <c r="AY45" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AZ45" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6285,13 +6301,13 @@
       </c>
       <c r="BA45" s="4"/>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>52</v>
@@ -6303,7 +6319,7 @@
         <v>52</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H46" s="4">
         <v>2</v>
@@ -6377,7 +6393,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AZ46" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6385,13 +6401,13 @@
       </c>
       <c r="BA46" s="4"/>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>52</v>
@@ -6403,7 +6419,7 @@
         <v>52</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H47" s="4">
         <v>2</v>
@@ -6481,7 +6497,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
       <c r="AY47" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AZ47" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6489,13 +6505,13 @@
       </c>
       <c r="BA47" s="4"/>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>52</v>
@@ -6507,7 +6523,7 @@
         <v>52</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
@@ -6587,7 +6603,7 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AZ48" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6595,13 +6611,13 @@
       </c>
       <c r="BA48" s="4"/>
     </row>
-    <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>52</v>
@@ -6613,7 +6629,7 @@
         <v>52</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H49" s="4">
         <v>2</v>
@@ -6693,7 +6709,7 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AZ49" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6701,13 +6717,13 @@
       </c>
       <c r="BA49" s="4"/>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>52</v>
@@ -6719,7 +6735,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="4">
         <v>2</v>
@@ -6788,14 +6804,14 @@
         <v>56</v>
       </c>
       <c r="AT50" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AZ50" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6806,10 +6822,10 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>52</v>
@@ -6821,7 +6837,7 @@
         <v>52</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="4">
         <v>2</v>
@@ -6833,7 +6849,7 @@
         <v>1500</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -6891,7 +6907,7 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
       <c r="AY51" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AZ51" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6902,10 +6918,10 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>52</v>
@@ -6917,7 +6933,7 @@
         <v>52</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="4">
         <v>2</v>
@@ -6929,7 +6945,7 @@
         <v>1500</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -6991,7 +7007,7 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AZ52" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7002,10 +7018,10 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
@@ -7017,7 +7033,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="4">
         <v>2</v>
@@ -7029,7 +7045,7 @@
         <v>2400</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -7087,7 +7103,7 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AZ53" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7098,10 +7114,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7113,7 +7129,7 @@
         <v>52</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
@@ -7125,7 +7141,7 @@
         <v>2700</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -7185,7 +7201,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7196,10 +7212,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7211,7 +7227,7 @@
         <v>52</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="4">
         <v>2</v>
@@ -7223,7 +7239,7 @@
         <v>2700</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -7281,7 +7297,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7292,10 +7308,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7307,7 +7323,7 @@
         <v>52</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="4">
         <v>2</v>
@@ -7319,7 +7335,7 @@
         <v>3600</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -7328,7 +7344,7 @@
         <v>56</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
@@ -7377,7 +7393,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7388,10 +7404,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7403,7 +7419,7 @@
         <v>52</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="4">
         <v>4</v>
@@ -7415,7 +7431,7 @@
         <v>4800</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -7424,7 +7440,7 @@
         <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
@@ -7434,7 +7450,7 @@
         <v>56</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -7475,7 +7491,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AZ57" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7486,10 +7502,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7501,7 +7517,7 @@
         <v>52</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="4">
         <v>4</v>
@@ -7513,7 +7529,7 @@
         <v>4800</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -7522,7 +7538,7 @@
         <v>56</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
@@ -7571,7 +7587,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AZ58" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7582,10 +7598,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7597,7 +7613,7 @@
         <v>52</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="4">
         <v>4</v>
@@ -7609,7 +7625,7 @@
         <v>6000</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -7618,7 +7634,7 @@
         <v>56</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
@@ -7667,7 +7683,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7678,10 +7694,10 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
@@ -7693,7 +7709,7 @@
         <v>52</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
@@ -7705,7 +7721,7 @@
         <v>1000</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -7763,7 +7779,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AZ60" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7774,10 +7790,10 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -7789,7 +7805,7 @@
         <v>52</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H61" s="4">
         <v>1</v>
@@ -7801,7 +7817,7 @@
         <v>1300</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -7810,7 +7826,7 @@
         <v>56</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
@@ -7820,7 +7836,7 @@
         <v>56</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
@@ -7861,7 +7877,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AZ61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7872,10 +7888,10 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -7887,7 +7903,7 @@
         <v>52</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
@@ -7899,7 +7915,7 @@
         <v>2000</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -7957,7 +7973,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AZ62" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7968,10 +7984,10 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>52</v>
@@ -7983,7 +7999,7 @@
         <v>52</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
@@ -7995,7 +8011,7 @@
         <v>2000</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -8055,7 +8071,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AZ63" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8066,10 +8082,10 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>52</v>
@@ -8081,7 +8097,7 @@
         <v>52</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64" s="4">
         <v>1</v>
@@ -8093,7 +8109,7 @@
         <v>2400</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -8155,7 +8171,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AZ64" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8166,10 +8182,10 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>52</v>
@@ -8181,7 +8197,7 @@
         <v>52</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
@@ -8193,7 +8209,7 @@
         <v>3100</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -8214,7 +8230,7 @@
         <v>56</v>
       </c>
       <c r="V65" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
@@ -8244,7 +8260,7 @@
         <v>56</v>
       </c>
       <c r="AN65" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO65" s="7"/>
       <c r="AP65" s="7"/>
@@ -8259,7 +8275,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AZ65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8270,10 +8286,10 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>52</v>
@@ -8285,7 +8301,7 @@
         <v>52</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H66" s="4">
         <v>2</v>
@@ -8297,7 +8313,7 @@
         <v>1700</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -8306,7 +8322,7 @@
         <v>56</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
@@ -8334,7 +8350,7 @@
         <v>56</v>
       </c>
       <c r="AH66" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
@@ -8357,7 +8373,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AZ66" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8368,10 +8384,10 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -8383,7 +8399,7 @@
         <v>52</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H67" s="4">
         <v>2</v>
@@ -8395,7 +8411,7 @@
         <v>1700</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -8404,7 +8420,7 @@
         <v>56</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
@@ -8461,7 +8477,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AZ67" s="18" t="str">
         <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
@@ -8642,7 +8658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8671,426 +8687,426 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9101,7 +9117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9117,123 +9133,123 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="24" t="s">
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="24" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="24" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="326">
   <si>
     <t>序号</t>
   </si>
@@ -370,52 +370,22 @@
     <t>安装净尺寸</t>
   </si>
   <si>
-    <t>1.0P-1.5P-C1</t>
-  </si>
-  <si>
     <t>1150*900*500</t>
   </si>
   <si>
-    <t>1.0P-1.5P-CY1</t>
-  </si>
-  <si>
     <t>有</t>
   </si>
   <si>
     <t>1250*900*500</t>
   </si>
   <si>
-    <t>1.0P-1.5P-H</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-HY1</t>
-  </si>
-  <si>
-    <t>1.0P-1.5P-HY2</t>
-  </si>
-  <si>
     <t>1150*900*650</t>
   </si>
   <si>
-    <t>2.0P-3.0P-C1</t>
-  </si>
-  <si>
     <t>1300*1150*650</t>
   </si>
   <si>
-    <t>2.0P-3.0P-CY1</t>
-  </si>
-  <si>
     <t>1400*1150*650</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-H</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY1</t>
-  </si>
-  <si>
-    <t>2.0P-3.0P-HY2</t>
   </si>
   <si>
     <t>1300*1150*750</t>
@@ -465,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_1.0P_C1.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AirCon_1.0P_CY1.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,18 +484,6 @@
   </si>
   <si>
     <t>AirCon_1.5P_HY1.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.5P-HY2.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_3.0P-C1.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_3.0P-CY1.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1210,6 +1164,109 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水管位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_CY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY2</t>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH52" sqref="AH52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="AY1" s="18" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AZ1" s="4" t="s">
         <v>50</v>
@@ -1856,16 +1913,16 @@
     <row r="2" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -1941,7 +1998,7 @@
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
       <c r="AY2" s="9" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AZ2" s="18" t="str">
         <f>SUBSTITUTE(C2,".","_P.",1)</f>
@@ -1952,10 +2009,10 @@
     <row r="3" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -2039,7 +2096,7 @@
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="AZ3" s="18" t="str">
         <f t="shared" ref="AZ3:AZ66" si="0">SUBSTITUTE(C3,".","_P.",1)</f>
@@ -2050,10 +2107,10 @@
     <row r="4" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>52</v>
@@ -2139,7 +2196,7 @@
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="AZ4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2150,10 +2207,10 @@
     <row r="5" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -2235,7 +2292,7 @@
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="AZ5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2246,10 +2303,10 @@
     <row r="6" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
@@ -2335,7 +2392,7 @@
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="AZ6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2346,10 +2403,10 @@
     <row r="7" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
@@ -2435,7 +2492,7 @@
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AZ7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2446,10 +2503,10 @@
     <row r="8" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>52</v>
@@ -2535,7 +2592,7 @@
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AZ8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2546,10 +2603,10 @@
     <row r="9" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2637,7 +2694,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2648,10 +2705,10 @@
     <row r="10" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>52</v>
@@ -2741,7 +2798,7 @@
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AZ10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2752,10 +2809,10 @@
     <row r="11" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
@@ -2841,7 +2898,7 @@
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="AZ11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2852,10 +2909,10 @@
     <row r="12" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -2945,7 +3002,7 @@
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AZ12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2956,10 +3013,10 @@
     <row r="13" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>52</v>
@@ -3049,7 +3106,7 @@
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AZ13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3060,10 +3117,10 @@
     <row r="14" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
@@ -3153,7 +3210,7 @@
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="AZ14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3164,10 +3221,10 @@
     <row r="15" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
@@ -3259,7 +3316,7 @@
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AZ15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3270,10 +3327,10 @@
     <row r="16" spans="1:53" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -3297,7 +3354,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3365,7 +3422,7 @@
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AZ16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3376,10 +3433,10 @@
     <row r="17" spans="1:53" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -3403,7 +3460,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3471,7 +3528,7 @@
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AZ17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3482,10 +3539,10 @@
     <row r="18" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>52</v>
@@ -3509,7 +3566,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3573,7 +3630,7 @@
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AZ18" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3584,10 +3641,10 @@
     <row r="19" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
@@ -3669,7 +3726,7 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AZ19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3680,10 +3737,10 @@
     <row r="20" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
@@ -3767,7 +3824,7 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AZ20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3778,10 +3835,10 @@
     <row r="21" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -3867,7 +3924,7 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AZ21" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3878,10 +3935,10 @@
     <row r="22" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
@@ -3963,7 +4020,7 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AZ22" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3974,10 +4031,10 @@
     <row r="23" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="18" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
@@ -4063,7 +4120,7 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AZ23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4074,10 +4131,10 @@
     <row r="24" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="18" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
@@ -4163,7 +4220,7 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="AZ24" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4174,10 +4231,10 @@
     <row r="25" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="18" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
@@ -4263,7 +4320,7 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AZ25" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4274,10 +4331,10 @@
     <row r="26" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="18" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>52</v>
@@ -4365,7 +4422,7 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="AZ26" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4376,10 +4433,10 @@
     <row r="27" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>52</v>
@@ -4469,7 +4526,7 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AZ27" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4480,10 +4537,10 @@
     <row r="28" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4569,7 +4626,7 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AZ28" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4580,10 +4637,10 @@
     <row r="29" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>52</v>
@@ -4673,7 +4730,7 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="AZ29" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4684,10 +4741,10 @@
     <row r="30" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>
@@ -4777,7 +4834,7 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AZ30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4788,10 +4845,10 @@
     <row r="31" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>52</v>
@@ -4881,7 +4938,7 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="AZ31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4892,10 +4949,10 @@
     <row r="32" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>52</v>
@@ -4987,7 +5044,7 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AZ32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4998,10 +5055,10 @@
     <row r="33" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>52</v>
@@ -5093,7 +5150,7 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AZ33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5104,10 +5161,10 @@
     <row r="34" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>52</v>
@@ -5199,7 +5256,7 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AZ34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5210,10 +5267,10 @@
     <row r="35" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>52</v>
@@ -5301,7 +5358,7 @@
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AZ35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5312,10 +5369,10 @@
     <row r="36" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>52</v>
@@ -5397,7 +5454,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AZ36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5408,10 +5465,10 @@
     <row r="37" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
@@ -5497,7 +5554,7 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AZ37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5508,10 +5565,10 @@
     <row r="38" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>52</v>
@@ -5593,7 +5650,7 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AZ38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5604,10 +5661,10 @@
     <row r="39" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>52</v>
@@ -5693,7 +5750,7 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AZ39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5704,10 +5761,10 @@
     <row r="40" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>52</v>
@@ -5791,7 +5848,7 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AZ40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5802,10 +5859,10 @@
     <row r="41" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>52</v>
@@ -5891,7 +5948,7 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AZ41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5902,10 +5959,10 @@
     <row r="42" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>52</v>
@@ -5987,7 +6044,7 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
       <c r="AY42" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AZ42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5998,10 +6055,10 @@
     <row r="43" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>52</v>
@@ -6087,7 +6144,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
       <c r="AY43" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AZ43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6098,10 +6155,10 @@
     <row r="44" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>52</v>
@@ -6189,7 +6246,7 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AZ44" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6200,10 +6257,10 @@
     <row r="45" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
@@ -6293,7 +6350,7 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
       <c r="AY45" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="AZ45" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6304,10 +6361,10 @@
     <row r="46" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>52</v>
@@ -6393,7 +6450,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AZ46" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6404,10 +6461,10 @@
     <row r="47" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>52</v>
@@ -6497,7 +6554,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
       <c r="AY47" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AZ47" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6508,10 +6565,10 @@
     <row r="48" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>52</v>
@@ -6603,7 +6660,7 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AZ48" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6614,10 +6671,10 @@
     <row r="49" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>52</v>
@@ -6709,7 +6766,7 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AZ49" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6720,10 +6777,10 @@
     <row r="50" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>52</v>
@@ -6811,7 +6868,7 @@
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AZ50" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6822,10 +6879,10 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>52</v>
@@ -6907,7 +6964,7 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
       <c r="AY51" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AZ51" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6918,10 +6975,10 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>52</v>
@@ -7007,7 +7064,7 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AZ52" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7018,10 +7075,10 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
@@ -7103,7 +7160,7 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AZ53" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7114,10 +7171,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7201,7 +7258,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7212,10 +7269,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7297,7 +7354,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7308,10 +7365,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7393,7 +7450,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7404,10 +7461,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7491,7 +7548,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AZ57" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7502,10 +7559,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7587,7 +7644,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AZ58" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7598,10 +7655,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7683,7 +7740,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7694,10 +7751,10 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
@@ -7779,7 +7836,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AZ60" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7790,10 +7847,10 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -7877,7 +7934,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AZ61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7888,10 +7945,10 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -7973,7 +8030,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AZ62" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7984,10 +8041,10 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>52</v>
@@ -8071,7 +8128,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AZ63" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8082,10 +8139,10 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>52</v>
@@ -8171,7 +8228,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AZ64" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8182,10 +8239,10 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>52</v>
@@ -8275,7 +8332,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AZ65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8286,10 +8343,10 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>52</v>
@@ -8373,7 +8430,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AZ66" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8384,10 +8441,10 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -8477,7 +8534,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AZ67" s="18" t="str">
         <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
@@ -8659,10 +8716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8673,10 +8730,11 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18" style="15" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8696,417 +8754,480 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="D13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="G13" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="17" t="s">
+    </row>
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="D14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="16" t="s">
+    </row>
+    <row r="17" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+    <row r="18" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="16" t="s">
+    </row>
+    <row r="19" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="G20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9170,7 +9291,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -9183,7 +9304,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -9204,52 +9325,52 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="外窗数据" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="337">
   <si>
     <t>序号</t>
   </si>
@@ -783,9 +783,6 @@
     <t>Window_NC6</t>
   </si>
   <si>
-    <t>Window_NC7_1</t>
-  </si>
-  <si>
     <t>Window_NC8</t>
   </si>
   <si>
@@ -1155,63 +1152,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Window_NC7_0.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.0P_HY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_2.0P_HY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_HY2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水管位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_CY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_C1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_3.0P_CY1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY2</t>
+  </si>
+  <si>
+    <t>AirCon_1.5P_HY2.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Window_NC7_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Window_NC7_0.dwg</t>
+    <t>Window_NC7_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
+    <t>AirCon_1.0P_CY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_1.0P_C1.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.0P_C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.0P_CY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.0P_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.0P_HY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.0P_HY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_2.0P_C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_2.0P_CY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_2.0P_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_2.0P_HY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_2.0P_HY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.5P_C1</t>
+    <t>AirCon_1.0P_CY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1219,54 +1279,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_1.5P_H</t>
+    <t>AirCon_1.5P_CY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_1.5P_HY1</t>
+    <t>AirCon_1.5P_CY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_3.0P_H</t>
+    <t>1.5P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_3.0P_HY1</t>
+    <t>AirCon_2.0P_CY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_3.0P_HY2</t>
+    <t>AirCon_2.0P_CY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雨水管位置</t>
+    <t>后面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
+    <t>AirCon_3.0P_CY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_3.0P_C1</t>
+    <t>AirCon_3.0P_CY2.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AirCon_3.0P_CY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_3.0P_C1.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_3.0P_CY1.dwg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AirCon_1.5P_HY2</t>
-  </si>
-  <si>
-    <t>AirCon_1.5P_HY2.dwg</t>
+    <t>3.0P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH52" sqref="AH52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1946,7 @@
         <v>49</v>
       </c>
       <c r="AY1" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AZ1" s="4" t="s">
         <v>50</v>
@@ -1910,19 +1955,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -1998,7 +2043,7 @@
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
       <c r="AY2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AZ2" s="18" t="str">
         <f>SUBSTITUTE(C2,".","_P.",1)</f>
@@ -2006,13 +2051,13 @@
       </c>
       <c r="BA2" s="4"/>
     </row>
-    <row r="3" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -2096,7 +2141,7 @@
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AZ3" s="18" t="str">
         <f t="shared" ref="AZ3:AZ66" si="0">SUBSTITUTE(C3,".","_P.",1)</f>
@@ -2104,13 +2149,13 @@
       </c>
       <c r="BA3" s="4"/>
     </row>
-    <row r="4" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>52</v>
@@ -2196,7 +2241,7 @@
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AZ4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2204,13 +2249,13 @@
       </c>
       <c r="BA4" s="4"/>
     </row>
-    <row r="5" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -2292,7 +2337,7 @@
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AZ5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2300,7 +2345,7 @@
       </c>
       <c r="BA5" s="4"/>
     </row>
-    <row r="6" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>171</v>
@@ -2400,7 +2445,7 @@
       </c>
       <c r="BA6" s="4"/>
     </row>
-    <row r="7" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>172</v>
@@ -2500,7 +2545,7 @@
       </c>
       <c r="BA7" s="4"/>
     </row>
-    <row r="8" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>173</v>
@@ -2600,13 +2645,13 @@
       </c>
       <c r="BA8" s="4"/>
     </row>
-    <row r="9" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2694,7 +2739,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2702,13 +2747,13 @@
       </c>
       <c r="BA9" s="4"/>
     </row>
-    <row r="10" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>52</v>
@@ -2798,7 +2843,7 @@
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2806,13 +2851,13 @@
       </c>
       <c r="BA10" s="4"/>
     </row>
-    <row r="11" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
@@ -2898,7 +2943,7 @@
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2906,13 +2951,13 @@
       </c>
       <c r="BA11" s="4"/>
     </row>
-    <row r="12" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -3002,7 +3047,7 @@
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3010,13 +3055,13 @@
       </c>
       <c r="BA12" s="4"/>
     </row>
-    <row r="13" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>52</v>
@@ -3106,7 +3151,7 @@
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3114,13 +3159,13 @@
       </c>
       <c r="BA13" s="4"/>
     </row>
-    <row r="14" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
@@ -3210,7 +3255,7 @@
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3218,13 +3263,13 @@
       </c>
       <c r="BA14" s="4"/>
     </row>
-    <row r="15" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
@@ -3283,7 +3328,9 @@
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="7">
+        <v>500</v>
+      </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="4" t="s">
         <v>56</v>
@@ -3316,7 +3363,7 @@
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AZ15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3324,13 +3371,13 @@
       </c>
       <c r="BA15" s="4"/>
     </row>
-    <row r="16" spans="1:53" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -3354,7 +3401,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3389,7 +3436,9 @@
       </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7">
+        <v>500</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="4" t="s">
         <v>56</v>
@@ -3422,7 +3471,7 @@
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AZ16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3430,13 +3479,13 @@
       </c>
       <c r="BA16" s="4"/>
     </row>
-    <row r="17" spans="1:53" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -3460,7 +3509,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3495,7 +3544,9 @@
       </c>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="7">
+        <v>500</v>
+      </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="4" t="s">
         <v>56</v>
@@ -3528,7 +3579,7 @@
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AZ17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3536,13 +3587,13 @@
       </c>
       <c r="BA17" s="4"/>
     </row>
-    <row r="18" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>52</v>
@@ -3566,7 +3617,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3630,7 +3681,7 @@
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ18" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3638,13 +3689,13 @@
       </c>
       <c r="BA18" s="4"/>
     </row>
-    <row r="19" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
@@ -3726,7 +3777,7 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3734,13 +3785,13 @@
       </c>
       <c r="BA19" s="4"/>
     </row>
-    <row r="20" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
@@ -3824,7 +3875,7 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AZ20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3832,13 +3883,13 @@
       </c>
       <c r="BA20" s="4"/>
     </row>
-    <row r="21" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -3924,7 +3975,7 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AZ21" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3932,13 +3983,13 @@
       </c>
       <c r="BA21" s="4"/>
     </row>
-    <row r="22" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
@@ -4020,7 +4071,7 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AZ22" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4028,13 +4079,13 @@
       </c>
       <c r="BA22" s="4"/>
     </row>
-    <row r="23" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
@@ -4120,7 +4171,7 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4128,13 +4179,13 @@
       </c>
       <c r="BA23" s="4"/>
     </row>
-    <row r="24" spans="1:53" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
@@ -4220,7 +4271,7 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AZ24" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4228,13 +4279,13 @@
       </c>
       <c r="BA24" s="4"/>
     </row>
-    <row r="25" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
@@ -4320,7 +4371,7 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AZ25" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4328,13 +4379,13 @@
       </c>
       <c r="BA25" s="4"/>
     </row>
-    <row r="26" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>52</v>
@@ -4422,7 +4473,7 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AZ26" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4430,13 +4481,13 @@
       </c>
       <c r="BA26" s="4"/>
     </row>
-    <row r="27" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>52</v>
@@ -4526,7 +4577,7 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AZ27" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4534,13 +4585,13 @@
       </c>
       <c r="BA27" s="4"/>
     </row>
-    <row r="28" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4626,7 +4677,7 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AZ28" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4634,13 +4685,13 @@
       </c>
       <c r="BA28" s="4"/>
     </row>
-    <row r="29" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>52</v>
@@ -4730,7 +4781,7 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AZ29" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4738,13 +4789,13 @@
       </c>
       <c r="BA29" s="4"/>
     </row>
-    <row r="30" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>
@@ -4834,7 +4885,7 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AZ30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4842,13 +4893,13 @@
       </c>
       <c r="BA30" s="4"/>
     </row>
-    <row r="31" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>52</v>
@@ -4938,7 +4989,7 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AZ31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4946,13 +4997,13 @@
       </c>
       <c r="BA31" s="4"/>
     </row>
-    <row r="32" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>52</v>
@@ -5011,7 +5062,9 @@
       </c>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="7">
+        <v>500</v>
+      </c>
       <c r="AF32" s="7"/>
       <c r="AG32" s="4" t="s">
         <v>56</v>
@@ -5044,7 +5097,7 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AZ32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5052,13 +5105,13 @@
       </c>
       <c r="BA32" s="4"/>
     </row>
-    <row r="33" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>52</v>
@@ -5117,7 +5170,9 @@
       </c>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="7">
+        <v>500</v>
+      </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="4" t="s">
         <v>56</v>
@@ -5150,7 +5205,7 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AZ33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5158,13 +5213,13 @@
       </c>
       <c r="BA33" s="4"/>
     </row>
-    <row r="34" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>52</v>
@@ -5223,7 +5278,9 @@
       </c>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
+      <c r="AE34" s="7">
+        <v>500</v>
+      </c>
       <c r="AF34" s="7"/>
       <c r="AG34" s="4" t="s">
         <v>56</v>
@@ -5256,7 +5313,7 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5264,13 +5321,13 @@
       </c>
       <c r="BA34" s="4"/>
     </row>
-    <row r="35" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>52</v>
@@ -5358,7 +5415,7 @@
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5366,13 +5423,13 @@
       </c>
       <c r="BA35" s="4"/>
     </row>
-    <row r="36" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>52</v>
@@ -5454,7 +5511,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5462,13 +5519,13 @@
       </c>
       <c r="BA36" s="4"/>
     </row>
-    <row r="37" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
@@ -5554,7 +5611,7 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5562,13 +5619,13 @@
       </c>
       <c r="BA37" s="4"/>
     </row>
-    <row r="38" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>52</v>
@@ -5650,7 +5707,7 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AZ38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5658,13 +5715,13 @@
       </c>
       <c r="BA38" s="4"/>
     </row>
-    <row r="39" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>52</v>
@@ -5750,7 +5807,7 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AZ39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5758,13 +5815,13 @@
       </c>
       <c r="BA39" s="4"/>
     </row>
-    <row r="40" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>52</v>
@@ -5848,7 +5905,7 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5856,13 +5913,13 @@
       </c>
       <c r="BA40" s="4"/>
     </row>
-    <row r="41" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>52</v>
@@ -5948,7 +6005,7 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AZ41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5956,13 +6013,13 @@
       </c>
       <c r="BA41" s="4"/>
     </row>
-    <row r="42" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>52</v>
@@ -6044,7 +6101,7 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
       <c r="AY42" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6052,13 +6109,13 @@
       </c>
       <c r="BA42" s="4"/>
     </row>
-    <row r="43" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>52</v>
@@ -6144,7 +6201,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
       <c r="AY43" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6152,13 +6209,13 @@
       </c>
       <c r="BA43" s="4"/>
     </row>
-    <row r="44" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>52</v>
@@ -6246,7 +6303,7 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AZ44" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6254,13 +6311,13 @@
       </c>
       <c r="BA44" s="4"/>
     </row>
-    <row r="45" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
@@ -6350,7 +6407,7 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
       <c r="AY45" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AZ45" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6358,13 +6415,13 @@
       </c>
       <c r="BA45" s="4"/>
     </row>
-    <row r="46" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>52</v>
@@ -6450,7 +6507,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AZ46" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6458,13 +6515,13 @@
       </c>
       <c r="BA46" s="4"/>
     </row>
-    <row r="47" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>52</v>
@@ -6554,7 +6611,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
       <c r="AY47" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AZ47" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6562,13 +6619,13 @@
       </c>
       <c r="BA47" s="4"/>
     </row>
-    <row r="48" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>52</v>
@@ -6627,7 +6684,9 @@
       </c>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="7">
+        <v>500</v>
+      </c>
       <c r="AF48" s="7"/>
       <c r="AG48" s="4" t="s">
         <v>56</v>
@@ -6660,7 +6719,7 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ48" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6668,13 +6727,13 @@
       </c>
       <c r="BA48" s="4"/>
     </row>
-    <row r="49" spans="1:53" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>52</v>
@@ -6733,7 +6792,9 @@
       </c>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="7">
+        <v>500</v>
+      </c>
       <c r="AF49" s="7"/>
       <c r="AG49" s="4" t="s">
         <v>56</v>
@@ -6766,7 +6827,7 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AZ49" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6774,13 +6835,13 @@
       </c>
       <c r="BA49" s="4"/>
     </row>
-    <row r="50" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>52</v>
@@ -6868,7 +6929,7 @@
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AZ50" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6879,10 +6940,10 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>52</v>
@@ -6964,7 +7025,7 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
       <c r="AY51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AZ51" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6975,10 +7036,10 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>52</v>
@@ -7064,7 +7125,7 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AZ52" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7075,10 +7136,10 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
@@ -7160,7 +7221,7 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AZ53" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7171,10 +7232,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7258,7 +7319,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7269,10 +7330,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7354,7 +7415,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7365,10 +7426,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7450,7 +7511,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7461,10 +7522,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7548,7 +7609,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AZ57" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7559,10 +7620,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7644,7 +7705,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AZ58" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7655,10 +7716,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7740,7 +7801,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7751,10 +7812,10 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
@@ -7836,7 +7897,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AZ60" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7847,10 +7908,10 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -7934,7 +7995,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AZ61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7945,10 +8006,10 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -8030,7 +8091,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AZ62" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8041,10 +8102,10 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>52</v>
@@ -8128,7 +8189,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AZ63" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8139,10 +8200,10 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>52</v>
@@ -8228,7 +8289,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AZ64" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8239,10 +8300,10 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>52</v>
@@ -8301,7 +8362,9 @@
       </c>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
+      <c r="AE65" s="10">
+        <v>700</v>
+      </c>
       <c r="AF65" s="7"/>
       <c r="AG65" s="4" t="s">
         <v>56</v>
@@ -8332,7 +8395,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AZ65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8343,10 +8406,10 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>52</v>
@@ -8430,7 +8493,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AZ66" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8441,10 +8504,10 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -8534,7 +8597,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AZ67" s="18" t="str">
         <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
@@ -8716,10 +8779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8754,7 +8817,7 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>114</v>
@@ -8763,10 +8826,10 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>124</v>
@@ -8775,7 +8838,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>58</v>
@@ -8787,7 +8850,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>133</v>
@@ -8808,109 +8871,108 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="H4" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>122</v>
@@ -8919,145 +8981,146 @@
         <v>129</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>130</v>
+        <v>58</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>127</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>58</v>
@@ -9071,16 +9134,16 @@
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>116</v>
@@ -9094,16 +9157,16 @@
     </row>
     <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>116</v>
@@ -9117,16 +9180,16 @@
     </row>
     <row r="17" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>58</v>
@@ -9135,21 +9198,21 @@
         <v>58</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>323</v>
+        <v>145</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>116</v>
@@ -9158,75 +9221,167 @@
         <v>129</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>146</v>
+        <v>322</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>116</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="F23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="324">
   <si>
     <t>序号</t>
   </si>
@@ -365,58 +365,6 @@
   </si>
   <si>
     <t>是否有雨水立管穿过</t>
-  </si>
-  <si>
-    <t>安装净尺寸</t>
-  </si>
-  <si>
-    <t>1150*900*500</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>1250*900*500</t>
-  </si>
-  <si>
-    <t>1150*900*650</t>
-  </si>
-  <si>
-    <t>1300*1150*650</t>
-  </si>
-  <si>
-    <t>1400*1150*650</t>
-  </si>
-  <si>
-    <t>1300*1150*750</t>
-  </si>
-  <si>
-    <t>2.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>侧面</t>
@@ -1232,10 +1180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AirCon_3.0P_C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1287,10 +1231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AirCon_2.0P_CY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,7 +1251,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.0P</t>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1402,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1463,6 +1419,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1946,7 +1905,7 @@
         <v>49</v>
       </c>
       <c r="AY1" s="18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="AZ1" s="4" t="s">
         <v>50</v>
@@ -1958,16 +1917,16 @@
     <row r="2" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -2043,7 +2002,7 @@
       <c r="AW2" s="9"/>
       <c r="AX2" s="9"/>
       <c r="AY2" s="9" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="AZ2" s="18" t="str">
         <f>SUBSTITUTE(C2,".","_P.",1)</f>
@@ -2054,10 +2013,10 @@
     <row r="3" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -2141,7 +2100,7 @@
       <c r="AW3" s="9"/>
       <c r="AX3" s="9"/>
       <c r="AY3" s="9" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="AZ3" s="18" t="str">
         <f t="shared" ref="AZ3:AZ66" si="0">SUBSTITUTE(C3,".","_P.",1)</f>
@@ -2152,10 +2111,10 @@
     <row r="4" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>52</v>
@@ -2241,7 +2200,7 @@
       <c r="AW4" s="9"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AZ4" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2252,10 +2211,10 @@
     <row r="5" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -2337,7 +2296,7 @@
       <c r="AW5" s="9"/>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AZ5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2348,10 +2307,10 @@
     <row r="6" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
@@ -2437,7 +2396,7 @@
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AZ6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2448,10 +2407,10 @@
     <row r="7" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
@@ -2537,7 +2496,7 @@
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AZ7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2548,10 +2507,10 @@
     <row r="8" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>52</v>
@@ -2637,7 +2596,7 @@
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
       <c r="AY8" s="9" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AZ8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2648,10 +2607,10 @@
     <row r="9" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2739,7 +2698,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2750,10 +2709,10 @@
     <row r="10" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>52</v>
@@ -2843,7 +2802,7 @@
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AZ10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2854,10 +2813,10 @@
     <row r="11" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
@@ -2943,7 +2902,7 @@
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="9" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AZ11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2954,10 +2913,10 @@
     <row r="12" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>52</v>
@@ -3047,7 +3006,7 @@
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="AZ12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3058,10 +3017,10 @@
     <row r="13" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>52</v>
@@ -3151,7 +3110,7 @@
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="9" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AZ13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3162,10 +3121,10 @@
     <row r="14" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
@@ -3255,7 +3214,7 @@
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AZ14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3266,10 +3225,10 @@
     <row r="15" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
@@ -3363,7 +3322,7 @@
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
       <c r="AY15" s="9" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AZ15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3374,10 +3333,10 @@
     <row r="16" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>52</v>
@@ -3401,7 +3360,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3471,7 +3430,7 @@
       <c r="AW16" s="9"/>
       <c r="AX16" s="9"/>
       <c r="AY16" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="AZ16" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3482,10 +3441,10 @@
     <row r="17" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
@@ -3509,7 +3468,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3579,7 +3538,7 @@
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
       <c r="AY17" s="9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AZ17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3590,10 +3549,10 @@
     <row r="18" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>52</v>
@@ -3617,7 +3576,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3681,7 +3640,7 @@
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AZ18" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3692,10 +3651,10 @@
     <row r="19" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
@@ -3777,7 +3736,7 @@
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="AZ19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3788,10 +3747,10 @@
     <row r="20" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>52</v>
@@ -3875,7 +3834,7 @@
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AZ20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3886,10 +3845,10 @@
     <row r="21" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>52</v>
@@ -3975,7 +3934,7 @@
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="AZ21" s="18" t="str">
         <f t="shared" si="0"/>
@@ -3986,10 +3945,10 @@
     <row r="22" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>52</v>
@@ -4071,7 +4030,7 @@
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="AZ22" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4082,10 +4041,10 @@
     <row r="23" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="18" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>52</v>
@@ -4171,7 +4130,7 @@
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="AZ23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4182,10 +4141,10 @@
     <row r="24" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="18" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
@@ -4271,7 +4230,7 @@
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="AZ24" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4282,10 +4241,10 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>52</v>
@@ -4371,7 +4330,7 @@
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="AZ25" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4382,10 +4341,10 @@
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="18" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>52</v>
@@ -4473,7 +4432,7 @@
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="AZ26" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4484,10 +4443,10 @@
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>52</v>
@@ -4577,7 +4536,7 @@
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="AZ27" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4588,10 +4547,10 @@
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4677,7 +4636,7 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="AZ28" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4688,10 +4647,10 @@
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>52</v>
@@ -4781,7 +4740,7 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="AZ29" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4792,10 +4751,10 @@
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>
@@ -4885,7 +4844,7 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AZ30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4896,10 +4855,10 @@
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>52</v>
@@ -4989,7 +4948,7 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AZ31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5000,10 +4959,10 @@
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>52</v>
@@ -5097,7 +5056,7 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AZ32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5108,10 +5067,10 @@
     <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>52</v>
@@ -5205,7 +5164,7 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="AZ33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5216,10 +5175,10 @@
     <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>52</v>
@@ -5313,7 +5272,7 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="AZ34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5324,10 +5283,10 @@
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>52</v>
@@ -5415,7 +5374,7 @@
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AZ35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5426,10 +5385,10 @@
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>52</v>
@@ -5511,7 +5470,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="AZ36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5522,10 +5481,10 @@
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
@@ -5611,7 +5570,7 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AZ37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5622,10 +5581,10 @@
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>52</v>
@@ -5707,7 +5666,7 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AZ38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5718,10 +5677,10 @@
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>52</v>
@@ -5807,7 +5766,7 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="AZ39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5818,10 +5777,10 @@
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>52</v>
@@ -5905,7 +5864,7 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="AZ40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5916,10 +5875,10 @@
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>52</v>
@@ -6005,7 +5964,7 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="AZ41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6016,10 +5975,10 @@
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>52</v>
@@ -6101,7 +6060,7 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
       <c r="AY42" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="AZ42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6112,10 +6071,10 @@
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>52</v>
@@ -6201,7 +6160,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
       <c r="AY43" s="4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AZ43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6212,10 +6171,10 @@
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>52</v>
@@ -6303,7 +6262,7 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="4" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AZ44" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6314,10 +6273,10 @@
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
@@ -6407,7 +6366,7 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
       <c r="AY45" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AZ45" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6418,10 +6377,10 @@
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>52</v>
@@ -6507,7 +6466,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="4" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="AZ46" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6518,10 +6477,10 @@
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>52</v>
@@ -6611,7 +6570,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
       <c r="AY47" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="AZ47" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6622,10 +6581,10 @@
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>52</v>
@@ -6719,7 +6678,7 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="AZ48" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6730,10 +6689,10 @@
     <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>52</v>
@@ -6827,7 +6786,7 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="AZ49" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6838,10 +6797,10 @@
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>52</v>
@@ -6929,7 +6888,7 @@
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="AZ50" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6940,10 +6899,10 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>52</v>
@@ -7025,7 +6984,7 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
       <c r="AY51" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="AZ51" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7036,10 +6995,10 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>52</v>
@@ -7125,7 +7084,7 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="AZ52" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7136,10 +7095,10 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
@@ -7221,7 +7180,7 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="AZ53" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7232,10 +7191,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7319,7 +7278,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7330,10 +7289,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7415,7 +7374,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7426,10 +7385,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7511,7 +7470,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7522,10 +7481,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7609,7 +7568,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AZ57" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7620,10 +7579,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7705,7 +7664,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="AZ58" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7716,10 +7675,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7801,7 +7760,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7812,10 +7771,10 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
@@ -7897,7 +7856,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="AZ60" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7908,10 +7867,10 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -7995,7 +7954,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AZ61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8006,10 +7965,10 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -8091,7 +8050,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="AZ62" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8102,10 +8061,10 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>52</v>
@@ -8189,7 +8148,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="AZ63" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8200,10 +8159,10 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>52</v>
@@ -8289,7 +8248,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="AZ64" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8300,10 +8259,10 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>52</v>
@@ -8395,7 +8354,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AZ65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8406,10 +8365,10 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>52</v>
@@ -8493,7 +8452,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AZ66" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8504,10 +8463,10 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -8597,7 +8556,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AZ67" s="18" t="str">
         <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
@@ -8779,10 +8738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8794,10 +8753,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" customWidth="1"/>
     <col min="7" max="7" width="18" style="15" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -8817,572 +8776,722 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>124</v>
+        <v>283</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I2" s="22">
+        <v>900</v>
+      </c>
+      <c r="J2" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1250</v>
+      </c>
+      <c r="I3" s="22">
+        <v>900</v>
+      </c>
+      <c r="J3" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>124</v>
+        <v>310</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I4" s="22">
+        <v>900</v>
+      </c>
+      <c r="J4" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I5" s="22">
+        <v>900</v>
+      </c>
+      <c r="J5" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1250</v>
+      </c>
+      <c r="I6" s="22">
+        <v>900</v>
+      </c>
+      <c r="J6" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I7" s="22">
+        <v>900</v>
+      </c>
+      <c r="J7" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="17" t="s">
         <v>122</v>
       </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
       <c r="E8" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J8" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J9" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>122</v>
+        <v>315</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J10" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J11" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="17" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J12" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J13" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I14" s="22">
+        <v>900</v>
+      </c>
+      <c r="J14" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1250</v>
+      </c>
+      <c r="I15" s="22">
+        <v>900</v>
+      </c>
+      <c r="J15" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I16" s="22">
+        <v>900</v>
+      </c>
+      <c r="J16" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I17" s="22">
+        <v>900</v>
+      </c>
+      <c r="J17" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="D18" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="F18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="22">
+        <v>1250</v>
+      </c>
+      <c r="I18" s="22">
+        <v>900</v>
+      </c>
+      <c r="J18" s="22">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="F19" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="H19" s="22">
+        <v>1150</v>
+      </c>
+      <c r="I19" s="22">
+        <v>900</v>
+      </c>
+      <c r="J19" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J20" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1400</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J21" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="17">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J22" s="22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="D23" s="17">
+        <v>3</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="G23" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I23" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J23" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="G24" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H24" s="22">
+        <v>1400</v>
+      </c>
+      <c r="I24" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J24" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="D25" s="17">
+        <v>3</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="H25" s="22">
+        <v>1300</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1150</v>
+      </c>
+      <c r="J25" s="22">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -9432,100 +9541,100 @@
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="外窗数据" sheetId="1" r:id="rId1"/>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="S37" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8740,7 +8740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/Support/Sunac2019/LocalMode/外窗数据.xlsx
+++ b/Support/Sunac2019/LocalMode/外窗数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="330">
   <si>
     <t>序号</t>
   </si>
@@ -1050,24 +1050,6 @@
     <t>Door_TLM1</t>
   </si>
   <si>
-    <t>Door_TLM2</t>
-  </si>
-  <si>
-    <t>Door_TLM3</t>
-  </si>
-  <si>
-    <t>Door_TLM4</t>
-  </si>
-  <si>
-    <t>Door_TLM5</t>
-  </si>
-  <si>
-    <t>Door_TLM6</t>
-  </si>
-  <si>
-    <t>Door_TLM7</t>
-  </si>
-  <si>
     <t>Door_WM1</t>
   </si>
   <si>
@@ -1087,9 +1069,6 @@
   </si>
   <si>
     <t>Door_WLC2</t>
-  </si>
-  <si>
-    <t>Door_WLC3</t>
   </si>
   <si>
     <t>(W1-85)*(H1-115)*2</t>
@@ -1269,6 +1248,56 @@
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_WLC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM2.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM3.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TLM4.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM1.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM2.dwg</t>
+  </si>
+  <si>
+    <t>Door_TSTLM3.dwg</t>
   </si>
 </sst>
 </file>
@@ -1712,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S37" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1955,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -2607,10 +2636,10 @@
     <row r="9" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2698,7 +2727,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2709,7 +2738,7 @@
     <row r="10" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>165</v>
@@ -3360,7 +3389,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3468,7 +3497,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3576,7 +3605,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -7191,10 +7220,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7209,16 +7238,16 @@
         <v>80</v>
       </c>
       <c r="H54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="4">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J54" s="4">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -7227,18 +7256,16 @@
         <v>56</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V54" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
@@ -7278,7 +7305,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7289,10 +7316,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7307,16 +7334,16 @@
         <v>80</v>
       </c>
       <c r="H55" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="4">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="J55" s="4">
-        <v>2700</v>
+        <v>4800</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -7325,16 +7352,18 @@
         <v>56</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V55" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
@@ -7374,7 +7403,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7385,10 +7414,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7403,13 +7432,13 @@
         <v>80</v>
       </c>
       <c r="H56" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" s="4">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J56" s="4">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>84</v>
@@ -7421,7 +7450,7 @@
         <v>56</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
@@ -7470,7 +7499,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7481,10 +7510,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7499,16 +7528,16 @@
         <v>80</v>
       </c>
       <c r="H57" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" s="4">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="J57" s="4">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -7517,7 +7546,7 @@
         <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
@@ -7526,8 +7555,8 @@
       <c r="U57" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="V57" s="7" t="s">
-        <v>86</v>
+      <c r="V57" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -7568,21 +7597,21 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AZ57" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Door_TLM5_P.dwg</v>
+        <f>SUBSTITUTE(C57,".","_P.",1)</f>
+        <v>Door_TSTLM1_P.dwg</v>
       </c>
       <c r="BA57" s="4"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7597,16 +7626,16 @@
         <v>80</v>
       </c>
       <c r="H58" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="J58" s="4">
-        <v>4800</v>
+        <v>2700</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -7615,7 +7644,7 @@
         <v>56</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
@@ -7664,21 +7693,21 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AZ58" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Door_TLM6_P.dwg</v>
+        <f>SUBSTITUTE(C58,".","_P.",1)</f>
+        <v>Door_TSTLM2_P.dwg</v>
       </c>
       <c r="BA58" s="4"/>
     </row>
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7764,14 +7793,14 @@
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Door_TLM7_P.dwg</v>
+        <v>Door_TSTLM3_P.dwg</v>
       </c>
       <c r="BA59" s="4"/>
     </row>
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>215</v>
@@ -7867,7 +7896,7 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>216</v>
@@ -7965,7 +7994,7 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>217</v>
@@ -8061,7 +8090,7 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>218</v>
@@ -8159,7 +8188,7 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>219</v>
@@ -8259,7 +8288,7 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>220</v>
@@ -8365,7 +8394,7 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>221</v>
@@ -8463,7 +8492,7 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>222</v>
@@ -8776,25 +8805,25 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8803,7 +8832,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>58</v>
@@ -8821,7 +8850,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>118</v>
@@ -8833,7 +8862,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>114</v>
@@ -8850,10 +8879,10 @@
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -8862,7 +8891,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>115</v>
@@ -8880,7 +8909,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>119</v>
@@ -8892,7 +8921,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>58</v>
@@ -8910,7 +8939,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>120</v>
@@ -8922,7 +8951,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>114</v>
@@ -8940,7 +8969,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>121</v>
@@ -8952,7 +8981,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>115</v>
@@ -8970,7 +8999,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>122</v>
@@ -8982,7 +9011,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>58</v>
@@ -9000,7 +9029,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>123</v>
@@ -9012,7 +9041,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>114</v>
@@ -9029,10 +9058,10 @@
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -9041,10 +9070,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H10" s="22">
         <v>1300</v>
@@ -9059,7 +9088,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>124</v>
@@ -9071,7 +9100,7 @@
         <v>117</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>58</v>
@@ -9089,7 +9118,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="17" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>125</v>
@@ -9101,7 +9130,7 @@
         <v>115</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>114</v>
@@ -9119,7 +9148,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>126</v>
@@ -9131,7 +9160,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>115</v>
@@ -9148,7 +9177,7 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>127</v>
@@ -9160,7 +9189,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>58</v>
@@ -9177,7 +9206,7 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>128</v>
@@ -9189,7 +9218,7 @@
         <v>114</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>114</v>
@@ -9206,10 +9235,10 @@
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D16" s="17">
         <v>1.5</v>
@@ -9218,7 +9247,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>115</v>
@@ -9235,7 +9264,7 @@
     </row>
     <row r="17" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>129</v>
@@ -9247,7 +9276,7 @@
         <v>115</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>58</v>
@@ -9264,7 +9293,7 @@
     </row>
     <row r="18" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>130</v>
@@ -9276,7 +9305,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>114</v>
@@ -9293,10 +9322,10 @@
     </row>
     <row r="19" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D19" s="17">
         <v>1.5</v>
@@ -9305,7 +9334,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>115</v>
@@ -9322,10 +9351,10 @@
     </row>
     <row r="20" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D20" s="17">
         <v>3</v>
@@ -9334,7 +9363,7 @@
         <v>114</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>58</v>
@@ -9351,10 +9380,10 @@
     </row>
     <row r="21" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D21" s="17">
         <v>3</v>
@@ -9363,7 +9392,7 @@
         <v>114</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>114</v>
@@ -9380,10 +9409,10 @@
     </row>
     <row r="22" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
@@ -9392,10 +9421,10 @@
         <v>114</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H22" s="22">
         <v>1300</v>
@@ -9409,7 +9438,7 @@
     </row>
     <row r="23" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>131</v>
@@ -9421,7 +9450,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>58</v>
@@ -9438,7 +9467,7 @@
     </row>
     <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>132</v>
@@ -9450,7 +9479,7 @@
         <v>115</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>114</v>
@@ -9467,7 +9496,7 @@
     </row>
     <row r="25" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>133</v>
@@ -9479,7 +9508,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>115</v>
